--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="679">
   <si>
     <t>MPI</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Brian Miller;</t>
-  </si>
-  <si>
-    <t>Christine Weber</t>
   </si>
   <si>
     <t>Dan Goodhew</t>
@@ -2313,13 +2310,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q6">
-            <v>44123.340422222223</v>
+            <v>44123.430525462965</v>
           </cell>
           <cell r="R6">
-            <v>44130.340422222223</v>
+            <v>44130.430525462965</v>
           </cell>
           <cell r="S6">
-            <v>44137.340422222223</v>
+            <v>44137.430525462965</v>
           </cell>
         </row>
         <row r="8">
@@ -2392,13 +2389,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q16">
-            <v>44123.340422222223</v>
+            <v>44123.430525462965</v>
           </cell>
           <cell r="R16">
-            <v>44130.340422222223</v>
+            <v>44130.430525462965</v>
           </cell>
           <cell r="S16">
-            <v>44137.340422222223</v>
+            <v>44137.430525462965</v>
           </cell>
         </row>
         <row r="17">
@@ -2523,13 +2520,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q47">
-            <v>44123.340422222223</v>
+            <v>44123.430525462965</v>
           </cell>
           <cell r="R47">
-            <v>44130.340422222223</v>
+            <v>44130.430525462965</v>
           </cell>
           <cell r="S47">
-            <v>44137.340422222223</v>
+            <v>44137.430525462965</v>
           </cell>
         </row>
         <row r="48">
@@ -2565,10 +2562,10 @@
         </row>
         <row r="49">
           <cell r="P49">
-            <v>0</v>
+            <v>480</v>
           </cell>
           <cell r="Q49">
-            <v>2280</v>
+            <v>1800</v>
           </cell>
           <cell r="R49">
             <v>3680</v>
@@ -2611,7 +2608,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="Q1">
-            <v>44126.340422222223</v>
+            <v>44126.430525462965</v>
           </cell>
         </row>
         <row r="5">
@@ -7512,8 +7509,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP444"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:M271"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V213" sqref="V213:AP271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7651,15 +7648,15 @@
       </c>
       <c r="AK1" s="5">
         <f>'[1]CSD I INV'!$Q$6</f>
-        <v>44123.340422222223</v>
+        <v>44123.430525462965</v>
       </c>
       <c r="AL1" s="5">
         <f>'[1]CSD I INV'!$R$6</f>
-        <v>44130.340422222223</v>
+        <v>44130.430525462965</v>
       </c>
       <c r="AM1" s="5">
         <f>'[1]CSD I INV'!$S$6</f>
-        <v>44137.340422222223</v>
+        <v>44137.430525462965</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7879,15 +7876,15 @@
       </c>
       <c r="AK4" s="7">
         <f>'[1]CSD I INV'!$Q$16</f>
-        <v>44123.340422222223</v>
+        <v>44123.430525462965</v>
       </c>
       <c r="AL4" s="7">
         <f>'[1]CSD I INV'!$R$16</f>
-        <v>44130.340422222223</v>
+        <v>44130.430525462965</v>
       </c>
       <c r="AM4" s="7">
         <f>'[1]CSD I INV'!$S$16</f>
-        <v>44137.340422222223</v>
+        <v>44137.430525462965</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8183,15 +8180,15 @@
       </c>
       <c r="AK8" s="7">
         <f>'[1]CSD I INV'!$Q$47</f>
-        <v>44123.340422222223</v>
+        <v>44123.430525462965</v>
       </c>
       <c r="AL8" s="7">
         <f>'[1]CSD I INV'!$R$47</f>
-        <v>44130.340422222223</v>
+        <v>44130.430525462965</v>
       </c>
       <c r="AM8" s="7">
         <f>'[1]CSD I INV'!$S$47</f>
-        <v>44137.340422222223</v>
+        <v>44137.430525462965</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8264,11 +8261,11 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="7">
         <f>'[1]CSD I INV'!$P$49</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AK9" s="7">
         <f>'[1]CSD I INV'!$Q$49</f>
-        <v>2280</v>
+        <v>1800</v>
       </c>
       <c r="AL9" s="7">
         <f>'[1]CSD I INV'!$R$49</f>
@@ -10283,7 +10280,7 @@
     <row r="42" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <f>'[1]CSD II INV'!$Q$1</f>
-        <v>44126.340422222223</v>
+        <v>44126.430525462965</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -31186,130 +31183,130 @@
     <row r="209" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="212" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A212" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="B212" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="B212" s="28" t="s">
+      <c r="C212" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="D212" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="D212" s="28" t="s">
+      <c r="E212" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="E212" s="28" t="s">
+      <c r="F212" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="F212" s="28" t="s">
+      <c r="G212" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="G212" s="28" t="s">
+      <c r="H212" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="H212" s="28" t="s">
+      <c r="I212" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="I212" s="28" t="s">
+      <c r="J212" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="J212" s="28" t="s">
+      <c r="K212" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="K212" s="28" t="s">
+      <c r="L212" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="L212" s="28" t="s">
+      <c r="M212" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="M212" s="28" t="s">
+      <c r="N212" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="N212" s="28" t="s">
+      <c r="O212" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="O212" s="28" t="s">
+      <c r="P212" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="P212" s="28" t="s">
+      <c r="Q212" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="Q212" s="28" t="s">
+      <c r="R212" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="R212" s="28" t="s">
+      <c r="S212" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="S212" s="28" t="s">
+      <c r="T212" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="T212" s="28" t="s">
+      <c r="U212" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="U212" s="28" t="s">
-        <v>543</v>
-      </c>
       <c r="V212" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="W212" s="30" t="s">
         <v>523</v>
       </c>
-      <c r="W212" s="30" t="s">
+      <c r="X212" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="X212" s="30" t="s">
+      <c r="Y212" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="Y212" s="30" t="s">
+      <c r="Z212" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="Z212" s="31" t="s">
+      <c r="AA212" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="AA212" s="31" t="s">
+      <c r="AB212" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="AB212" s="31" t="s">
+      <c r="AC212" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="AC212" s="31" t="s">
+      <c r="AD212" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="AD212" s="31" t="s">
+      <c r="AE212" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="AE212" s="31" t="s">
+      <c r="AF212" s="31" t="s">
         <v>532</v>
       </c>
-      <c r="AF212" s="31" t="s">
+      <c r="AG212" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="AG212" s="31" t="s">
+      <c r="AH212" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="AH212" s="31" t="s">
+      <c r="AI212" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="AI212" s="30" t="s">
+      <c r="AJ212" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="AJ212" s="30" t="s">
+      <c r="AK212" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="AK212" s="30" t="s">
+      <c r="AL212" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="AL212" s="30" t="s">
+      <c r="AM212" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="AM212" s="31" t="s">
+      <c r="AN212" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="AN212" s="31" t="s">
+      <c r="AO212" s="31" t="s">
         <v>541</v>
       </c>
-      <c r="AO212" s="31" t="s">
+      <c r="AP212" s="31" t="s">
         <v>542</v>
-      </c>
-      <c r="AP212" s="31" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.2">
@@ -31332,7 +31329,7 @@
         <v>204</v>
       </c>
       <c r="G213" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H213" s="27" t="s">
         <v>205</v>
@@ -31341,32 +31338,32 @@
         <v>206</v>
       </c>
       <c r="J213" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="K213" s="27" t="s">
         <v>545</v>
-      </c>
-      <c r="K213" s="27" t="s">
-        <v>546</v>
       </c>
       <c r="L213" s="27" t="s">
         <v>207</v>
       </c>
       <c r="M213" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N213" s="27"/>
       <c r="O213" s="27"/>
       <c r="P213" s="27"/>
       <c r="Q213" s="27"/>
       <c r="R213" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="S213" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="S213" s="27" t="s">
+      <c r="T213" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="T213" s="27" t="s">
+      <c r="U213" s="27" t="s">
         <v>550</v>
-      </c>
-      <c r="U213" s="27" t="s">
-        <v>551</v>
       </c>
       <c r="V213" s="32">
         <v>6569</v>
@@ -31408,16 +31405,16 @@
         <v>6969</v>
       </c>
       <c r="AI213" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ213" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK213" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL213" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM213" s="32">
         <v>904</v>
@@ -31449,7 +31446,7 @@
         <v>211</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G214" s="27" t="s">
         <v>212</v>
@@ -31461,38 +31458,38 @@
         <v>214</v>
       </c>
       <c r="J214" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="K214" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="K214" s="27" t="s">
+      <c r="L214" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="L214" s="27" t="s">
+      <c r="M214" s="27" t="s">
         <v>556</v>
-      </c>
-      <c r="M214" s="27" t="s">
-        <v>557</v>
       </c>
       <c r="N214" s="27"/>
       <c r="O214" s="27"/>
       <c r="P214" s="27"/>
       <c r="Q214" s="27"/>
       <c r="R214" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="S214" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="S214" s="27" t="s">
+      <c r="T214" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="T214" s="27" t="s">
+      <c r="U214" s="27" t="s">
         <v>560</v>
-      </c>
-      <c r="U214" s="27" t="s">
-        <v>561</v>
       </c>
       <c r="V214" s="32">
         <v>6905</v>
       </c>
       <c r="W214" s="32">
-        <v>116</v>
+        <v>812</v>
       </c>
       <c r="X214" s="32">
         <v>6865</v>
@@ -31528,16 +31525,16 @@
         <v>4532</v>
       </c>
       <c r="AI214" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ214" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK214" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL214" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM214" s="32">
         <v>868</v>
@@ -31581,38 +31578,38 @@
         <v>228</v>
       </c>
       <c r="J215" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="K215" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="K215" s="27" t="s">
+      <c r="L215" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="L215" s="27" t="s">
+      <c r="M215" s="27" t="s">
         <v>564</v>
-      </c>
-      <c r="M215" s="27" t="s">
-        <v>565</v>
       </c>
       <c r="N215" s="27"/>
       <c r="O215" s="27"/>
       <c r="P215" s="27"/>
       <c r="Q215" s="27"/>
       <c r="R215" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="S215" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="S215" s="27" t="s">
+      <c r="T215" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="T215" s="27" t="s">
+      <c r="U215" s="27" t="s">
         <v>568</v>
-      </c>
-      <c r="U215" s="27" t="s">
-        <v>569</v>
       </c>
       <c r="V215" s="32">
         <v>966</v>
       </c>
       <c r="W215" s="32">
-        <v>812</v>
+        <v>6912</v>
       </c>
       <c r="X215" s="32">
         <v>6917</v>
@@ -31648,16 +31645,16 @@
         <v>6921</v>
       </c>
       <c r="AI215" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ215" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK215" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL215" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM215" s="32">
         <v>6733</v>
@@ -31677,7 +31674,7 @@
         <v>223</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C216" s="27" t="s">
         <v>225</v>
@@ -31692,22 +31689,22 @@
         <v>227</v>
       </c>
       <c r="G216" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="H216" s="27" t="s">
         <v>570</v>
-      </c>
-      <c r="H216" s="27" t="s">
-        <v>571</v>
       </c>
       <c r="I216" s="27" t="s">
         <v>236</v>
       </c>
       <c r="J216" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="K216" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="K216" s="27" t="s">
+      <c r="L216" s="27" t="s">
         <v>573</v>
-      </c>
-      <c r="L216" s="27" t="s">
-        <v>574</v>
       </c>
       <c r="M216" s="27" t="s">
         <v>229</v>
@@ -31717,28 +31714,28 @@
       <c r="P216" s="27"/>
       <c r="Q216" s="27"/>
       <c r="R216" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="S216" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="S216" s="27" t="s">
+      <c r="T216" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="T216" s="27" t="s">
+      <c r="U216" s="27" t="s">
         <v>577</v>
-      </c>
-      <c r="U216" s="27" t="s">
-        <v>578</v>
       </c>
       <c r="V216" s="32">
         <v>961</v>
       </c>
       <c r="W216" s="32">
-        <v>6912</v>
+        <v>116</v>
       </c>
       <c r="X216" s="32">
         <v>7008</v>
       </c>
-      <c r="Y216" s="32" t="s">
-        <v>679</v>
+      <c r="Y216" s="32">
+        <v>844</v>
       </c>
       <c r="Z216" s="32">
         <v>6966</v>
@@ -31768,16 +31765,16 @@
         <v>5240</v>
       </c>
       <c r="AI216" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ216" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK216" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL216" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM216" s="32">
         <v>7009</v>
@@ -31797,7 +31794,7 @@
         <v>237</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C217" s="27" t="s">
         <v>230</v>
@@ -31821,35 +31818,35 @@
         <v>245</v>
       </c>
       <c r="J217" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="K217" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="K217" s="27" t="s">
+      <c r="L217" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="L217" s="27" t="s">
+      <c r="M217" s="27" t="s">
         <v>582</v>
-      </c>
-      <c r="M217" s="27" t="s">
-        <v>583</v>
       </c>
       <c r="N217" s="27"/>
       <c r="O217" s="27"/>
       <c r="P217" s="27"/>
       <c r="Q217" s="27"/>
       <c r="R217" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="S217" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="S217" s="27" t="s">
+      <c r="T217" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="T217" s="27" t="s">
+      <c r="U217" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="U217" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="V217" s="32" t="s">
-        <v>679</v>
+      <c r="V217" s="32">
+        <v>5005</v>
       </c>
       <c r="W217" s="32">
         <v>10739</v>
@@ -31858,7 +31855,7 @@
         <v>6859</v>
       </c>
       <c r="Y217" s="32">
-        <v>844</v>
+        <v>727</v>
       </c>
       <c r="Z217" s="32">
         <v>4706</v>
@@ -31888,16 +31885,16 @@
         <v>5030</v>
       </c>
       <c r="AI217" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ217" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK217" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL217" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM217" s="32">
         <v>3353</v>
@@ -31938,34 +31935,34 @@
         <v>244</v>
       </c>
       <c r="I218" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J218" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="K218" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="K218" s="27" t="s">
+      <c r="L218" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="L218" s="27" t="s">
+      <c r="M218" s="27" t="s">
         <v>591</v>
-      </c>
-      <c r="M218" s="27" t="s">
-        <v>592</v>
       </c>
       <c r="N218" s="27"/>
       <c r="O218" s="27"/>
       <c r="P218" s="27"/>
       <c r="Q218" s="27"/>
       <c r="R218" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S218" s="27"/>
       <c r="T218" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U218" s="27"/>
       <c r="V218" s="32">
-        <v>5005</v>
+        <v>6949</v>
       </c>
       <c r="W218" s="32">
         <v>6766</v>
@@ -31974,7 +31971,7 @@
         <v>6935</v>
       </c>
       <c r="Y218" s="32">
-        <v>727</v>
+        <v>898</v>
       </c>
       <c r="Z218" s="32">
         <v>4285</v>
@@ -31989,7 +31986,7 @@
         <v>6716</v>
       </c>
       <c r="AD218" s="32">
-        <v>6209</v>
+        <v>4525</v>
       </c>
       <c r="AE218" s="32">
         <v>5403</v>
@@ -32004,45 +32001,45 @@
         <v>5031</v>
       </c>
       <c r="AI218" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ218" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK218" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL218" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM218" s="32">
         <v>4722</v>
       </c>
       <c r="AN218" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO218" s="32">
         <v>6795</v>
       </c>
       <c r="AP218" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="219" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A219" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B219" s="27" t="s">
         <v>247</v>
       </c>
       <c r="C219" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D219" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="E219" s="27" t="s">
         <v>255</v>
-      </c>
-      <c r="E219" s="27" t="s">
-        <v>256</v>
       </c>
       <c r="F219" s="27" t="s">
         <v>249</v>
@@ -32051,19 +32048,19 @@
         <v>250</v>
       </c>
       <c r="H219" s="27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J219" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="K219" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="K219" s="27" t="s">
+      <c r="L219" s="27" t="s">
         <v>599</v>
-      </c>
-      <c r="L219" s="27" t="s">
-        <v>600</v>
       </c>
       <c r="M219" s="27"/>
       <c r="N219" s="27"/>
@@ -32071,15 +32068,15 @@
       <c r="P219" s="27"/>
       <c r="Q219" s="27"/>
       <c r="R219" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S219" s="29"/>
       <c r="T219" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U219" s="29"/>
       <c r="V219" s="32">
-        <v>6949</v>
+        <v>3347</v>
       </c>
       <c r="W219" s="32">
         <v>5636</v>
@@ -32088,10 +32085,10 @@
         <v>99555</v>
       </c>
       <c r="Y219" s="32">
-        <v>898</v>
+        <v>5938</v>
       </c>
       <c r="Z219" s="32">
-        <v>5509</v>
+        <v>7038</v>
       </c>
       <c r="AA219" s="32">
         <v>5805</v>
@@ -32100,10 +32097,10 @@
         <v>814</v>
       </c>
       <c r="AC219" s="32">
-        <v>6978</v>
+        <v>4721</v>
       </c>
       <c r="AD219" s="32">
-        <v>6796</v>
+        <v>6209</v>
       </c>
       <c r="AE219" s="32">
         <v>4118</v>
@@ -32115,63 +32112,63 @@
         <v>3909</v>
       </c>
       <c r="AH219" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI219" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ219" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK219" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL219" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM219" s="32">
         <v>3975</v>
       </c>
       <c r="AN219" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO219" s="32">
         <v>6658</v>
       </c>
       <c r="AP219" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A220" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B220" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C220" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C220" s="27" t="s">
-        <v>254</v>
-      </c>
       <c r="D220" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="E220" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="E220" s="27" t="s">
-        <v>608</v>
-      </c>
       <c r="F220" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G220" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="H220" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="I220" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="G220" s="27" t="s">
+      <c r="J220" s="27" t="s">
         <v>603</v>
-      </c>
-      <c r="H220" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="I220" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="J220" s="27" t="s">
-        <v>604</v>
       </c>
       <c r="K220" s="27"/>
       <c r="L220" s="27"/>
@@ -32181,15 +32178,15 @@
       <c r="P220" s="27"/>
       <c r="Q220" s="27"/>
       <c r="R220" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S220" s="29"/>
       <c r="T220" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U220" s="29"/>
       <c r="V220" s="32">
-        <v>3347</v>
+        <v>4011</v>
       </c>
       <c r="W220" s="32">
         <v>6843</v>
@@ -32198,10 +32195,10 @@
         <v>6999</v>
       </c>
       <c r="Y220" s="32">
-        <v>5938</v>
+        <v>905</v>
       </c>
       <c r="Z220" s="32">
-        <v>7038</v>
+        <v>11548</v>
       </c>
       <c r="AA220" s="32">
         <v>5874</v>
@@ -32210,75 +32207,75 @@
         <v>4933</v>
       </c>
       <c r="AC220" s="32">
-        <v>6525</v>
-      </c>
-      <c r="AD220" s="32" t="s">
-        <v>679</v>
+        <v>6978</v>
+      </c>
+      <c r="AD220" s="32">
+        <v>6796</v>
       </c>
       <c r="AE220" s="32">
         <v>4148</v>
       </c>
       <c r="AF220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM220" s="32">
         <v>933</v>
       </c>
       <c r="AN220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO220" s="32">
         <v>5879</v>
       </c>
       <c r="AP220" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A221" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B221" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C221" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C221" s="27" t="s">
+      <c r="D221" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E221" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F221" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D221" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="E221" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="F221" s="27" t="s">
+      <c r="G221" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="H221" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="G221" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="H221" s="27" t="s">
-        <v>263</v>
-      </c>
       <c r="I221" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J221" s="27"/>
       <c r="K221" s="27"/>
@@ -32289,15 +32286,15 @@
       <c r="P221" s="27"/>
       <c r="Q221" s="27"/>
       <c r="R221" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S221" s="29"/>
       <c r="T221" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U221" s="29"/>
       <c r="V221" s="32">
-        <v>4011</v>
+        <v>942</v>
       </c>
       <c r="W221" s="32">
         <v>6860</v>
@@ -32306,10 +32303,10 @@
         <v>6547</v>
       </c>
       <c r="Y221" s="32">
-        <v>905</v>
+        <v>4286</v>
       </c>
       <c r="Z221" s="32">
-        <v>11548</v>
+        <v>6914</v>
       </c>
       <c r="AA221" s="32">
         <v>6409</v>
@@ -32318,75 +32315,75 @@
         <v>3375</v>
       </c>
       <c r="AC221" s="32">
-        <v>6624</v>
-      </c>
-      <c r="AD221" s="32">
-        <v>5028</v>
+        <v>6525</v>
+      </c>
+      <c r="AD221" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="AE221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM221" s="32">
         <v>6893</v>
       </c>
       <c r="AN221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO221" s="32">
         <v>5763</v>
       </c>
       <c r="AP221" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A222" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B222" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C222" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C222" s="27" t="s">
-        <v>265</v>
-      </c>
       <c r="D222" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E222" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="E222" s="27" t="s">
-        <v>273</v>
-      </c>
       <c r="F222" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G222" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H222" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="H222" s="27" t="s">
-        <v>269</v>
-      </c>
       <c r="I222" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J222" s="27"/>
       <c r="K222" s="27"/>
@@ -32399,11 +32396,11 @@
       <c r="R222" s="27"/>
       <c r="S222" s="29"/>
       <c r="T222" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U222" s="29"/>
-      <c r="V222" s="32" t="s">
-        <v>679</v>
+      <c r="V222" s="32">
+        <v>3906</v>
       </c>
       <c r="W222" s="32">
         <v>7051</v>
@@ -32412,10 +32409,10 @@
         <v>5637</v>
       </c>
       <c r="Y222" s="32">
-        <v>4286</v>
+        <v>5015</v>
       </c>
       <c r="Z222" s="32">
-        <v>6914</v>
+        <v>4932</v>
       </c>
       <c r="AA222" s="32">
         <v>4714</v>
@@ -32424,75 +32421,75 @@
         <v>5318</v>
       </c>
       <c r="AC222" s="32">
-        <v>6836</v>
+        <v>6624</v>
       </c>
       <c r="AD222" s="32">
-        <v>6551</v>
+        <v>5028</v>
       </c>
       <c r="AE222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO222" s="32">
         <v>4862</v>
       </c>
       <c r="AP222" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A223" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D223" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E223" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F223" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="G223" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="G223" s="27" t="s">
+      <c r="H223" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="H223" s="27" t="s">
-        <v>276</v>
-      </c>
       <c r="I223" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J223" s="27"/>
       <c r="K223" s="27"/>
@@ -32505,11 +32502,11 @@
       <c r="R223" s="27"/>
       <c r="S223" s="29"/>
       <c r="T223" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U223" s="29"/>
       <c r="V223" s="32">
-        <v>942</v>
+        <v>6886</v>
       </c>
       <c r="W223" s="32">
         <v>6402</v>
@@ -32518,10 +32515,10 @@
         <v>6573</v>
       </c>
       <c r="Y223" s="32">
-        <v>5015</v>
+        <v>3377</v>
       </c>
       <c r="Z223" s="32">
-        <v>4932</v>
+        <v>4707</v>
       </c>
       <c r="AA223" s="32">
         <v>6773</v>
@@ -32530,75 +32527,75 @@
         <v>5004</v>
       </c>
       <c r="AC223" s="32">
-        <v>7071</v>
+        <v>6836</v>
       </c>
       <c r="AD223" s="32">
-        <v>4713</v>
+        <v>6551</v>
       </c>
       <c r="AE223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO223" s="32">
         <v>6785</v>
       </c>
       <c r="AP223" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="224" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A224" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B224" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D224" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E224" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="E224" s="27" t="s">
-        <v>288</v>
-      </c>
       <c r="F224" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G224" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="H224" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="H224" s="27" t="s">
-        <v>282</v>
-      </c>
       <c r="I224" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J224" s="27"/>
       <c r="K224" s="27"/>
@@ -32613,19 +32610,19 @@
       <c r="T224" s="29"/>
       <c r="U224" s="29"/>
       <c r="V224" s="32">
-        <v>3906</v>
+        <v>945</v>
       </c>
       <c r="W224" s="32">
         <v>5880</v>
       </c>
       <c r="X224" s="32">
-        <v>4688</v>
+        <v>6382</v>
       </c>
       <c r="Y224" s="32">
-        <v>3377</v>
+        <v>7004</v>
       </c>
       <c r="Z224" s="32">
-        <v>4707</v>
+        <v>5014</v>
       </c>
       <c r="AA224" s="32">
         <v>5495</v>
@@ -32633,76 +32630,76 @@
       <c r="AB224" s="32">
         <v>6336</v>
       </c>
-      <c r="AC224" s="32" t="s">
-        <v>679</v>
+      <c r="AC224" s="32">
+        <v>7071</v>
       </c>
       <c r="AD224" s="32">
-        <v>6719</v>
+        <v>4713</v>
       </c>
       <c r="AE224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP224" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A225" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B225" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C225" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C225" s="27" t="s">
-        <v>286</v>
-      </c>
       <c r="D225" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E225" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="E225" s="27" t="s">
-        <v>296</v>
-      </c>
       <c r="F225" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G225" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="G225" s="27" t="s">
-        <v>290</v>
-      </c>
       <c r="H225" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J225" s="27"/>
       <c r="K225" s="27"/>
@@ -32717,7 +32714,7 @@
       <c r="T225" s="29"/>
       <c r="U225" s="29"/>
       <c r="V225" s="32">
-        <v>6886</v>
+        <v>6951</v>
       </c>
       <c r="W225" s="32">
         <v>99552</v>
@@ -32726,10 +32723,10 @@
         <v>6924</v>
       </c>
       <c r="Y225" s="32">
-        <v>7004</v>
+        <v>3451</v>
       </c>
       <c r="Z225" s="32">
-        <v>5014</v>
+        <v>6953</v>
       </c>
       <c r="AA225" s="32">
         <v>6983</v>
@@ -32737,76 +32734,76 @@
       <c r="AB225" s="32">
         <v>3729</v>
       </c>
-      <c r="AC225" s="32">
-        <v>5691</v>
+      <c r="AC225" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="AD225" s="32">
-        <v>7013</v>
+        <v>6719</v>
       </c>
       <c r="AE225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP225" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="226" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A226" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D226" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E226" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="E226" s="27" t="s">
-        <v>303</v>
-      </c>
       <c r="F226" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G226" s="27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H226" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I226" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J226" s="27"/>
       <c r="K226" s="27"/>
@@ -32821,19 +32818,19 @@
       <c r="T226" s="29"/>
       <c r="U226" s="29"/>
       <c r="V226" s="32">
-        <v>945</v>
+        <v>143</v>
       </c>
       <c r="W226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X226" s="32">
-        <v>6544</v>
+        <v>4688</v>
       </c>
       <c r="Y226" s="32">
-        <v>3451</v>
+        <v>7045</v>
       </c>
       <c r="Z226" s="32">
-        <v>6953</v>
+        <v>6735</v>
       </c>
       <c r="AA226" s="32">
         <v>7034</v>
@@ -32842,75 +32839,75 @@
         <v>172</v>
       </c>
       <c r="AC226" s="32">
-        <v>6867</v>
+        <v>5691</v>
       </c>
       <c r="AD226" s="32">
-        <v>7036</v>
+        <v>7013</v>
       </c>
       <c r="AE226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP226" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A227" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D227" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E227" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="E227" s="27" t="s">
-        <v>311</v>
-      </c>
       <c r="F227" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G227" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="G227" s="27" t="s">
-        <v>305</v>
-      </c>
       <c r="H227" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I227" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J227" s="27"/>
       <c r="K227" s="27"/>
@@ -32925,19 +32922,19 @@
       <c r="T227" s="29"/>
       <c r="U227" s="29"/>
       <c r="V227" s="32">
-        <v>6951</v>
+        <v>673</v>
       </c>
       <c r="W227" s="32">
-        <v>7074</v>
+        <v>6913</v>
       </c>
       <c r="X227" s="32">
-        <v>7054</v>
+        <v>6544</v>
       </c>
       <c r="Y227" s="32">
-        <v>7045</v>
+        <v>3988</v>
       </c>
       <c r="Z227" s="32">
-        <v>6735</v>
+        <v>994</v>
       </c>
       <c r="AA227" s="32">
         <v>99537</v>
@@ -32946,75 +32943,75 @@
         <v>6849</v>
       </c>
       <c r="AC227" s="32">
-        <v>7061</v>
+        <v>6867</v>
       </c>
       <c r="AD227" s="32">
-        <v>6964</v>
+        <v>7036</v>
       </c>
       <c r="AE227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP227" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A228" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B228" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C228" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C228" s="27" t="s">
-        <v>301</v>
-      </c>
       <c r="D228" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="E228" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="E228" s="27" t="s">
-        <v>626</v>
-      </c>
       <c r="F228" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G228" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H228" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="I228" s="27" t="s">
         <v>306</v>
-      </c>
-      <c r="I228" s="27" t="s">
-        <v>307</v>
       </c>
       <c r="J228" s="27"/>
       <c r="K228" s="27"/>
@@ -33029,96 +33026,96 @@
       <c r="T228" s="29"/>
       <c r="U228" s="29"/>
       <c r="V228" s="32">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="W228" s="32">
-        <v>6913</v>
+        <v>7044</v>
       </c>
       <c r="X228" s="32">
-        <v>609</v>
+        <v>7054</v>
       </c>
       <c r="Y228" s="32">
-        <v>3988</v>
+        <v>4085</v>
       </c>
       <c r="Z228" s="32">
-        <v>994</v>
+        <v>6810</v>
       </c>
       <c r="AA228" s="32">
         <v>6937</v>
       </c>
-      <c r="AB228" s="32" t="s">
-        <v>679</v>
+      <c r="AB228" s="32">
+        <v>996</v>
       </c>
       <c r="AC228" s="32">
-        <v>6794</v>
+        <v>7061</v>
       </c>
       <c r="AD228" s="32">
-        <v>3914</v>
+        <v>6964</v>
       </c>
       <c r="AE228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP228" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A229" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>309</v>
+        <v>626</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D229" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="E229" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="E229" s="27" t="s">
-        <v>324</v>
-      </c>
       <c r="F229" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G229" s="27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H229" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="I229" s="27" t="s">
         <v>313</v>
-      </c>
-      <c r="I229" s="27" t="s">
-        <v>314</v>
       </c>
       <c r="J229" s="27"/>
       <c r="K229" s="27"/>
@@ -33133,96 +33130,96 @@
       <c r="T229" s="29"/>
       <c r="U229" s="29"/>
       <c r="V229" s="32">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="W229" s="32">
-        <v>7044</v>
+        <v>895</v>
       </c>
       <c r="X229" s="32">
-        <v>99554</v>
+        <v>609</v>
       </c>
       <c r="Y229" s="32">
-        <v>4085</v>
+        <v>6906</v>
       </c>
       <c r="Z229" s="32">
-        <v>6810</v>
+        <v>7073</v>
       </c>
       <c r="AA229" s="32">
         <v>4863</v>
       </c>
       <c r="AB229" s="32">
-        <v>996</v>
+        <v>3930</v>
       </c>
       <c r="AC229" s="32">
-        <v>6977</v>
+        <v>6794</v>
       </c>
       <c r="AD229" s="32">
-        <v>6947</v>
+        <v>3914</v>
       </c>
       <c r="AE229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP229" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A230" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D230" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E230" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E230" s="27" t="s">
-        <v>330</v>
-      </c>
       <c r="F230" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H230" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="I230" s="27" t="s">
         <v>319</v>
-      </c>
-      <c r="I230" s="27" t="s">
-        <v>320</v>
       </c>
       <c r="J230" s="27"/>
       <c r="K230" s="27"/>
@@ -33237,19 +33234,19 @@
       <c r="T230" s="29"/>
       <c r="U230" s="29"/>
       <c r="V230" s="32">
-        <v>197</v>
+        <v>6852</v>
       </c>
       <c r="W230" s="32">
-        <v>895</v>
+        <v>6372</v>
       </c>
       <c r="X230" s="32">
-        <v>6996</v>
+        <v>99554</v>
       </c>
       <c r="Y230" s="32">
-        <v>6906</v>
+        <v>6948</v>
       </c>
       <c r="Z230" s="32">
-        <v>7073</v>
+        <v>6979</v>
       </c>
       <c r="AA230" s="32">
         <v>6624</v>
@@ -33258,75 +33255,75 @@
         <v>6915</v>
       </c>
       <c r="AC230" s="32">
-        <v>1052</v>
+        <v>6977</v>
       </c>
       <c r="AD230" s="32">
-        <v>6550</v>
+        <v>6947</v>
       </c>
       <c r="AE230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP230" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A231" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B231" s="27" t="s">
-        <v>629</v>
+        <v>327</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D231" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E231" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="E231" s="27" t="s">
-        <v>336</v>
-      </c>
       <c r="F231" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G231" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H231" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I231" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J231" s="27"/>
       <c r="K231" s="27"/>
@@ -33341,96 +33338,96 @@
       <c r="T231" s="29"/>
       <c r="U231" s="29"/>
       <c r="V231" s="32">
-        <v>630</v>
+        <v>6973</v>
       </c>
       <c r="W231" s="32">
-        <v>6372</v>
-      </c>
-      <c r="X231" s="32" t="s">
-        <v>679</v>
+        <v>5233</v>
+      </c>
+      <c r="X231" s="32">
+        <v>6996</v>
       </c>
       <c r="Y231" s="32">
-        <v>6948</v>
+        <v>5232</v>
       </c>
       <c r="Z231" s="32">
-        <v>6979</v>
+        <v>99545</v>
       </c>
       <c r="AA231" s="32">
         <v>6888</v>
       </c>
       <c r="AB231" s="32">
-        <v>3930</v>
+        <v>902</v>
       </c>
       <c r="AC231" s="32">
-        <v>99548</v>
+        <v>1052</v>
       </c>
       <c r="AD231" s="32">
-        <v>6591</v>
+        <v>6550</v>
       </c>
       <c r="AE231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP231" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A232" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B232" s="27" t="s">
-        <v>328</v>
+        <v>632</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D232" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E232" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="E232" s="27" t="s">
-        <v>343</v>
-      </c>
       <c r="F232" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J232" s="27"/>
       <c r="K232" s="27"/>
@@ -33445,96 +33442,96 @@
       <c r="T232" s="29"/>
       <c r="U232" s="29"/>
       <c r="V232" s="32">
-        <v>6852</v>
+        <v>6763</v>
       </c>
       <c r="W232" s="32">
-        <v>5233</v>
+        <v>6959</v>
       </c>
       <c r="X232" s="32">
         <v>6721</v>
       </c>
       <c r="Y232" s="32">
-        <v>5232</v>
+        <v>773</v>
       </c>
       <c r="Z232" s="32">
-        <v>99545</v>
+        <v>4711</v>
       </c>
       <c r="AA232" s="32">
         <v>6950</v>
       </c>
       <c r="AB232" s="32">
-        <v>902</v>
+        <v>1036</v>
       </c>
       <c r="AC232" s="32">
-        <v>6832</v>
+        <v>99548</v>
       </c>
       <c r="AD232" s="32">
-        <v>11545</v>
+        <v>6591</v>
       </c>
       <c r="AE232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP232" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A233" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B233" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C233" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="C233" s="27" t="s">
-        <v>634</v>
-      </c>
       <c r="D233" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="E233" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="F233" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G233" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="E233" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="F233" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="G233" s="27" t="s">
-        <v>350</v>
-      </c>
       <c r="H233" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I233" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J233" s="27"/>
       <c r="K233" s="27"/>
@@ -33549,96 +33546,96 @@
       <c r="T233" s="29"/>
       <c r="U233" s="29"/>
       <c r="V233" s="32">
-        <v>6973</v>
+        <v>4280</v>
       </c>
       <c r="W233" s="32">
-        <v>6959</v>
+        <v>6916</v>
       </c>
       <c r="X233" s="32">
         <v>3933</v>
       </c>
       <c r="Y233" s="32">
-        <v>773</v>
+        <v>6870</v>
       </c>
       <c r="Z233" s="32">
-        <v>4711</v>
+        <v>4410</v>
       </c>
       <c r="AA233" s="32">
         <v>4408</v>
       </c>
       <c r="AB233" s="32">
-        <v>1036</v>
+        <v>6989</v>
       </c>
       <c r="AC233" s="32">
-        <v>6712</v>
+        <v>6832</v>
       </c>
       <c r="AD233" s="32">
-        <v>890</v>
+        <v>11545</v>
       </c>
       <c r="AE233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP233" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A234" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>341</v>
+        <v>637</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D234" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E234" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="F234" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="G234" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="E234" s="27" t="s">
-        <v>639</v>
-      </c>
-      <c r="F234" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="G234" s="27" t="s">
-        <v>356</v>
-      </c>
       <c r="H234" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="I234" s="27" t="s">
         <v>346</v>
-      </c>
-      <c r="I234" s="27" t="s">
-        <v>347</v>
       </c>
       <c r="J234" s="27"/>
       <c r="K234" s="27"/>
@@ -33653,96 +33650,96 @@
       <c r="T234" s="29"/>
       <c r="U234" s="29"/>
       <c r="V234" s="32">
-        <v>6763</v>
+        <v>5016</v>
       </c>
       <c r="W234" s="32">
-        <v>6916</v>
+        <v>10743</v>
       </c>
       <c r="X234" s="32">
         <v>4292</v>
       </c>
       <c r="Y234" s="32">
-        <v>6870</v>
+        <v>6828</v>
       </c>
       <c r="Z234" s="32">
-        <v>4410</v>
+        <v>99547</v>
       </c>
       <c r="AA234" s="32">
         <v>6961</v>
       </c>
       <c r="AB234" s="32">
-        <v>6989</v>
+        <v>6772</v>
       </c>
       <c r="AC234" s="32">
-        <v>6901</v>
-      </c>
-      <c r="AD234" s="32" t="s">
-        <v>679</v>
+        <v>6712</v>
+      </c>
+      <c r="AD234" s="32">
+        <v>890</v>
       </c>
       <c r="AE234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP234" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A235" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B235" s="27" t="s">
-        <v>638</v>
+        <v>352</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D235" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E235" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E235" s="27" t="s">
-        <v>362</v>
-      </c>
       <c r="F235" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G235" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="H235" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="I235" s="27" t="s">
         <v>364</v>
-      </c>
-      <c r="H235" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="I235" s="27" t="s">
-        <v>365</v>
       </c>
       <c r="J235" s="27"/>
       <c r="K235" s="27"/>
@@ -33757,96 +33754,96 @@
       <c r="T235" s="29"/>
       <c r="U235" s="29"/>
       <c r="V235" s="32">
-        <v>4280</v>
+        <v>4852</v>
       </c>
       <c r="W235" s="32">
-        <v>10743</v>
+        <v>6205</v>
       </c>
       <c r="X235" s="32">
         <v>5316</v>
       </c>
       <c r="Y235" s="32">
-        <v>6828</v>
+        <v>4855</v>
       </c>
       <c r="Z235" s="32">
-        <v>99547</v>
+        <v>4712</v>
       </c>
       <c r="AA235" s="32">
         <v>6967</v>
       </c>
       <c r="AB235" s="32">
-        <v>6772</v>
+        <v>6869</v>
       </c>
       <c r="AC235" s="32">
-        <v>6827</v>
+        <v>6901</v>
       </c>
       <c r="AD235" s="32">
         <v>5983</v>
       </c>
       <c r="AE235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP235" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A236" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B236" s="27" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D236" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="E236" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="E236" s="27" t="s">
-        <v>370</v>
-      </c>
       <c r="F236" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G236" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H236" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I236" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J236" s="27"/>
       <c r="K236" s="27"/>
@@ -33861,96 +33858,96 @@
       <c r="T236" s="29"/>
       <c r="U236" s="29"/>
       <c r="V236" s="32">
-        <v>5016</v>
+        <v>911</v>
       </c>
       <c r="W236" s="32">
-        <v>6205</v>
+        <v>6866</v>
       </c>
       <c r="X236" s="32">
         <v>4853</v>
       </c>
       <c r="Y236" s="32">
-        <v>4855</v>
+        <v>631</v>
       </c>
       <c r="Z236" s="32">
-        <v>4712</v>
+        <v>6982</v>
       </c>
       <c r="AA236" s="32">
         <v>7069</v>
       </c>
       <c r="AB236" s="32">
-        <v>6869</v>
+        <v>4031</v>
       </c>
       <c r="AC236" s="32">
-        <v>4721</v>
+        <v>6827</v>
       </c>
       <c r="AD236" s="32">
         <v>6946</v>
       </c>
       <c r="AE236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP236" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A237" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B237" s="27" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E237" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="F237" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="G237" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="F237" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="G237" s="27" t="s">
-        <v>646</v>
-      </c>
       <c r="H237" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I237" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J237" s="27"/>
       <c r="K237" s="27"/>
@@ -33965,25 +33962,25 @@
       <c r="T237" s="29"/>
       <c r="U237" s="29"/>
       <c r="V237" s="32">
-        <v>4852</v>
+        <v>653</v>
       </c>
       <c r="W237" s="32">
-        <v>6866</v>
+        <v>7047</v>
       </c>
       <c r="X237" s="32">
         <v>99541</v>
       </c>
       <c r="Y237" s="32">
-        <v>631</v>
+        <v>6918</v>
       </c>
       <c r="Z237" s="32">
-        <v>6982</v>
+        <v>6883</v>
       </c>
       <c r="AA237" s="32">
         <v>4720</v>
       </c>
       <c r="AB237" s="32">
-        <v>4031</v>
+        <v>11383</v>
       </c>
       <c r="AC237" s="32">
         <v>99551</v>
@@ -33992,69 +33989,69 @@
         <v>10928</v>
       </c>
       <c r="AE237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP237" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A238" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C238" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D238" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D238" s="27" t="s">
+      <c r="E238" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="E238" s="27" t="s">
-        <v>382</v>
-      </c>
       <c r="F238" s="27" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G238" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H238" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I238" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J238" s="27"/>
       <c r="K238" s="27"/>
@@ -34069,25 +34066,25 @@
       <c r="T238" s="29"/>
       <c r="U238" s="29"/>
       <c r="V238" s="32">
-        <v>911</v>
+        <v>6956</v>
       </c>
       <c r="W238" s="32">
-        <v>7047</v>
+        <v>5020</v>
       </c>
       <c r="X238" s="32">
-        <v>702</v>
+        <v>3927</v>
       </c>
       <c r="Y238" s="32">
-        <v>6918</v>
+        <v>3290</v>
       </c>
       <c r="Z238" s="32">
-        <v>6883</v>
+        <v>5510</v>
       </c>
       <c r="AA238" s="32">
-        <v>6929</v>
+        <v>4082</v>
       </c>
       <c r="AB238" s="32">
-        <v>11383</v>
+        <v>5804</v>
       </c>
       <c r="AC238" s="32">
         <v>6786</v>
@@ -34096,69 +34093,69 @@
         <v>5690</v>
       </c>
       <c r="AE238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP238" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A239" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G239" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="H239" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="H239" s="27" t="s">
-        <v>384</v>
-      </c>
       <c r="I239" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J239" s="27"/>
       <c r="K239" s="27"/>
@@ -34173,22 +34170,22 @@
       <c r="T239" s="29"/>
       <c r="U239" s="29"/>
       <c r="V239" s="32">
-        <v>653</v>
+        <v>937</v>
       </c>
       <c r="W239" s="32">
-        <v>5020</v>
+        <v>7000</v>
       </c>
       <c r="X239" s="32">
-        <v>3927</v>
+        <v>702</v>
       </c>
       <c r="Y239" s="32">
-        <v>3290</v>
+        <v>932</v>
       </c>
       <c r="Z239" s="32">
-        <v>5510</v>
+        <v>7056</v>
       </c>
       <c r="AA239" s="32">
-        <v>4082</v>
+        <v>6929</v>
       </c>
       <c r="AB239" s="32">
         <v>6876</v>
@@ -34200,69 +34197,69 @@
         <v>7037</v>
       </c>
       <c r="AE239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP239" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A240" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D240" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E240" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="E240" s="27" t="s">
-        <v>396</v>
-      </c>
       <c r="F240" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="G240" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="H240" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="G240" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="H240" s="27" t="s">
-        <v>390</v>
-      </c>
       <c r="I240" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J240" s="27"/>
       <c r="K240" s="27"/>
@@ -34277,25 +34274,25 @@
       <c r="T240" s="29"/>
       <c r="U240" s="29"/>
       <c r="V240" s="32">
-        <v>6956</v>
+        <v>4861</v>
       </c>
       <c r="W240" s="32">
-        <v>7000</v>
+        <v>6676</v>
       </c>
       <c r="X240" s="32">
         <v>6659</v>
       </c>
       <c r="Y240" s="32">
-        <v>932</v>
+        <v>4903</v>
       </c>
       <c r="Z240" s="32">
-        <v>7056</v>
+        <v>6936</v>
       </c>
       <c r="AA240" s="32">
         <v>99485</v>
       </c>
       <c r="AB240" s="32">
-        <v>5804</v>
+        <v>3348</v>
       </c>
       <c r="AC240" s="32">
         <v>6884</v>
@@ -34304,69 +34301,69 @@
         <v>6863</v>
       </c>
       <c r="AE240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP240" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A241" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B241" s="27" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E241" s="27" t="s">
+        <v>651</v>
+      </c>
+      <c r="F241" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G241" s="27" t="s">
         <v>652</v>
       </c>
-      <c r="F241" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="G241" s="27" t="s">
-        <v>653</v>
-      </c>
       <c r="H241" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J241" s="27"/>
       <c r="K241" s="27"/>
@@ -34381,25 +34378,25 @@
       <c r="T241" s="29"/>
       <c r="U241" s="29"/>
       <c r="V241" s="32">
-        <v>937</v>
+        <v>5498</v>
       </c>
       <c r="W241" s="32">
-        <v>6676</v>
+        <v>6848</v>
       </c>
       <c r="X241" s="32">
         <v>7053</v>
       </c>
       <c r="Y241" s="32">
-        <v>4903</v>
+        <v>4705</v>
       </c>
       <c r="Z241" s="32">
-        <v>6936</v>
+        <v>6825</v>
       </c>
       <c r="AA241" s="32">
         <v>5689</v>
       </c>
       <c r="AB241" s="32">
-        <v>3348</v>
+        <v>11546</v>
       </c>
       <c r="AC241" s="32">
         <v>11559</v>
@@ -34408,69 +34405,69 @@
         <v>4864</v>
       </c>
       <c r="AE241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP241" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A242" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B242" s="27" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D242" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E242" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="E242" s="27" t="s">
-        <v>411</v>
-      </c>
       <c r="F242" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="G242" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H242" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="G242" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="H242" s="27" t="s">
-        <v>405</v>
-      </c>
       <c r="I242" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J242" s="27"/>
       <c r="K242" s="27"/>
@@ -34485,25 +34482,25 @@
       <c r="T242" s="29"/>
       <c r="U242" s="29"/>
       <c r="V242" s="32">
-        <v>4861</v>
+        <v>735</v>
       </c>
       <c r="W242" s="32">
-        <v>6848</v>
+        <v>5717</v>
       </c>
       <c r="X242" s="32">
         <v>6943</v>
       </c>
       <c r="Y242" s="32">
-        <v>4705</v>
+        <v>3976</v>
       </c>
       <c r="Z242" s="32">
-        <v>6825</v>
+        <v>4283</v>
       </c>
       <c r="AA242" s="32">
         <v>6998</v>
       </c>
       <c r="AB242" s="32">
-        <v>11546</v>
+        <v>6835</v>
       </c>
       <c r="AC242" s="32">
         <v>7055</v>
@@ -34512,67 +34509,67 @@
         <v>6962</v>
       </c>
       <c r="AE242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP242" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A243" s="27" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B243" s="27" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D243" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="E243" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="E243" s="27" t="s">
-        <v>419</v>
-      </c>
       <c r="F243" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G243" s="27"/>
       <c r="H243" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I243" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J243" s="27"/>
       <c r="K243" s="27"/>
@@ -34587,25 +34584,25 @@
       <c r="T243" s="29"/>
       <c r="U243" s="29"/>
       <c r="V243" s="32">
-        <v>5498</v>
+        <v>882</v>
       </c>
       <c r="W243" s="32">
-        <v>5717</v>
+        <v>6994</v>
       </c>
       <c r="X243" s="32">
         <v>6960</v>
       </c>
       <c r="Y243" s="32">
-        <v>3976</v>
+        <v>4700</v>
       </c>
       <c r="Z243" s="32">
-        <v>4283</v>
+        <v>5000</v>
       </c>
       <c r="AA243" s="32">
         <v>4275</v>
       </c>
-      <c r="AB243" s="32">
-        <v>6835</v>
+      <c r="AB243" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="AC243" s="32">
         <v>6862</v>
@@ -34614,67 +34611,67 @@
         <v>5752</v>
       </c>
       <c r="AE243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP243" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="244" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A244" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C244" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D244" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="D244" s="27" t="s">
+      <c r="E244" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="E244" s="27" t="s">
-        <v>427</v>
-      </c>
       <c r="F244" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G244" s="27"/>
       <c r="H244" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I244" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J244" s="27"/>
       <c r="K244" s="27"/>
@@ -34689,25 +34686,25 @@
       <c r="T244" s="29"/>
       <c r="U244" s="29"/>
       <c r="V244" s="32">
-        <v>735</v>
+        <v>6826</v>
       </c>
       <c r="W244" s="32">
-        <v>6994</v>
+        <v>6603</v>
       </c>
       <c r="X244" s="32">
-        <v>6382</v>
+        <v>6942</v>
       </c>
       <c r="Y244" s="32">
-        <v>4700</v>
+        <v>99474</v>
       </c>
       <c r="Z244" s="32">
-        <v>5000</v>
+        <v>6868</v>
       </c>
       <c r="AA244" s="32">
         <v>6590</v>
       </c>
       <c r="AB244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC244" s="32">
         <v>6656</v>
@@ -34716,67 +34713,67 @@
         <v>6752</v>
       </c>
       <c r="AE244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP244" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A245" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C245" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="B245" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C245" s="27" t="s">
-        <v>431</v>
-      </c>
       <c r="D245" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E245" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="E245" s="27" t="s">
-        <v>658</v>
-      </c>
       <c r="F245" s="27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G245" s="27"/>
       <c r="H245" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I245" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J245" s="27"/>
       <c r="K245" s="27"/>
@@ -34791,94 +34788,94 @@
       <c r="T245" s="29"/>
       <c r="U245" s="29"/>
       <c r="V245" s="32">
-        <v>6826</v>
+        <v>694</v>
       </c>
       <c r="W245" s="32">
-        <v>6603</v>
+        <v>99553</v>
       </c>
       <c r="X245" s="32">
-        <v>6942</v>
+        <v>6944</v>
       </c>
       <c r="Y245" s="32">
-        <v>99474</v>
+        <v>11547</v>
       </c>
       <c r="Z245" s="32">
-        <v>6868</v>
+        <v>6987</v>
       </c>
       <c r="AA245" s="32">
         <v>11560</v>
       </c>
       <c r="AB245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC245" s="32">
         <v>6861</v>
       </c>
       <c r="AD245" s="32">
-        <v>4525</v>
+        <v>946</v>
       </c>
       <c r="AE245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP245" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A246" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>424</v>
+        <v>659</v>
       </c>
       <c r="C246" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D246" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="D246" s="27" t="s">
+      <c r="E246" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="E246" s="27" t="s">
-        <v>438</v>
-      </c>
       <c r="F246" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G246" s="27"/>
       <c r="H246" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I246" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J246" s="27"/>
       <c r="K246" s="27"/>
@@ -34893,94 +34890,94 @@
       <c r="T246" s="29"/>
       <c r="U246" s="29"/>
       <c r="V246" s="32">
-        <v>694</v>
+        <v>926</v>
       </c>
       <c r="W246" s="32">
-        <v>99553</v>
+        <v>3982</v>
       </c>
       <c r="X246" s="32">
-        <v>6944</v>
+        <v>99542</v>
       </c>
       <c r="Y246" s="32">
-        <v>11547</v>
+        <v>6704</v>
       </c>
       <c r="Z246" s="32">
-        <v>6987</v>
+        <v>4708</v>
       </c>
       <c r="AA246" s="32">
         <v>5985</v>
       </c>
       <c r="AB246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC246" s="32">
         <v>4401</v>
       </c>
       <c r="AD246" s="32">
-        <v>946</v>
+        <v>6737</v>
       </c>
       <c r="AE246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP246" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A247" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B247" s="27" t="s">
-        <v>660</v>
+        <v>434</v>
       </c>
       <c r="C247" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="D247" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="D247" s="27" t="s">
+      <c r="E247" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="E247" s="27" t="s">
-        <v>445</v>
-      </c>
       <c r="F247" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G247" s="27"/>
       <c r="H247" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I247" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J247" s="27"/>
       <c r="K247" s="27"/>
@@ -34995,94 +34992,94 @@
       <c r="T247" s="29"/>
       <c r="U247" s="29"/>
       <c r="V247" s="32">
-        <v>882</v>
+        <v>6850</v>
       </c>
       <c r="W247" s="32">
-        <v>3982</v>
+        <v>910</v>
       </c>
       <c r="X247" s="32">
-        <v>99542</v>
+        <v>6991</v>
       </c>
       <c r="Y247" s="32">
-        <v>6704</v>
+        <v>3344</v>
       </c>
       <c r="Z247" s="32">
-        <v>4708</v>
+        <v>6955</v>
       </c>
       <c r="AA247" s="32">
         <v>6833</v>
       </c>
       <c r="AB247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC247" s="32">
         <v>99549</v>
       </c>
       <c r="AD247" s="32">
-        <v>6737</v>
+        <v>6932</v>
       </c>
       <c r="AE247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP247" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A248" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B248" s="27" t="s">
-        <v>435</v>
+        <v>666</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D248" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="E248" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="E248" s="27" t="s">
-        <v>452</v>
-      </c>
       <c r="F248" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G248" s="27"/>
       <c r="H248" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I248" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J248" s="27"/>
       <c r="K248" s="27"/>
@@ -35097,94 +35094,94 @@
       <c r="T248" s="29"/>
       <c r="U248" s="29"/>
       <c r="V248" s="32">
-        <v>926</v>
+        <v>3964</v>
       </c>
       <c r="W248" s="32">
-        <v>910</v>
+        <v>4281</v>
       </c>
       <c r="X248" s="32">
-        <v>6991</v>
+        <v>11544</v>
       </c>
       <c r="Y248" s="32">
-        <v>3344</v>
+        <v>973</v>
       </c>
       <c r="Z248" s="32">
-        <v>6955</v>
+        <v>5019</v>
       </c>
       <c r="AA248" s="32">
         <v>6990</v>
       </c>
       <c r="AB248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC248" s="32">
         <v>7005</v>
       </c>
       <c r="AD248" s="32">
-        <v>6932</v>
+        <v>5634</v>
       </c>
       <c r="AE248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP248" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A249" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B249" s="27" t="s">
-        <v>667</v>
+        <v>441</v>
       </c>
       <c r="C249" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D249" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="D249" s="27" t="s">
-        <v>458</v>
-      </c>
       <c r="E249" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G249" s="27"/>
       <c r="H249" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I249" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J249" s="27"/>
       <c r="K249" s="27"/>
@@ -35199,91 +35196,91 @@
       <c r="T249" s="29"/>
       <c r="U249" s="29"/>
       <c r="V249" s="32">
-        <v>6850</v>
+        <v>6980</v>
       </c>
       <c r="W249" s="32">
         <v>6202</v>
       </c>
       <c r="X249" s="32">
-        <v>11544</v>
+        <v>6756</v>
       </c>
       <c r="Y249" s="32">
-        <v>973</v>
+        <v>6992</v>
       </c>
       <c r="Z249" s="32">
-        <v>5019</v>
+        <v>6938</v>
       </c>
       <c r="AA249" s="32">
         <v>6371</v>
       </c>
       <c r="AB249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC249" s="32">
         <v>6910</v>
       </c>
       <c r="AD249" s="32">
-        <v>5634</v>
+        <v>6717</v>
       </c>
       <c r="AE249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP249" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="250" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A250" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B250" s="27" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C250" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="D250" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="D250" s="27" t="s">
-        <v>465</v>
-      </c>
       <c r="E250" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G250" s="27"/>
       <c r="H250" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I250" s="27"/>
       <c r="J250" s="27"/>
@@ -35299,91 +35296,91 @@
       <c r="T250" s="29"/>
       <c r="U250" s="29"/>
       <c r="V250" s="32">
-        <v>3964</v>
+        <v>4291</v>
       </c>
       <c r="W250" s="32">
         <v>7067</v>
       </c>
       <c r="X250" s="32">
-        <v>6756</v>
+        <v>6582</v>
       </c>
       <c r="Y250" s="32">
-        <v>6992</v>
+        <v>5508</v>
       </c>
       <c r="Z250" s="32">
-        <v>4888</v>
+        <v>4409</v>
       </c>
       <c r="AA250" s="32">
         <v>931</v>
       </c>
       <c r="AB250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC250" s="32">
         <v>99550</v>
       </c>
-      <c r="AD250" s="32">
-        <v>6717</v>
+      <c r="AD250" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="AE250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP250" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="251" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A251" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="B251" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="D251" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="B251" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="C251" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="D251" s="27" t="s">
+      <c r="E251" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="E251" s="27" t="s">
-        <v>477</v>
-      </c>
       <c r="F251" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G251" s="27"/>
       <c r="H251" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I251" s="27"/>
       <c r="J251" s="27"/>
@@ -35399,91 +35396,91 @@
       <c r="T251" s="29"/>
       <c r="U251" s="29"/>
       <c r="V251" s="32">
-        <v>6980</v>
+        <v>5398</v>
       </c>
       <c r="W251" s="32">
         <v>978</v>
       </c>
       <c r="X251" s="32">
-        <v>6582</v>
+        <v>6171</v>
       </c>
       <c r="Y251" s="32">
-        <v>5508</v>
+        <v>4460</v>
       </c>
       <c r="Z251" s="32">
-        <v>6938</v>
+        <v>6928</v>
       </c>
       <c r="AA251" s="32">
         <v>4866</v>
       </c>
       <c r="AB251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC251" s="32">
         <v>6650</v>
       </c>
       <c r="AD251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP251" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A252" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B252" s="27" t="s">
-        <v>664</v>
+        <v>462</v>
       </c>
       <c r="C252" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D252" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="E252" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="E252" s="27" t="s">
-        <v>483</v>
-      </c>
       <c r="F252" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G252" s="27"/>
       <c r="H252" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I252" s="27"/>
       <c r="J252" s="27"/>
@@ -35499,91 +35496,91 @@
       <c r="T252" s="29"/>
       <c r="U252" s="29"/>
       <c r="V252" s="32">
-        <v>4291</v>
+        <v>2824</v>
       </c>
       <c r="W252" s="32">
         <v>6541</v>
       </c>
       <c r="X252" s="32">
-        <v>6171</v>
-      </c>
-      <c r="Y252" s="32" t="s">
-        <v>679</v>
+        <v>6864</v>
+      </c>
+      <c r="Y252" s="32">
+        <v>4867</v>
       </c>
       <c r="Z252" s="32">
-        <v>4409</v>
+        <v>4530</v>
       </c>
       <c r="AA252" s="32">
         <v>6214</v>
       </c>
       <c r="AB252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC252" s="32">
         <v>99470</v>
       </c>
       <c r="AD252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP252" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A253" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B253" s="27" t="s">
-        <v>463</v>
+        <v>664</v>
       </c>
       <c r="C253" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D253" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="E253" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="E253" s="27" t="s">
-        <v>488</v>
-      </c>
       <c r="F253" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G253" s="27"/>
       <c r="H253" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I253" s="27"/>
       <c r="J253" s="27"/>
@@ -35599,91 +35596,91 @@
       <c r="T253" s="29"/>
       <c r="U253" s="29"/>
       <c r="V253" s="32">
-        <v>5398</v>
+        <v>5349</v>
       </c>
       <c r="W253" s="32">
         <v>6803</v>
       </c>
       <c r="X253" s="32">
-        <v>6864</v>
+        <v>6788</v>
       </c>
       <c r="Y253" s="32">
-        <v>4460</v>
+        <v>6988</v>
       </c>
       <c r="Z253" s="32">
-        <v>6928</v>
+        <v>99544</v>
       </c>
       <c r="AA253" s="32">
         <v>6954</v>
       </c>
       <c r="AB253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC253" s="32">
         <v>6384</v>
       </c>
       <c r="AD253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP253" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A254" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B254" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="C254" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="D254" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="E254" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="B254" s="27" t="s">
-        <v>665</v>
-      </c>
-      <c r="C254" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="D254" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="E254" s="27" t="s">
-        <v>491</v>
-      </c>
       <c r="F254" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G254" s="27"/>
       <c r="H254" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I254" s="27"/>
       <c r="J254" s="27"/>
@@ -35699,87 +35696,87 @@
       <c r="T254" s="29"/>
       <c r="U254" s="29"/>
       <c r="V254" s="32">
-        <v>2824</v>
+        <v>4274</v>
       </c>
       <c r="W254" s="32">
-        <v>4281</v>
+        <v>6581</v>
       </c>
       <c r="X254" s="32">
-        <v>6788</v>
+        <v>4697</v>
       </c>
       <c r="Y254" s="32">
-        <v>4867</v>
+        <v>5876</v>
       </c>
       <c r="Z254" s="32">
-        <v>4530</v>
+        <v>6811</v>
       </c>
       <c r="AA254" s="32">
         <v>5462</v>
       </c>
       <c r="AB254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC254" s="32">
         <v>5981</v>
       </c>
       <c r="AD254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP254" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A255" s="27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B255" s="27" t="s">
-        <v>669</v>
+        <v>485</v>
       </c>
       <c r="C255" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G255" s="27"/>
       <c r="H255" s="27"/>
@@ -35797,87 +35794,87 @@
       <c r="T255" s="29"/>
       <c r="U255" s="29"/>
       <c r="V255" s="32">
-        <v>5349</v>
+        <v>4850</v>
       </c>
       <c r="W255" s="32">
-        <v>6581</v>
+        <v>6976</v>
       </c>
       <c r="X255" s="32">
-        <v>4697</v>
+        <v>6181</v>
       </c>
       <c r="Y255" s="32">
-        <v>6988</v>
+        <v>5679</v>
       </c>
       <c r="Z255" s="32">
-        <v>99544</v>
+        <v>5509</v>
       </c>
       <c r="AA255" s="32">
         <v>7035</v>
       </c>
       <c r="AB255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP255" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A256" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="C256" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D256" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G256" s="27"/>
       <c r="H256" s="27"/>
@@ -35895,87 +35892,87 @@
       <c r="T256" s="29"/>
       <c r="U256" s="29"/>
       <c r="V256" s="32">
-        <v>4274</v>
+        <v>6844</v>
       </c>
       <c r="W256" s="32">
-        <v>6976</v>
+        <v>6863</v>
       </c>
       <c r="X256" s="32">
-        <v>6181</v>
+        <v>6729</v>
       </c>
       <c r="Y256" s="32">
-        <v>5876</v>
+        <v>6957</v>
       </c>
       <c r="Z256" s="32">
-        <v>6811</v>
+        <v>4888</v>
       </c>
       <c r="AA256" s="32">
         <v>5692</v>
       </c>
       <c r="AB256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP256" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A257" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B257" s="27" t="s">
-        <v>406</v>
+        <v>521</v>
       </c>
       <c r="C257" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D257" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E257" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G257" s="27"/>
       <c r="H257" s="27"/>
@@ -35993,16 +35990,16 @@
       <c r="T257" s="29"/>
       <c r="U257" s="29"/>
       <c r="V257" s="32">
-        <v>4850</v>
-      </c>
-      <c r="W257" s="32">
-        <v>6863</v>
+        <v>5350</v>
+      </c>
+      <c r="W257" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="X257" s="32">
-        <v>6729</v>
-      </c>
-      <c r="Y257" s="32" t="s">
-        <v>679</v>
+        <v>998</v>
+      </c>
+      <c r="Y257" s="32">
+        <v>3992</v>
       </c>
       <c r="Z257" s="32">
         <v>6958</v>
@@ -36011,67 +36008,67 @@
         <v>6993</v>
       </c>
       <c r="AB257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP257" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A258" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B258" s="27" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="C258" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D258" s="27"/>
       <c r="E258" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="F258" s="27" t="s">
         <v>500</v>
-      </c>
-      <c r="F258" s="27" t="s">
-        <v>501</v>
       </c>
       <c r="G258" s="27"/>
       <c r="H258" s="27"/>
@@ -36089,16 +36086,16 @@
       <c r="T258" s="29"/>
       <c r="U258" s="29"/>
       <c r="V258" s="32">
-        <v>6844</v>
-      </c>
-      <c r="W258" s="32" t="s">
-        <v>679</v>
+        <v>5635</v>
+      </c>
+      <c r="W258" s="32">
+        <v>4854</v>
       </c>
       <c r="X258" s="32">
-        <v>998</v>
-      </c>
-      <c r="Y258" s="32">
-        <v>5679</v>
+        <v>6887</v>
+      </c>
+      <c r="Y258" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="Z258" s="32">
         <v>99543</v>
@@ -36107,60 +36104,60 @@
         <v>6734</v>
       </c>
       <c r="AB258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP258" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A259" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B259" s="27" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C259" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D259" s="27"/>
       <c r="E259" s="27"/>
@@ -36181,78 +36178,78 @@
       <c r="T259" s="29"/>
       <c r="U259" s="29"/>
       <c r="V259" s="32">
-        <v>5350</v>
+        <v>5347</v>
       </c>
       <c r="W259" s="32">
-        <v>4854</v>
+        <v>4284</v>
       </c>
       <c r="X259" s="32">
-        <v>6887</v>
-      </c>
-      <c r="Y259" s="32">
-        <v>6957</v>
+        <v>3920</v>
+      </c>
+      <c r="Y259" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="Z259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP259" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A260" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C260" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D260" s="27"/>
       <c r="E260" s="27"/>
@@ -36273,78 +36270,78 @@
       <c r="T260" s="29"/>
       <c r="U260" s="29"/>
       <c r="V260" s="32">
-        <v>5635</v>
+        <v>3919</v>
       </c>
       <c r="W260" s="32">
-        <v>4284</v>
+        <v>6925</v>
       </c>
       <c r="X260" s="32">
-        <v>3920</v>
-      </c>
-      <c r="Y260" s="32">
-        <v>3992</v>
+        <v>5026</v>
+      </c>
+      <c r="Y260" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="Z260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP260" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A261" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B261" s="27" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C261" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D261" s="27"/>
       <c r="E261" s="27"/>
@@ -36365,78 +36362,78 @@
       <c r="T261" s="29"/>
       <c r="U261" s="29"/>
       <c r="V261" s="32">
-        <v>5347</v>
+        <v>118</v>
       </c>
       <c r="W261" s="32">
-        <v>6925</v>
+        <v>7014</v>
       </c>
       <c r="X261" s="32">
-        <v>5026</v>
+        <v>6660</v>
       </c>
       <c r="Y261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP261" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A262" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B262" s="27" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C262" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D262" s="27"/>
       <c r="E262" s="27"/>
@@ -36457,75 +36454,75 @@
       <c r="T262" s="29"/>
       <c r="U262" s="29"/>
       <c r="V262" s="32">
-        <v>3919</v>
+        <v>3986</v>
       </c>
       <c r="W262" s="32">
-        <v>7014</v>
+        <v>6939</v>
       </c>
       <c r="X262" s="32">
-        <v>6660</v>
+        <v>6853</v>
       </c>
       <c r="Y262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP262" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A263" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B263" s="27" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C263" s="27"/>
       <c r="D263" s="27"/>
@@ -36547,73 +36544,73 @@
       <c r="T263" s="29"/>
       <c r="U263" s="29"/>
       <c r="V263" s="32">
-        <v>118</v>
+        <v>688</v>
       </c>
       <c r="W263" s="32">
-        <v>6939</v>
-      </c>
-      <c r="X263" s="32">
-        <v>6853</v>
+        <v>6923</v>
+      </c>
+      <c r="X263" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="Y263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP263" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="27" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C264" s="27"/>
       <c r="D264" s="27"/>
@@ -36634,74 +36631,74 @@
       <c r="S264" s="29"/>
       <c r="T264" s="29"/>
       <c r="U264" s="29"/>
-      <c r="V264" s="32">
-        <v>3986</v>
+      <c r="V264" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="W264" s="32">
-        <v>6923</v>
+        <v>6911</v>
       </c>
       <c r="X264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP264" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="27" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C265" s="27"/>
       <c r="D265" s="27"/>
@@ -36722,74 +36719,74 @@
       <c r="S265" s="29"/>
       <c r="T265" s="29"/>
       <c r="U265" s="29"/>
-      <c r="V265" s="32">
-        <v>688</v>
+      <c r="V265" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="W265" s="32">
-        <v>6911</v>
+        <v>6201</v>
       </c>
       <c r="X265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP265" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="27" t="s">
-        <v>517</v>
+        <v>677</v>
       </c>
       <c r="C266" s="27"/>
       <c r="D266" s="27"/>
@@ -36811,73 +36808,73 @@
       <c r="T266" s="29"/>
       <c r="U266" s="29"/>
       <c r="V266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W266" s="32">
-        <v>6201</v>
+        <v>977</v>
       </c>
       <c r="X266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP266" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="27" t="s">
-        <v>678</v>
+        <v>518</v>
       </c>
       <c r="C267" s="27"/>
       <c r="D267" s="27"/>
@@ -36899,74 +36896,72 @@
       <c r="T267" s="29"/>
       <c r="U267" s="29"/>
       <c r="V267" s="32" t="s">
-        <v>679</v>
-      </c>
-      <c r="W267" s="32">
-        <v>977</v>
+        <v>678</v>
+      </c>
+      <c r="W267" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="X267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP267" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
-      <c r="B268" s="27" t="s">
-        <v>519</v>
-      </c>
+      <c r="B268" s="27"/>
       <c r="C268" s="27"/>
       <c r="D268" s="27"/>
       <c r="E268" s="27"/>
@@ -36987,67 +36982,67 @@
       <c r="T268" s="29"/>
       <c r="U268" s="29"/>
       <c r="V268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP268" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.2">
@@ -37073,67 +37068,67 @@
       <c r="T269" s="29"/>
       <c r="U269" s="29"/>
       <c r="V269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP269" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="270" spans="1:42" x14ac:dyDescent="0.2">
@@ -37159,67 +37154,67 @@
       <c r="T270" s="29"/>
       <c r="U270" s="29"/>
       <c r="V270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Y270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AB270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AD270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AG270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AI270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AN270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP270" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.2">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="695">
   <si>
     <t>MPI</t>
   </si>
@@ -737,9 +737,6 @@
     <t>Bhavesh Patel;</t>
   </si>
   <si>
-    <t>Brad Charlebois</t>
-  </si>
-  <si>
     <t>Blake Hilliard</t>
   </si>
   <si>
@@ -1370,9 +1367,6 @@
     <t>Parth Chaniyara;</t>
   </si>
   <si>
-    <t>Tony Emeny</t>
-  </si>
-  <si>
     <t>Roy Quipp</t>
   </si>
   <si>
@@ -1814,9 +1808,6 @@
     <t>Joshua Morse</t>
   </si>
   <si>
-    <t>Brad Smarsh</t>
-  </si>
-  <si>
     <t>William Cornwall</t>
   </si>
   <si>
@@ -2067,6 +2058,63 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Ahmad Alsheikhi</t>
+  </si>
+  <si>
+    <t>Cynthia Wilcox</t>
+  </si>
+  <si>
+    <t>Martha Moses</t>
+  </si>
+  <si>
+    <t>Leroy Brown</t>
+  </si>
+  <si>
+    <t>Wayne Nicholls;</t>
+  </si>
+  <si>
+    <t>Tim Roosemalen</t>
+  </si>
+  <si>
+    <t>John Sauve;</t>
+  </si>
+  <si>
+    <t>50-5401</t>
+  </si>
+  <si>
+    <t>50-5404</t>
+  </si>
+  <si>
+    <t>50-3632</t>
+  </si>
+  <si>
+    <t>Jeanie Wall</t>
+  </si>
+  <si>
+    <t>Anna Harder</t>
+  </si>
+  <si>
+    <t>Brad Bolton</t>
+  </si>
+  <si>
+    <t>Brock Magee</t>
+  </si>
+  <si>
+    <t>Cong Minh Le</t>
+  </si>
+  <si>
+    <t>Gia Cat Tieu</t>
+  </si>
+  <si>
+    <t>Lisa Robertson</t>
+  </si>
+  <si>
+    <t>Len Sullivan</t>
+  </si>
+  <si>
+    <t>Wiliam Diaz</t>
   </si>
 </sst>
 </file>
@@ -2310,13 +2358,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q6">
-            <v>44123.430525462965</v>
+            <v>44130.560968634258</v>
           </cell>
           <cell r="R6">
-            <v>44130.430525462965</v>
+            <v>44137.560968634258</v>
           </cell>
           <cell r="S6">
-            <v>44137.430525462965</v>
+            <v>44144.560968634258</v>
           </cell>
         </row>
         <row r="8">
@@ -2324,22 +2372,22 @@
             <v>50-5710</v>
           </cell>
           <cell r="D8">
-            <v>2400</v>
+            <v>3000</v>
           </cell>
           <cell r="E8">
-            <v>490</v>
+            <v>245</v>
           </cell>
           <cell r="F8">
-            <v>1878.5</v>
+            <v>340</v>
           </cell>
           <cell r="G8">
-            <v>0</v>
+            <v>780.30000000000007</v>
           </cell>
           <cell r="H8">
-            <v>578</v>
+            <v>1271.6000000000001</v>
           </cell>
           <cell r="I8">
-            <v>664.69999999999993</v>
+            <v>606.9</v>
           </cell>
           <cell r="J8">
             <v>153</v>
@@ -2389,13 +2437,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q16">
-            <v>44123.430525462965</v>
+            <v>44130.560968634258</v>
           </cell>
           <cell r="R16">
-            <v>44130.430525462965</v>
+            <v>44137.560968634258</v>
           </cell>
           <cell r="S16">
-            <v>44137.430525462965</v>
+            <v>44144.560968634258</v>
           </cell>
         </row>
         <row r="17">
@@ -2424,13 +2472,13 @@
             <v>0</v>
           </cell>
           <cell r="Q27">
-            <v>11008</v>
+            <v>24960</v>
           </cell>
           <cell r="R27">
-            <v>24128</v>
+            <v>24768</v>
           </cell>
           <cell r="S27">
-            <v>25472</v>
+            <v>18176</v>
           </cell>
         </row>
         <row r="28">
@@ -2441,16 +2489,16 @@
             <v>0</v>
           </cell>
           <cell r="C28">
-            <v>500</v>
+            <v>8000</v>
           </cell>
           <cell r="D28">
-            <v>4900</v>
+            <v>1400</v>
           </cell>
           <cell r="E28">
-            <v>500</v>
+            <v>650</v>
           </cell>
           <cell r="F28">
-            <v>2100</v>
+            <v>2000</v>
           </cell>
           <cell r="G28">
             <v>48</v>
@@ -2497,19 +2545,19 @@
             <v>6555</v>
           </cell>
           <cell r="C44">
-            <v>10005</v>
+            <v>6900</v>
           </cell>
           <cell r="D44">
             <v>0</v>
           </cell>
           <cell r="E44">
-            <v>880</v>
+            <v>2200</v>
           </cell>
           <cell r="F44">
-            <v>3780</v>
+            <v>2310</v>
           </cell>
           <cell r="G44">
-            <v>210</v>
+            <v>798</v>
           </cell>
           <cell r="I44">
             <v>0</v>
@@ -2520,13 +2568,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q47">
-            <v>44123.430525462965</v>
+            <v>44130.560968634258</v>
           </cell>
           <cell r="R47">
-            <v>44130.430525462965</v>
+            <v>44137.560968634258</v>
           </cell>
           <cell r="S47">
-            <v>44137.430525462965</v>
+            <v>44144.560968634258</v>
           </cell>
         </row>
         <row r="48">
@@ -2562,45 +2610,45 @@
         </row>
         <row r="49">
           <cell r="P49">
-            <v>480</v>
+            <v>1000</v>
           </cell>
           <cell r="Q49">
-            <v>1800</v>
+            <v>3680</v>
           </cell>
           <cell r="R49">
-            <v>3680</v>
+            <v>2880</v>
           </cell>
           <cell r="S49">
-            <v>2920</v>
+            <v>2840</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>5520</v>
+            <v>3450</v>
           </cell>
           <cell r="C50">
             <v>6210</v>
           </cell>
           <cell r="D50">
-            <v>1880</v>
+            <v>1680</v>
           </cell>
           <cell r="E50">
             <v>0</v>
           </cell>
           <cell r="F50">
-            <v>1260</v>
+            <v>1050</v>
           </cell>
           <cell r="G50">
             <v>0</v>
           </cell>
           <cell r="H50">
-            <v>1995</v>
+            <v>2310</v>
           </cell>
           <cell r="I50">
-            <v>600</v>
+            <v>240</v>
           </cell>
           <cell r="J50">
-            <v>0</v>
+            <v>1200</v>
           </cell>
           <cell r="K50"/>
         </row>
@@ -2608,7 +2656,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="Q1">
-            <v>44126.430525462965</v>
+            <v>44130.560968634258</v>
           </cell>
         </row>
         <row r="5">
@@ -2616,13 +2664,13 @@
             <v>50-4916</v>
           </cell>
           <cell r="B5">
-            <v>1944</v>
+            <v>2721.6</v>
           </cell>
           <cell r="C5">
             <v>3570</v>
           </cell>
           <cell r="D5">
-            <v>2700</v>
+            <v>3000</v>
           </cell>
           <cell r="E5">
             <v>0</v>
@@ -2631,25 +2679,25 @@
             <v>165</v>
           </cell>
           <cell r="G5">
-            <v>1820</v>
+            <v>1480</v>
           </cell>
           <cell r="H5">
-            <v>1800</v>
+            <v>2160</v>
           </cell>
           <cell r="I5">
-            <v>425</v>
+            <v>0</v>
           </cell>
           <cell r="P5">
             <v>0</v>
           </cell>
           <cell r="Q5">
-            <v>425</v>
+            <v>2880</v>
           </cell>
           <cell r="R5">
-            <v>1440</v>
+            <v>1466</v>
           </cell>
           <cell r="S5">
-            <v>883</v>
+            <v>1176</v>
           </cell>
         </row>
         <row r="8">
@@ -2657,37 +2705,37 @@
             <v>50-2407</v>
           </cell>
           <cell r="B8">
-            <v>9024</v>
+            <v>3308.8</v>
           </cell>
           <cell r="C8">
-            <v>10888.5</v>
+            <v>5185</v>
           </cell>
           <cell r="D8">
-            <v>4550</v>
+            <v>6110</v>
           </cell>
           <cell r="E8">
             <v>0</v>
           </cell>
           <cell r="F8">
-            <v>750</v>
+            <v>900</v>
           </cell>
           <cell r="G8">
-            <v>1500</v>
+            <v>2500</v>
           </cell>
           <cell r="H8">
-            <v>4320</v>
+            <v>6480</v>
           </cell>
           <cell r="P8">
             <v>0</v>
           </cell>
           <cell r="Q8">
-            <v>0</v>
+            <v>3960</v>
           </cell>
           <cell r="R8">
-            <v>2520</v>
+            <v>2322</v>
           </cell>
           <cell r="S8">
-            <v>3240</v>
+            <v>720</v>
           </cell>
         </row>
         <row r="11">
@@ -2701,31 +2749,31 @@
             <v>0</v>
           </cell>
           <cell r="D11">
-            <v>6760</v>
+            <v>4160</v>
           </cell>
           <cell r="E11">
             <v>0</v>
           </cell>
           <cell r="F11">
-            <v>0</v>
+            <v>250</v>
           </cell>
           <cell r="G11">
-            <v>320</v>
+            <v>1060</v>
           </cell>
           <cell r="H11">
-            <v>1800</v>
+            <v>1080</v>
           </cell>
           <cell r="P11">
             <v>0</v>
           </cell>
           <cell r="Q11">
-            <v>0</v>
+            <v>2520</v>
           </cell>
           <cell r="R11">
-            <v>5040</v>
+            <v>3600</v>
           </cell>
           <cell r="S11">
-            <v>3600</v>
+            <v>3240</v>
           </cell>
         </row>
         <row r="18">
@@ -2733,46 +2781,46 @@
             <v>50-4900</v>
           </cell>
           <cell r="B18">
-            <v>514.5</v>
+            <v>1715</v>
           </cell>
           <cell r="C18">
-            <v>864</v>
+            <v>216</v>
           </cell>
           <cell r="D18">
-            <v>815.1</v>
+            <v>8464.5</v>
           </cell>
           <cell r="E18">
-            <v>896</v>
+            <v>268.8</v>
           </cell>
           <cell r="F18">
-            <v>345.6</v>
+            <v>512</v>
           </cell>
           <cell r="G18">
             <v>0</v>
           </cell>
           <cell r="H18">
-            <v>120</v>
+            <v>0</v>
           </cell>
           <cell r="I18">
-            <v>1984</v>
+            <v>576</v>
           </cell>
           <cell r="J18">
+            <v>2232</v>
+          </cell>
+          <cell r="K18">
             <v>0</v>
-          </cell>
-          <cell r="K18">
-            <v>1008</v>
           </cell>
           <cell r="P18">
             <v>0</v>
           </cell>
           <cell r="Q18">
+            <v>3096</v>
+          </cell>
+          <cell r="R18">
+            <v>2727</v>
+          </cell>
+          <cell r="S18">
             <v>1008</v>
-          </cell>
-          <cell r="R18">
-            <v>1728</v>
-          </cell>
-          <cell r="S18">
-            <v>1836</v>
           </cell>
         </row>
         <row r="21">
@@ -2780,16 +2828,16 @@
             <v>50-6686</v>
           </cell>
           <cell r="B21">
-            <v>9240</v>
+            <v>8580</v>
           </cell>
           <cell r="C21">
-            <v>10296</v>
+            <v>9594</v>
           </cell>
           <cell r="D21">
-            <v>5011.2</v>
+            <v>4608</v>
           </cell>
           <cell r="E21">
-            <v>0</v>
+            <v>750</v>
           </cell>
           <cell r="F21">
             <v>0</v>
@@ -2801,7 +2849,7 @@
             <v>0</v>
           </cell>
           <cell r="I21">
-            <v>2520</v>
+            <v>2268</v>
           </cell>
           <cell r="J21">
             <v>2088</v>
@@ -2810,13 +2858,13 @@
             <v>0</v>
           </cell>
           <cell r="Q21">
-            <v>0</v>
+            <v>3744</v>
           </cell>
           <cell r="R21">
-            <v>2304</v>
+            <v>1293</v>
           </cell>
           <cell r="S21">
-            <v>2520</v>
+            <v>936</v>
           </cell>
         </row>
         <row r="24">
@@ -2824,43 +2872,43 @@
             <v>50-6729</v>
           </cell>
           <cell r="B24">
-            <v>1732.5</v>
+            <v>13282.5</v>
           </cell>
           <cell r="C24">
-            <v>3960</v>
+            <v>2772</v>
           </cell>
           <cell r="D24">
-            <v>2970</v>
+            <v>15660</v>
           </cell>
           <cell r="E24">
-            <v>4200</v>
+            <v>2850</v>
           </cell>
           <cell r="F24">
-            <v>0</v>
+            <v>120</v>
           </cell>
           <cell r="G24">
-            <v>0</v>
+            <v>126</v>
           </cell>
           <cell r="H24">
-            <v>0</v>
+            <v>42</v>
           </cell>
           <cell r="I24">
-            <v>210</v>
+            <v>63</v>
           </cell>
           <cell r="J24">
-            <v>4464</v>
+            <v>4032</v>
           </cell>
           <cell r="P24">
             <v>0</v>
           </cell>
           <cell r="Q24">
-            <v>0</v>
+            <v>2448</v>
           </cell>
           <cell r="R24">
-            <v>4968</v>
+            <v>3816</v>
           </cell>
           <cell r="S24">
-            <v>3816</v>
+            <v>3168</v>
           </cell>
         </row>
         <row r="34">
@@ -2909,40 +2957,40 @@
             <v>50-4748</v>
           </cell>
           <cell r="B37">
-            <v>12342</v>
+            <v>15708</v>
           </cell>
           <cell r="C37">
-            <v>11781</v>
+            <v>8415</v>
           </cell>
           <cell r="D37">
-            <v>769.59999999999991</v>
+            <v>400</v>
           </cell>
           <cell r="E37">
-            <v>5544</v>
+            <v>1601.6000000000001</v>
           </cell>
           <cell r="F37">
             <v>0</v>
           </cell>
           <cell r="G37">
-            <v>532</v>
+            <v>1064</v>
           </cell>
           <cell r="H37">
             <v>0</v>
           </cell>
           <cell r="I37">
-            <v>1152</v>
+            <v>9216</v>
           </cell>
           <cell r="P37">
             <v>0</v>
           </cell>
           <cell r="Q37">
-            <v>0</v>
+            <v>11520</v>
           </cell>
           <cell r="R37">
-            <v>11520</v>
+            <v>10944</v>
           </cell>
           <cell r="S37">
-            <v>10944</v>
+            <v>14400</v>
           </cell>
         </row>
         <row r="38">
@@ -2953,19 +3001,19 @@
             <v>0</v>
           </cell>
           <cell r="I38">
-            <v>4536</v>
+            <v>7128</v>
           </cell>
           <cell r="P38">
             <v>0</v>
           </cell>
           <cell r="Q38">
-            <v>4536</v>
+            <v>11664</v>
           </cell>
           <cell r="R38">
-            <v>11664</v>
+            <v>19440</v>
           </cell>
           <cell r="S38">
-            <v>18792</v>
+            <v>7776</v>
           </cell>
         </row>
         <row r="57">
@@ -3017,49 +3065,49 @@
             <v>50-3627-M</v>
           </cell>
           <cell r="B58">
-            <v>7200</v>
+            <v>9600</v>
           </cell>
           <cell r="C58">
-            <v>1944</v>
+            <v>4752</v>
           </cell>
           <cell r="D58">
-            <v>300</v>
+            <v>0</v>
           </cell>
           <cell r="E58">
-            <v>3760</v>
+            <v>3200</v>
           </cell>
           <cell r="F58">
-            <v>500</v>
+            <v>459.99999999999994</v>
           </cell>
           <cell r="G58">
             <v>0</v>
           </cell>
           <cell r="H58">
-            <v>340</v>
+            <v>100</v>
           </cell>
           <cell r="I58">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="J58">
             <v>0</v>
           </cell>
           <cell r="K58">
-            <v>0</v>
+            <v>1080</v>
           </cell>
           <cell r="L58">
-            <v>3680</v>
+            <v>1200</v>
           </cell>
           <cell r="P58">
             <v>0</v>
           </cell>
           <cell r="Q58">
-            <v>4320</v>
+            <v>8960</v>
           </cell>
           <cell r="R58">
-            <v>9360</v>
+            <v>6960</v>
           </cell>
           <cell r="S58">
-            <v>6880</v>
+            <v>8160</v>
           </cell>
         </row>
         <row r="59">
@@ -3067,43 +3115,43 @@
             <v>50-3632-M</v>
           </cell>
           <cell r="B59">
-            <v>9408</v>
+            <v>4116</v>
           </cell>
           <cell r="C59">
-            <v>7000</v>
+            <v>2500</v>
           </cell>
           <cell r="D59">
             <v>300</v>
           </cell>
           <cell r="E59">
-            <v>5040</v>
+            <v>6439.9999999999991</v>
           </cell>
           <cell r="F59">
+            <v>600</v>
+          </cell>
+          <cell r="G59">
             <v>320</v>
-          </cell>
-          <cell r="G59">
-            <v>240</v>
           </cell>
           <cell r="H59">
             <v>0</v>
           </cell>
           <cell r="K59">
-            <v>1840</v>
+            <v>1792</v>
           </cell>
           <cell r="L59">
-            <v>2000</v>
+            <v>1040</v>
           </cell>
           <cell r="P59">
             <v>0</v>
           </cell>
           <cell r="Q59">
-            <v>4400</v>
+            <v>8960</v>
           </cell>
           <cell r="R59">
-            <v>9280</v>
+            <v>6960</v>
           </cell>
           <cell r="S59">
-            <v>6960</v>
+            <v>8160</v>
           </cell>
         </row>
         <row r="60">
@@ -3120,16 +3168,16 @@
             <v>0</v>
           </cell>
           <cell r="E60">
-            <v>1120</v>
+            <v>960</v>
           </cell>
           <cell r="F60">
-            <v>0</v>
+            <v>90</v>
           </cell>
           <cell r="G60">
             <v>0</v>
           </cell>
           <cell r="H60">
-            <v>960</v>
+            <v>930</v>
           </cell>
           <cell r="I60">
             <v>0</v>
@@ -3138,22 +3186,22 @@
             <v>0</v>
           </cell>
           <cell r="K60">
-            <v>450</v>
+            <v>90</v>
           </cell>
           <cell r="L60">
-            <v>0</v>
+            <v>576</v>
           </cell>
           <cell r="P60">
             <v>0</v>
           </cell>
           <cell r="Q60">
-            <v>0</v>
+            <v>480</v>
           </cell>
           <cell r="R60">
-            <v>480</v>
+            <v>384</v>
           </cell>
           <cell r="S60">
-            <v>384</v>
+            <v>288</v>
           </cell>
         </row>
         <row r="61">
@@ -3191,13 +3239,13 @@
             <v>0</v>
           </cell>
           <cell r="Q61">
-            <v>0</v>
+            <v>480</v>
           </cell>
           <cell r="R61">
-            <v>480</v>
+            <v>384</v>
           </cell>
           <cell r="S61">
-            <v>384</v>
+            <v>288</v>
           </cell>
         </row>
       </sheetData>
@@ -7509,7 +7557,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP444"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V213" sqref="V213:AP271"/>
     </sheetView>
   </sheetViews>
@@ -7648,15 +7696,15 @@
       </c>
       <c r="AK1" s="5">
         <f>'[1]CSD I INV'!$Q$6</f>
-        <v>44123.430525462965</v>
+        <v>44130.560968634258</v>
       </c>
       <c r="AL1" s="5">
         <f>'[1]CSD I INV'!$R$6</f>
-        <v>44130.430525462965</v>
+        <v>44137.560968634258</v>
       </c>
       <c r="AM1" s="5">
         <f>'[1]CSD I INV'!$S$6</f>
-        <v>44137.430525462965</v>
+        <v>44144.560968634258</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7670,7 +7718,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="6">
         <f>'[1]CSD I INV'!$D$8</f>
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7678,7 +7726,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="6">
         <f>'[1]CSD I INV'!$E$8</f>
-        <v>490</v>
+        <v>245</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -7691,23 +7739,23 @@
       <c r="T2" s="4"/>
       <c r="U2" s="6">
         <f>'[1]CSD I INV'!$F$8</f>
-        <v>1878.5</v>
+        <v>340</v>
       </c>
       <c r="V2" s="6">
         <f>'[1]CSD I INV'!$G$8</f>
-        <v>0</v>
+        <v>780.30000000000007</v>
       </c>
       <c r="W2" s="4"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6">
         <f>'[1]CSD I INV'!$H$8</f>
-        <v>578</v>
+        <v>1271.6000000000001</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="6">
         <f>'[1]CSD I INV'!$I$8</f>
-        <v>664.69999999999993</v>
+        <v>606.9</v>
       </c>
       <c r="AC2" s="6">
         <f>'[1]CSD I INV'!$J$8</f>
@@ -7876,15 +7924,15 @@
       </c>
       <c r="AK4" s="7">
         <f>'[1]CSD I INV'!$Q$16</f>
-        <v>44123.430525462965</v>
+        <v>44130.560968634258</v>
       </c>
       <c r="AL4" s="7">
         <f>'[1]CSD I INV'!$R$16</f>
-        <v>44130.430525462965</v>
+        <v>44137.560968634258</v>
       </c>
       <c r="AM4" s="7">
         <f>'[1]CSD I INV'!$S$16</f>
-        <v>44137.430525462965</v>
+        <v>44144.560968634258</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7899,12 +7947,12 @@
       </c>
       <c r="D5" s="4">
         <f>'[1]CSD I INV'!$C$28</f>
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6">
         <f>'[1]CSD I INV'!$D$28</f>
-        <v>4900</v>
+        <v>1400</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -7923,12 +7971,12 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4">
         <f>'[1]CSD I INV'!$E$28</f>
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="6">
         <f>'[1]CSD I INV'!$F$28+'[1]CSD I INV'!$G$28</f>
-        <v>2148</v>
+        <v>2048</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -7950,15 +7998,15 @@
       </c>
       <c r="AK5" s="7">
         <f>'[1]CSD I INV'!$Q$27</f>
-        <v>11008</v>
+        <v>24960</v>
       </c>
       <c r="AL5" s="7">
         <f>'[1]CSD I INV'!$R$27</f>
-        <v>24128</v>
+        <v>24768</v>
       </c>
       <c r="AM5" s="7">
         <f>'[1]CSD I INV'!$S$27</f>
-        <v>25472</v>
+        <v>18176</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8052,7 +8100,7 @@
       </c>
       <c r="D7" s="6">
         <f>'[1]CSD I INV'!$C$44</f>
-        <v>10005</v>
+        <v>6900</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6">
@@ -8069,12 +8117,12 @@
       <c r="N7" s="4"/>
       <c r="O7" s="6">
         <f>'[1]CSD I INV'!$E$44</f>
-        <v>880</v>
+        <v>2200</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="6">
         <f>'[1]CSD I INV'!$F$44</f>
-        <v>3780</v>
+        <v>2310</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -8090,7 +8138,7 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="6">
         <f>'[1]CSD I INV'!$G$44</f>
-        <v>210</v>
+        <v>798</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -8180,15 +8228,15 @@
       </c>
       <c r="AK8" s="7">
         <f>'[1]CSD I INV'!$Q$47</f>
-        <v>44123.430525462965</v>
+        <v>44130.560968634258</v>
       </c>
       <c r="AL8" s="7">
         <f>'[1]CSD I INV'!$R$47</f>
-        <v>44130.430525462965</v>
+        <v>44137.560968634258</v>
       </c>
       <c r="AM8" s="7">
         <f>'[1]CSD I INV'!$S$47</f>
-        <v>44137.430525462965</v>
+        <v>44144.560968634258</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8198,7 +8246,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="6">
         <f>'[1]CSD I INV'!$B$50</f>
-        <v>5520</v>
+        <v>3450</v>
       </c>
       <c r="D9" s="6">
         <f>'[1]CSD I INV'!$C$50</f>
@@ -8207,7 +8255,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="6">
         <f>'[1]CSD I INV'!$D$50</f>
-        <v>1880</v>
+        <v>1680</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -8230,7 +8278,7 @@
       </c>
       <c r="W9" s="6">
         <f>'[1]CSD I INV'!$F$50</f>
-        <v>1260</v>
+        <v>1050</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -8240,11 +8288,11 @@
       </c>
       <c r="AA9" s="6">
         <f>'[1]CSD I INV'!$H$50</f>
-        <v>1995</v>
+        <v>2310</v>
       </c>
       <c r="AB9" s="6">
         <f>'[1]CSD I INV'!$I$50</f>
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -8252,7 +8300,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="6">
         <f>'[1]CSD I INV'!$J$50</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="AH9" s="6">
         <f>'[1]CSD I INV'!$K$50</f>
@@ -8261,19 +8309,19 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="7">
         <f>'[1]CSD I INV'!$P$49</f>
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AK9" s="7">
         <f>'[1]CSD I INV'!$Q$49</f>
-        <v>1800</v>
+        <v>3680</v>
       </c>
       <c r="AL9" s="7">
         <f>'[1]CSD I INV'!$R$49</f>
-        <v>3680</v>
+        <v>2880</v>
       </c>
       <c r="AM9" s="7">
         <f>'[1]CSD I INV'!$S$49</f>
-        <v>2920</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8352,7 +8400,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="6">
         <f>'[1]CSD II INV'!$B$5</f>
-        <v>1944</v>
+        <v>2721.6</v>
       </c>
       <c r="D11" s="6">
         <f>'[1]CSD II INV'!$C$5</f>
@@ -8361,7 +8409,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="6">
         <f>'[1]CSD II INV'!$D$5</f>
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -8384,7 +8432,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="6">
         <f>'[1]CSD II INV'!$G$5</f>
-        <v>1820</v>
+        <v>1480</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -8401,11 +8449,11 @@
       <c r="AG11" s="4"/>
       <c r="AH11" s="6">
         <f>'[1]CSD II INV'!$H$5</f>
-        <v>1800</v>
+        <v>2160</v>
       </c>
       <c r="AI11" s="6">
         <f>'[1]CSD II INV'!$I$5</f>
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="7">
         <f>'[1]CSD II INV'!$P$5</f>
@@ -8413,15 +8461,15 @@
       </c>
       <c r="AK11" s="7">
         <f>'[1]CSD II INV'!$Q$5</f>
-        <v>425</v>
+        <v>2880</v>
       </c>
       <c r="AL11" s="7">
         <f>'[1]CSD II INV'!$R$5</f>
-        <v>1440</v>
+        <v>1466</v>
       </c>
       <c r="AM11" s="7">
         <f>'[1]CSD II INV'!$S$5</f>
-        <v>883</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8432,16 +8480,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="6">
         <f>'[1]CSD II INV'!$B$8</f>
-        <v>9024</v>
+        <v>3308.8</v>
       </c>
       <c r="D12" s="6">
         <f>'[1]CSD II INV'!$C$8</f>
-        <v>10888.5</v>
+        <v>5185</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6">
         <f>'[1]CSD II INV'!$D$8</f>
-        <v>4550</v>
+        <v>6110</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -8457,14 +8505,14 @@
       <c r="O12" s="4"/>
       <c r="P12" s="6">
         <f>'[1]CSD II INV'!$F$8</f>
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="6">
         <f>'[1]CSD II INV'!$G$8</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -8481,7 +8529,7 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="6">
         <f>'[1]CSD II INV'!$H$8</f>
-        <v>4320</v>
+        <v>6480</v>
       </c>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="7">
@@ -8490,15 +8538,15 @@
       </c>
       <c r="AK12" s="7">
         <f>'[1]CSD II INV'!$Q$8</f>
-        <v>0</v>
+        <v>3960</v>
       </c>
       <c r="AL12" s="7">
         <f>'[1]CSD II INV'!$R$8</f>
-        <v>2520</v>
+        <v>2322</v>
       </c>
       <c r="AM12" s="7">
         <f>'[1]CSD II INV'!$S$8</f>
-        <v>3240</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8518,7 +8566,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="6">
         <f>'[1]CSD II INV'!$D$11</f>
-        <v>6760</v>
+        <v>4160</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -8534,14 +8582,14 @@
       <c r="O13" s="4"/>
       <c r="P13" s="6">
         <f>'[1]CSD II INV'!$F$11</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="6">
         <f>'[1]CSD II INV'!$G$11</f>
-        <v>320</v>
+        <v>1060</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -8558,7 +8606,7 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="6">
         <f>'[1]CSD II INV'!$H$11</f>
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="7">
@@ -8567,15 +8615,15 @@
       </c>
       <c r="AK13" s="7">
         <f>'[1]CSD II INV'!$Q$11</f>
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="AL13" s="7">
         <f>'[1]CSD II INV'!$R$11</f>
-        <v>5040</v>
+        <v>3600</v>
       </c>
       <c r="AM13" s="7">
         <f>'[1]CSD II INV'!$S$11</f>
-        <v>3600</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8586,19 +8634,19 @@
       <c r="B14" s="4"/>
       <c r="C14" s="6">
         <f>'[1]CSD II INV'!$B$18</f>
-        <v>514.5</v>
+        <v>1715</v>
       </c>
       <c r="D14" s="6">
         <f>'[1]CSD II INV'!$C$18</f>
-        <v>864</v>
+        <v>216</v>
       </c>
       <c r="E14" s="6">
         <f>'[1]CSD II INV'!$D$18</f>
-        <v>815.1</v>
+        <v>8464.5</v>
       </c>
       <c r="F14" s="6">
         <f>'[1]CSD II INV'!$E$18</f>
-        <v>896</v>
+        <v>268.8</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -8607,7 +8655,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="6">
         <f>'[1]CSD II INV'!$F$18</f>
-        <v>345.6</v>
+        <v>512</v>
       </c>
       <c r="M14" s="6">
         <f>'[1]CSD II INV'!$G$18</f>
@@ -8615,7 +8663,7 @@
       </c>
       <c r="N14" s="6">
         <f>'[1]CSD II INV'!$H$18</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -8624,7 +8672,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="6">
         <f>'[1]CSD II INV'!$I$18</f>
-        <v>1984</v>
+        <v>576</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -8641,11 +8689,11 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="6">
         <f>'[1]CSD II INV'!$J$18</f>
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="AI14" s="6">
         <f>'[1]CSD II INV'!$K$18</f>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="7">
         <f>'[1]CSD II INV'!$P$18</f>
@@ -8653,15 +8701,15 @@
       </c>
       <c r="AK14" s="7">
         <f>'[1]CSD II INV'!$Q$18</f>
-        <v>1008</v>
+        <v>3096</v>
       </c>
       <c r="AL14" s="7">
         <f>'[1]CSD II INV'!$R$18</f>
-        <v>1728</v>
+        <v>2727</v>
       </c>
       <c r="AM14" s="7">
         <f>'[1]CSD II INV'!$S$18</f>
-        <v>1836</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8672,19 +8720,19 @@
       <c r="B15" s="4"/>
       <c r="C15" s="6">
         <f>'[1]CSD II INV'!$B$21</f>
-        <v>9240</v>
+        <v>8580</v>
       </c>
       <c r="D15" s="6">
         <f>'[1]CSD II INV'!$C$21</f>
-        <v>10296</v>
+        <v>9594</v>
       </c>
       <c r="E15" s="6">
         <f>'[1]CSD II INV'!$D$21</f>
-        <v>5011.2</v>
+        <v>4608</v>
       </c>
       <c r="F15" s="6">
         <f>'[1]CSD II INV'!$E$21</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -8710,7 +8758,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="6">
         <f>'[1]CSD II INV'!$I$21</f>
-        <v>2520</v>
+        <v>2268</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -8736,15 +8784,15 @@
       </c>
       <c r="AK15" s="7">
         <f>'[1]CSD II INV'!$Q$21</f>
-        <v>0</v>
+        <v>3744</v>
       </c>
       <c r="AL15" s="7">
         <f>'[1]CSD II INV'!$R$21</f>
-        <v>2304</v>
+        <v>1293</v>
       </c>
       <c r="AM15" s="7">
         <f>'[1]CSD II INV'!$S$21</f>
-        <v>2520</v>
+        <v>936</v>
       </c>
       <c r="AN15" s="15">
         <f>'[1]KANBAN TARGETS'!$J$76</f>
@@ -8759,19 +8807,19 @@
       <c r="B16" s="4"/>
       <c r="C16" s="6">
         <f>'[1]CSD II INV'!$B$24</f>
-        <v>1732.5</v>
+        <v>13282.5</v>
       </c>
       <c r="D16" s="6">
         <f>'[1]CSD II INV'!$C$24</f>
-        <v>3960</v>
+        <v>2772</v>
       </c>
       <c r="E16" s="6">
         <f>'[1]CSD II INV'!$D$24</f>
-        <v>2970</v>
+        <v>15660</v>
       </c>
       <c r="F16" s="6">
         <f>'[1]CSD II INV'!$E$24</f>
-        <v>4200</v>
+        <v>2850</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -8780,15 +8828,15 @@
       <c r="K16" s="4"/>
       <c r="L16" s="6">
         <f>'[1]CSD II INV'!$F$24</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M16" s="6">
         <f>'[1]CSD II INV'!$G$24</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N16" s="6">
         <f>'[1]CSD II INV'!$H$24</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -8797,7 +8845,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="6">
         <f>'[1]CSD II INV'!$I$24</f>
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -8814,7 +8862,7 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="6">
         <f>'[1]CSD II INV'!$J$24</f>
-        <v>4464</v>
+        <v>4032</v>
       </c>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="7">
@@ -8823,15 +8871,15 @@
       </c>
       <c r="AK16" s="7">
         <f>'[1]CSD II INV'!$Q$24</f>
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="AL16" s="7">
         <f>'[1]CSD II INV'!$R$24</f>
-        <v>4968</v>
+        <v>3816</v>
       </c>
       <c r="AM16" s="7">
         <f>'[1]CSD II INV'!$S$24</f>
-        <v>3816</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8922,16 +8970,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="6">
         <f>'[1]CSD II INV'!$B$37</f>
-        <v>12342</v>
+        <v>15708</v>
       </c>
       <c r="D18" s="6">
         <f>'[1]CSD II INV'!$C$37</f>
-        <v>11781</v>
+        <v>8415</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6">
         <f>'[1]CSD II INV'!$D$37</f>
-        <v>769.59999999999991</v>
+        <v>400</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -8939,7 +8987,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="6">
         <f>'[1]CSD II INV'!$E$37</f>
-        <v>5544</v>
+        <v>1601.6000000000001</v>
       </c>
       <c r="L18" s="6">
         <f>'[1]CSD II INV'!$F$37</f>
@@ -8951,7 +8999,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="6">
         <f>'[1]CSD II INV'!$G$37</f>
-        <v>532</v>
+        <v>1064</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -8972,7 +9020,7 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="6">
         <f>'[1]CSD II INV'!$I$37</f>
-        <v>1152</v>
+        <v>9216</v>
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
@@ -8983,15 +9031,15 @@
       </c>
       <c r="AK18" s="7">
         <f>'[1]CSD II INV'!$Q$37</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="AL18" s="7">
         <f>'[1]CSD II INV'!$R$37</f>
-        <v>11520</v>
+        <v>10944</v>
       </c>
       <c r="AM18" s="7">
         <f>'[1]CSD II INV'!$S$37</f>
-        <v>10944</v>
+        <v>14400</v>
       </c>
       <c r="AN18" s="15">
         <f>'[1]KANBAN TARGETS'!$I$85</f>
@@ -9038,7 +9086,7 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="6">
         <f>'[1]CSD II INV'!$I$38</f>
-        <v>4536</v>
+        <v>7128</v>
       </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
@@ -9049,15 +9097,15 @@
       </c>
       <c r="AK19" s="7">
         <f>'[1]CSD II INV'!$Q$38</f>
-        <v>4536</v>
+        <v>11664</v>
       </c>
       <c r="AL19" s="7">
         <f>'[1]CSD II INV'!$R$38</f>
-        <v>11664</v>
+        <v>19440</v>
       </c>
       <c r="AM19" s="7">
         <f>'[1]CSD II INV'!$S$38</f>
-        <v>18792</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9151,29 +9199,29 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11">
         <f>'[1]CSD II INV'!$B$58</f>
-        <v>7200</v>
+        <v>9600</v>
       </c>
       <c r="D21" s="12">
         <f>'[1]CSD II INV'!$C$58</f>
-        <v>1944</v>
+        <v>4752</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11">
         <f>'[1]CSD II INV'!$D$58</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11">
         <f>'[1]CSD II INV'!$E$58</f>
-        <v>3760</v>
+        <v>3200</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11">
         <f>'[1]CSD II INV'!$F$58</f>
-        <v>500</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="N21" s="11">
         <f>'[1]CSD II INV'!$G$58</f>
@@ -9183,11 +9231,11 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11">
         <f>'[1]CSD II INV'!$H$58</f>
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="R21" s="11">
         <f>'[1]CSD II INV'!$I$58</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S21" s="11">
         <f>'[1]CSD II INV'!$J$58</f>
@@ -9200,7 +9248,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="12">
         <f>'[1]CSD II INV'!$K$58</f>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
@@ -9210,7 +9258,7 @@
       <c r="AE21" s="11"/>
       <c r="AF21" s="11">
         <f>'[1]CSD II INV'!$L$58</f>
-        <v>3680</v>
+        <v>1200</v>
       </c>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
@@ -9221,15 +9269,15 @@
       </c>
       <c r="AK21" s="13">
         <f>'[1]CSD II INV'!$Q$58</f>
-        <v>4320</v>
+        <v>8960</v>
       </c>
       <c r="AL21" s="13">
         <f>'[1]CSD II INV'!$R$58</f>
-        <v>9360</v>
+        <v>6960</v>
       </c>
       <c r="AM21" s="13">
         <f>'[1]CSD II INV'!$S$58</f>
-        <v>6880</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="22" spans="1:40" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9240,11 +9288,11 @@
       <c r="B22" s="11"/>
       <c r="C22" s="12">
         <f>'[1]CSD II INV'!$B$59</f>
-        <v>9408</v>
+        <v>4116</v>
       </c>
       <c r="D22" s="12">
         <f>'[1]CSD II INV'!$C$59</f>
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12">
@@ -9256,17 +9304,17 @@
       <c r="I22" s="11"/>
       <c r="J22" s="12">
         <f>'[1]CSD II INV'!$E$59</f>
-        <v>5040</v>
+        <v>6439.9999999999991</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11">
         <f>'[1]CSD II INV'!$F$59</f>
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="N22" s="11">
         <f>'[1]CSD II INV'!$G$59</f>
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -9283,7 +9331,7 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11">
         <f>'[1]CSD II INV'!$K$59</f>
-        <v>1840</v>
+        <v>1792</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
@@ -9293,7 +9341,7 @@
       <c r="AE22" s="11"/>
       <c r="AF22" s="11">
         <f>'[1]CSD II INV'!$L$59</f>
-        <v>2000</v>
+        <v>1040</v>
       </c>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
@@ -9304,15 +9352,15 @@
       </c>
       <c r="AK22" s="13">
         <f>'[1]CSD II INV'!$Q$59</f>
-        <v>4400</v>
+        <v>8960</v>
       </c>
       <c r="AL22" s="13">
         <f>'[1]CSD II INV'!$R$59</f>
-        <v>9280</v>
+        <v>6960</v>
       </c>
       <c r="AM22" s="13">
         <f>'[1]CSD II INV'!$S$59</f>
-        <v>6960</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9339,13 +9387,13 @@
       <c r="I23" s="4"/>
       <c r="J23" s="6">
         <f>'[1]CSD II INV'!$E$60</f>
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="6">
         <f>'[1]CSD II INV'!$F$60</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N23" s="6">
         <f>'[1]CSD II INV'!$G$60</f>
@@ -9355,7 +9403,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="6">
         <f>'[1]CSD II INV'!$H$60</f>
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="R23" s="6">
         <f>'[1]CSD II INV'!$I$60</f>
@@ -9372,7 +9420,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="6">
         <f>'[1]CSD II INV'!$K$60</f>
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
@@ -9382,7 +9430,7 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4">
         <f>'[1]CSD II INV'!$L$60</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
@@ -9393,15 +9441,15 @@
       </c>
       <c r="AK23" s="7">
         <f>'[1]CSD II INV'!$Q$60</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AL23" s="7">
         <f>'[1]CSD II INV'!$R$60</f>
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="AM23" s="7">
         <f>'[1]CSD II INV'!$S$60</f>
-        <v>384</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9476,15 +9524,15 @@
       </c>
       <c r="AK24" s="7">
         <f>'[1]CSD II INV'!$Q$61</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AL24" s="7">
         <f>'[1]CSD II INV'!$R$61</f>
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="AM24" s="7">
         <f>'[1]CSD II INV'!$S$61</f>
-        <v>384</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10280,7 +10328,7 @@
     <row r="42" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <f>'[1]CSD II INV'!$Q$1</f>
-        <v>44126.430525462965</v>
+        <v>44130.560968634258</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -31183,130 +31231,130 @@
     <row r="209" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="212" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A212" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C212" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="B212" s="28" t="s">
+      <c r="D212" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="E212" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="D212" s="28" t="s">
+      <c r="F212" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="E212" s="28" t="s">
+      <c r="G212" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="F212" s="28" t="s">
+      <c r="H212" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="G212" s="28" t="s">
+      <c r="I212" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="H212" s="28" t="s">
+      <c r="J212" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="I212" s="28" t="s">
+      <c r="K212" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="J212" s="28" t="s">
+      <c r="L212" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="K212" s="28" t="s">
+      <c r="M212" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="L212" s="28" t="s">
+      <c r="N212" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="M212" s="28" t="s">
+      <c r="O212" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="N212" s="28" t="s">
+      <c r="P212" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="O212" s="28" t="s">
+      <c r="Q212" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="P212" s="28" t="s">
+      <c r="R212" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="Q212" s="28" t="s">
+      <c r="S212" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="R212" s="28" t="s">
+      <c r="T212" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="S212" s="28" t="s">
+      <c r="U212" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="T212" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="U212" s="28" t="s">
-        <v>542</v>
-      </c>
       <c r="V212" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="W212" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="X212" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="W212" s="30" t="s">
+      <c r="Y212" s="30" t="s">
         <v>523</v>
       </c>
-      <c r="X212" s="30" t="s">
+      <c r="Z212" s="31" t="s">
         <v>524</v>
       </c>
-      <c r="Y212" s="30" t="s">
+      <c r="AA212" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="Z212" s="31" t="s">
+      <c r="AB212" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="AA212" s="31" t="s">
+      <c r="AC212" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="AB212" s="31" t="s">
+      <c r="AD212" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="AC212" s="31" t="s">
+      <c r="AE212" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="AD212" s="31" t="s">
+      <c r="AF212" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="AE212" s="31" t="s">
+      <c r="AG212" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="AF212" s="31" t="s">
+      <c r="AH212" s="31" t="s">
         <v>532</v>
       </c>
-      <c r="AG212" s="31" t="s">
+      <c r="AI212" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="AH212" s="31" t="s">
+      <c r="AJ212" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="AI212" s="30" t="s">
+      <c r="AK212" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="AJ212" s="30" t="s">
+      <c r="AL212" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="AK212" s="30" t="s">
+      <c r="AM212" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="AL212" s="30" t="s">
+      <c r="AN212" s="31" t="s">
         <v>538</v>
       </c>
-      <c r="AM212" s="31" t="s">
+      <c r="AO212" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="AN212" s="31" t="s">
+      <c r="AP212" s="31" t="s">
         <v>540</v>
-      </c>
-      <c r="AO212" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AP212" s="31" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.2">
@@ -31329,7 +31377,7 @@
         <v>204</v>
       </c>
       <c r="G213" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H213" s="27" t="s">
         <v>205</v>
@@ -31338,32 +31386,32 @@
         <v>206</v>
       </c>
       <c r="J213" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K213" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L213" s="27" t="s">
         <v>207</v>
       </c>
       <c r="M213" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N213" s="27"/>
       <c r="O213" s="27"/>
       <c r="P213" s="27"/>
       <c r="Q213" s="27"/>
       <c r="R213" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="S213" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="T213" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="S213" s="27" t="s">
+      <c r="U213" s="27" t="s">
         <v>548</v>
-      </c>
-      <c r="T213" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="U213" s="27" t="s">
-        <v>550</v>
       </c>
       <c r="V213" s="32">
         <v>6569</v>
@@ -31405,16 +31453,16 @@
         <v>6969</v>
       </c>
       <c r="AI213" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ213" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK213" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL213" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM213" s="32">
         <v>904</v>
@@ -31446,7 +31494,7 @@
         <v>211</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G214" s="27" t="s">
         <v>212</v>
@@ -31458,32 +31506,32 @@
         <v>214</v>
       </c>
       <c r="J214" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="K214" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="L214" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="K214" s="27" t="s">
+      <c r="M214" s="27" t="s">
         <v>554</v>
-      </c>
-      <c r="L214" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="M214" s="27" t="s">
-        <v>556</v>
       </c>
       <c r="N214" s="27"/>
       <c r="O214" s="27"/>
       <c r="P214" s="27"/>
       <c r="Q214" s="27"/>
       <c r="R214" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="S214" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="T214" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="S214" s="27" t="s">
+      <c r="U214" s="27" t="s">
         <v>558</v>
-      </c>
-      <c r="T214" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="U214" s="27" t="s">
-        <v>560</v>
       </c>
       <c r="V214" s="32">
         <v>6905</v>
@@ -31525,16 +31573,16 @@
         <v>4532</v>
       </c>
       <c r="AI214" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ214" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK214" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL214" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM214" s="32">
         <v>868</v>
@@ -31557,10 +31605,10 @@
         <v>224</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>217</v>
+        <v>676</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>218</v>
+        <v>687</v>
       </c>
       <c r="E215" s="27" t="s">
         <v>219</v>
@@ -31578,32 +31626,32 @@
         <v>228</v>
       </c>
       <c r="J215" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="K215" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="L215" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="K215" s="27" t="s">
+      <c r="M215" s="27" t="s">
         <v>562</v>
-      </c>
-      <c r="L215" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="M215" s="27" t="s">
-        <v>564</v>
       </c>
       <c r="N215" s="27"/>
       <c r="O215" s="27"/>
       <c r="P215" s="27"/>
       <c r="Q215" s="27"/>
       <c r="R215" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="S215" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="T215" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="S215" s="27" t="s">
+      <c r="U215" s="27" t="s">
         <v>566</v>
-      </c>
-      <c r="T215" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="U215" s="27" t="s">
-        <v>568</v>
       </c>
       <c r="V215" s="32">
         <v>966</v>
@@ -31611,11 +31659,11 @@
       <c r="W215" s="32">
         <v>6912</v>
       </c>
-      <c r="X215" s="32">
-        <v>6917</v>
-      </c>
-      <c r="Y215" s="32">
-        <v>671</v>
+      <c r="X215" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y215" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="Z215" s="32">
         <v>6824</v>
@@ -31645,16 +31693,16 @@
         <v>6921</v>
       </c>
       <c r="AI215" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ215" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK215" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL215" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM215" s="32">
         <v>6733</v>
@@ -31674,13 +31722,13 @@
         <v>223</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E216" s="27" t="s">
         <v>226</v>
@@ -31689,22 +31737,22 @@
         <v>227</v>
       </c>
       <c r="G216" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="I216" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J216" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="H216" s="27" t="s">
+      <c r="K216" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="I216" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="J216" s="27" t="s">
+      <c r="L216" s="27" t="s">
         <v>571</v>
-      </c>
-      <c r="K216" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="L216" s="27" t="s">
-        <v>573</v>
       </c>
       <c r="M216" s="27" t="s">
         <v>229</v>
@@ -31714,16 +31762,16 @@
       <c r="P216" s="27"/>
       <c r="Q216" s="27"/>
       <c r="R216" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="S216" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="T216" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="S216" s="27" t="s">
+      <c r="U216" s="27" t="s">
         <v>575</v>
-      </c>
-      <c r="T216" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="U216" s="27" t="s">
-        <v>577</v>
       </c>
       <c r="V216" s="32">
         <v>961</v>
@@ -31732,10 +31780,10 @@
         <v>116</v>
       </c>
       <c r="X216" s="32">
-        <v>7008</v>
+        <v>6917</v>
       </c>
       <c r="Y216" s="32">
-        <v>844</v>
+        <v>671</v>
       </c>
       <c r="Z216" s="32">
         <v>6966</v>
@@ -31765,19 +31813,19 @@
         <v>5240</v>
       </c>
       <c r="AI216" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ216" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK216" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL216" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM216" s="32">
-        <v>7009</v>
+        <v>6836</v>
       </c>
       <c r="AN216" s="32">
         <v>6578</v>
@@ -31791,16 +31839,16 @@
     </row>
     <row r="217" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A217" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C217" s="27" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D217" s="27" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E217" s="27" t="s">
         <v>232</v>
@@ -31812,38 +31860,38 @@
         <v>234</v>
       </c>
       <c r="H217" s="27" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I217" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J217" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="K217" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="L217" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="K217" s="27" t="s">
+      <c r="M217" s="27" t="s">
         <v>580</v>
-      </c>
-      <c r="L217" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="M217" s="27" t="s">
-        <v>582</v>
       </c>
       <c r="N217" s="27"/>
       <c r="O217" s="27"/>
       <c r="P217" s="27"/>
       <c r="Q217" s="27"/>
       <c r="R217" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="S217" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="T217" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="S217" s="27" t="s">
+      <c r="U217" s="27" t="s">
         <v>584</v>
-      </c>
-      <c r="T217" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="U217" s="27" t="s">
-        <v>586</v>
       </c>
       <c r="V217" s="32">
         <v>5005</v>
@@ -31852,10 +31900,10 @@
         <v>10739</v>
       </c>
       <c r="X217" s="32">
-        <v>6859</v>
+        <v>7008</v>
       </c>
       <c r="Y217" s="32">
-        <v>727</v>
+        <v>844</v>
       </c>
       <c r="Z217" s="32">
         <v>4706</v>
@@ -31867,7 +31915,7 @@
         <v>6908</v>
       </c>
       <c r="AC217" s="32">
-        <v>7012</v>
+        <v>6716</v>
       </c>
       <c r="AD217" s="32">
         <v>6623</v>
@@ -31885,22 +31933,22 @@
         <v>5030</v>
       </c>
       <c r="AI217" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ217" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK217" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL217" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM217" s="32">
-        <v>3353</v>
+        <v>7009</v>
       </c>
       <c r="AN217" s="32">
-        <v>6745</v>
+        <v>6717</v>
       </c>
       <c r="AO217" s="32">
         <v>4691</v>
@@ -31911,54 +31959,56 @@
     </row>
     <row r="218" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A218" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C218" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D218" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D218" s="27" t="s">
-        <v>248</v>
-      </c>
       <c r="E218" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F218" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="F218" s="27" t="s">
+      <c r="G218" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G218" s="27" t="s">
-        <v>243</v>
-      </c>
       <c r="H218" s="27" t="s">
-        <v>244</v>
+        <v>637</v>
       </c>
       <c r="I218" s="27" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J218" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="K218" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="L218" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="K218" s="27" t="s">
+      <c r="M218" s="27" t="s">
         <v>589</v>
-      </c>
-      <c r="L218" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="M218" s="27" t="s">
-        <v>591</v>
       </c>
       <c r="N218" s="27"/>
       <c r="O218" s="27"/>
       <c r="P218" s="27"/>
       <c r="Q218" s="27"/>
       <c r="R218" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="S218" s="27"/>
+        <v>581</v>
+      </c>
+      <c r="S218" s="27" t="s">
+        <v>582</v>
+      </c>
       <c r="T218" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="U218" s="27"/>
       <c r="V218" s="32">
@@ -31968,10 +32018,10 @@
         <v>6766</v>
       </c>
       <c r="X218" s="32">
-        <v>6935</v>
+        <v>6859</v>
       </c>
       <c r="Y218" s="32">
-        <v>898</v>
+        <v>727</v>
       </c>
       <c r="Z218" s="32">
         <v>4285</v>
@@ -31983,7 +32033,7 @@
         <v>4141</v>
       </c>
       <c r="AC218" s="32">
-        <v>6716</v>
+        <v>4721</v>
       </c>
       <c r="AD218" s="32">
         <v>4525</v>
@@ -32001,66 +32051,66 @@
         <v>5031</v>
       </c>
       <c r="AI218" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ218" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK218" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL218" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM218" s="32">
-        <v>4722</v>
-      </c>
-      <c r="AN218" s="32" t="s">
-        <v>678</v>
+        <v>3353</v>
+      </c>
+      <c r="AN218" s="32">
+        <v>6745</v>
       </c>
       <c r="AO218" s="32">
         <v>6795</v>
       </c>
       <c r="AP218" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="219" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A219" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B219" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C219" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D219" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="C219" s="27" t="s">
+      <c r="E219" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="F219" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G219" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H219" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I219" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="J219" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="D219" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="E219" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F219" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="G219" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="H219" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="I219" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="J219" s="27" t="s">
-        <v>597</v>
-      </c>
       <c r="K219" s="27" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L219" s="27" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M219" s="27"/>
       <c r="N219" s="27"/>
@@ -32068,11 +32118,11 @@
       <c r="P219" s="27"/>
       <c r="Q219" s="27"/>
       <c r="R219" s="27" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="S219" s="29"/>
       <c r="T219" s="29" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="U219" s="29"/>
       <c r="V219" s="32">
@@ -32082,13 +32132,13 @@
         <v>5636</v>
       </c>
       <c r="X219" s="32">
-        <v>99555</v>
+        <v>6935</v>
       </c>
       <c r="Y219" s="32">
-        <v>5938</v>
-      </c>
-      <c r="Z219" s="32">
-        <v>7038</v>
+        <v>898</v>
+      </c>
+      <c r="Z219" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AA219" s="32">
         <v>5805</v>
@@ -32096,8 +32146,8 @@
       <c r="AB219" s="32">
         <v>814</v>
       </c>
-      <c r="AC219" s="32">
-        <v>4721</v>
+      <c r="AC219" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AD219" s="32">
         <v>6209</v>
@@ -32112,63 +32162,63 @@
         <v>3909</v>
       </c>
       <c r="AH219" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI219" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ219" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK219" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL219" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM219" s="32">
-        <v>3975</v>
+        <v>4722</v>
       </c>
       <c r="AN219" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO219" s="32">
         <v>6658</v>
       </c>
       <c r="AP219" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A220" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C220" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C220" s="27" t="s">
+      <c r="D220" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D220" s="27" t="s">
-        <v>606</v>
-      </c>
       <c r="E220" s="27" t="s">
-        <v>607</v>
+        <v>254</v>
       </c>
       <c r="F220" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G220" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="H220" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="I220" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="G220" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="H220" s="27" t="s">
-        <v>596</v>
-      </c>
-      <c r="I220" s="27" t="s">
-        <v>257</v>
-      </c>
       <c r="J220" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K220" s="27"/>
       <c r="L220" s="27"/>
@@ -32178,11 +32228,11 @@
       <c r="P220" s="27"/>
       <c r="Q220" s="27"/>
       <c r="R220" s="27" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="S220" s="29"/>
       <c r="T220" s="29" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="U220" s="29"/>
       <c r="V220" s="32">
@@ -32195,16 +32245,16 @@
         <v>6999</v>
       </c>
       <c r="Y220" s="32">
-        <v>905</v>
+        <v>5938</v>
       </c>
       <c r="Z220" s="32">
-        <v>11548</v>
+        <v>7038</v>
       </c>
       <c r="AA220" s="32">
         <v>5874</v>
       </c>
-      <c r="AB220" s="32">
-        <v>4933</v>
+      <c r="AB220" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AC220" s="32">
         <v>6978</v>
@@ -32216,66 +32266,66 @@
         <v>4148</v>
       </c>
       <c r="AF220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM220" s="32">
-        <v>933</v>
+        <v>3975</v>
       </c>
       <c r="AN220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO220" s="32">
         <v>5879</v>
       </c>
       <c r="AP220" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A221" s="27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B221" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C221" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="C221" s="27" t="s">
+      <c r="D221" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="E221" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="F221" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D221" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="E221" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F221" s="27" t="s">
+      <c r="G221" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="H221" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="G221" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="H221" s="27" t="s">
-        <v>262</v>
-      </c>
       <c r="I221" s="27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J221" s="27"/>
       <c r="K221" s="27"/>
@@ -32286,11 +32336,11 @@
       <c r="P221" s="27"/>
       <c r="Q221" s="27"/>
       <c r="R221" s="27" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="S221" s="29"/>
       <c r="T221" s="29" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="U221" s="29"/>
       <c r="V221" s="32">
@@ -32303,87 +32353,87 @@
         <v>6547</v>
       </c>
       <c r="Y221" s="32">
-        <v>4286</v>
+        <v>905</v>
       </c>
       <c r="Z221" s="32">
-        <v>6914</v>
+        <v>11548</v>
       </c>
       <c r="AA221" s="32">
         <v>6409</v>
       </c>
       <c r="AB221" s="32">
-        <v>3375</v>
+        <v>4933</v>
       </c>
       <c r="AC221" s="32">
         <v>6525</v>
       </c>
       <c r="AD221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM221" s="32">
-        <v>6893</v>
+        <v>933</v>
       </c>
       <c r="AN221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO221" s="32">
         <v>5763</v>
       </c>
       <c r="AP221" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A222" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B222" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C222" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="C222" s="27" t="s">
+      <c r="D222" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D222" s="27" t="s">
-        <v>271</v>
-      </c>
       <c r="E222" s="27" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G222" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="H222" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="H222" s="27" t="s">
-        <v>268</v>
-      </c>
       <c r="I222" s="27" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J222" s="27"/>
       <c r="K222" s="27"/>
@@ -32393,10 +32443,12 @@
       <c r="O222" s="27"/>
       <c r="P222" s="27"/>
       <c r="Q222" s="27"/>
-      <c r="R222" s="27"/>
+      <c r="R222" s="27" t="s">
+        <v>607</v>
+      </c>
       <c r="S222" s="29"/>
       <c r="T222" s="29" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="U222" s="29"/>
       <c r="V222" s="32">
@@ -32409,16 +32461,16 @@
         <v>5637</v>
       </c>
       <c r="Y222" s="32">
-        <v>5015</v>
+        <v>4286</v>
       </c>
       <c r="Z222" s="32">
-        <v>4932</v>
+        <v>6914</v>
       </c>
       <c r="AA222" s="32">
         <v>4714</v>
       </c>
       <c r="AB222" s="32">
-        <v>5318</v>
+        <v>3375</v>
       </c>
       <c r="AC222" s="32">
         <v>6624</v>
@@ -32427,69 +32479,69 @@
         <v>5028</v>
       </c>
       <c r="AE222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL222" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="AM222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
+      </c>
+      <c r="AM222" s="32">
+        <v>6893</v>
       </c>
       <c r="AN222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO222" s="32">
         <v>4862</v>
       </c>
       <c r="AP222" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A223" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C223" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D223" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="D223" s="27" t="s">
-        <v>279</v>
-      </c>
       <c r="E223" s="27" t="s">
-        <v>618</v>
+        <v>271</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I223" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J223" s="27"/>
       <c r="K223" s="27"/>
@@ -32502,7 +32554,7 @@
       <c r="R223" s="27"/>
       <c r="S223" s="29"/>
       <c r="T223" s="29" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="U223" s="29"/>
       <c r="V223" s="32">
@@ -32515,87 +32567,87 @@
         <v>6573</v>
       </c>
       <c r="Y223" s="32">
-        <v>3377</v>
+        <v>5015</v>
       </c>
       <c r="Z223" s="32">
-        <v>4707</v>
+        <v>4932</v>
       </c>
       <c r="AA223" s="32">
         <v>6773</v>
       </c>
       <c r="AB223" s="32">
-        <v>5004</v>
+        <v>5318</v>
       </c>
       <c r="AC223" s="32">
-        <v>6836</v>
+        <v>7071</v>
       </c>
       <c r="AD223" s="32">
         <v>6551</v>
       </c>
       <c r="AE223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO223" s="32">
         <v>6785</v>
       </c>
       <c r="AP223" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="224" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A224" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B224" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C224" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="D224" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C224" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>286</v>
-      </c>
       <c r="E224" s="27" t="s">
-        <v>287</v>
+        <v>615</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G224" s="27" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H224" s="27" t="s">
-        <v>281</v>
+        <v>518</v>
       </c>
       <c r="I224" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J224" s="27"/>
       <c r="K224" s="27"/>
@@ -32619,87 +32671,87 @@
         <v>6382</v>
       </c>
       <c r="Y224" s="32">
-        <v>7004</v>
+        <v>3377</v>
       </c>
       <c r="Z224" s="32">
-        <v>5014</v>
+        <v>4707</v>
       </c>
       <c r="AA224" s="32">
         <v>5495</v>
       </c>
       <c r="AB224" s="32">
-        <v>6336</v>
-      </c>
-      <c r="AC224" s="32">
-        <v>7071</v>
+        <v>5004</v>
+      </c>
+      <c r="AC224" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AD224" s="32">
         <v>4713</v>
       </c>
       <c r="AE224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP224" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A225" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C225" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="D225" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="27" t="s">
-        <v>294</v>
-      </c>
       <c r="E225" s="27" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G225" s="27" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H225" s="27" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J225" s="27"/>
       <c r="K225" s="27"/>
@@ -32719,91 +32771,91 @@
       <c r="W225" s="32">
         <v>99552</v>
       </c>
-      <c r="X225" s="32">
-        <v>6924</v>
+      <c r="X225" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="Y225" s="32">
-        <v>3451</v>
+        <v>7004</v>
       </c>
       <c r="Z225" s="32">
-        <v>6953</v>
+        <v>5014</v>
       </c>
       <c r="AA225" s="32">
         <v>6983</v>
       </c>
       <c r="AB225" s="32">
-        <v>3729</v>
-      </c>
-      <c r="AC225" s="32" t="s">
-        <v>678</v>
+        <v>6336</v>
+      </c>
+      <c r="AC225" s="32">
+        <v>5691</v>
       </c>
       <c r="AD225" s="32">
         <v>6719</v>
       </c>
       <c r="AE225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP225" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="226" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A226" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>617</v>
+        <v>284</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E226" s="27" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F226" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="G226" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H226" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="G226" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="H226" s="27" t="s">
-        <v>620</v>
-      </c>
       <c r="I226" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J226" s="27"/>
       <c r="K226" s="27"/>
@@ -32821,93 +32873,93 @@
         <v>143</v>
       </c>
       <c r="W226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="X226" s="32">
-        <v>4688</v>
+        <v>6924</v>
       </c>
       <c r="Y226" s="32">
-        <v>7045</v>
+        <v>3451</v>
       </c>
       <c r="Z226" s="32">
-        <v>6735</v>
+        <v>6953</v>
       </c>
       <c r="AA226" s="32">
         <v>7034</v>
       </c>
       <c r="AB226" s="32">
-        <v>172</v>
+        <v>3729</v>
       </c>
       <c r="AC226" s="32">
-        <v>5691</v>
+        <v>6867</v>
       </c>
       <c r="AD226" s="32">
         <v>7013</v>
       </c>
       <c r="AE226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP226" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A227" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>293</v>
+        <v>614</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E227" s="27" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G227" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="H227" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="H227" s="27" t="s">
-        <v>297</v>
-      </c>
       <c r="I227" s="27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J227" s="27"/>
       <c r="K227" s="27"/>
@@ -32928,90 +32980,90 @@
         <v>6913</v>
       </c>
       <c r="X227" s="32">
-        <v>6544</v>
+        <v>4688</v>
       </c>
       <c r="Y227" s="32">
-        <v>3988</v>
+        <v>7045</v>
       </c>
       <c r="Z227" s="32">
-        <v>994</v>
+        <v>6735</v>
       </c>
       <c r="AA227" s="32">
         <v>99537</v>
       </c>
       <c r="AB227" s="32">
-        <v>6849</v>
+        <v>172</v>
       </c>
       <c r="AC227" s="32">
-        <v>6867</v>
+        <v>7061</v>
       </c>
       <c r="AD227" s="32">
         <v>7036</v>
       </c>
       <c r="AE227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP227" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A228" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D228" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="C228" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D228" s="27" t="s">
-        <v>624</v>
-      </c>
       <c r="E228" s="27" t="s">
-        <v>625</v>
+        <v>309</v>
       </c>
       <c r="F228" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="G228" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H228" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="G228" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="H228" s="27" t="s">
+      <c r="I228" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="I228" s="27" t="s">
-        <v>306</v>
       </c>
       <c r="J228" s="27"/>
       <c r="K228" s="27"/>
@@ -33032,90 +33084,90 @@
         <v>7044</v>
       </c>
       <c r="X228" s="32">
-        <v>7054</v>
+        <v>6544</v>
       </c>
       <c r="Y228" s="32">
-        <v>4085</v>
+        <v>3988</v>
       </c>
       <c r="Z228" s="32">
-        <v>6810</v>
+        <v>994</v>
       </c>
       <c r="AA228" s="32">
         <v>6937</v>
       </c>
       <c r="AB228" s="32">
-        <v>996</v>
+        <v>6849</v>
       </c>
       <c r="AC228" s="32">
-        <v>7061</v>
+        <v>6794</v>
       </c>
       <c r="AD228" s="32">
         <v>6964</v>
       </c>
       <c r="AE228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP228" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A229" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>623</v>
+        <v>299</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>322</v>
+        <v>621</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>323</v>
+        <v>691</v>
       </c>
       <c r="F229" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G229" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="G229" s="27" t="s">
-        <v>629</v>
-      </c>
       <c r="H229" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="I229" s="27" t="s">
         <v>312</v>
-      </c>
-      <c r="I229" s="27" t="s">
-        <v>313</v>
       </c>
       <c r="J229" s="27"/>
       <c r="K229" s="27"/>
@@ -33136,90 +33188,90 @@
         <v>895</v>
       </c>
       <c r="X229" s="32">
-        <v>609</v>
+        <v>7054</v>
       </c>
       <c r="Y229" s="32">
-        <v>6906</v>
-      </c>
-      <c r="Z229" s="32">
-        <v>7073</v>
+        <v>4085</v>
+      </c>
+      <c r="Z229" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AA229" s="32">
         <v>4863</v>
       </c>
       <c r="AB229" s="32">
-        <v>3930</v>
+        <v>996</v>
       </c>
       <c r="AC229" s="32">
-        <v>6794</v>
+        <v>6977</v>
       </c>
       <c r="AD229" s="32">
         <v>3914</v>
       </c>
       <c r="AE229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP229" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A230" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>315</v>
+        <v>620</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>329</v>
+        <v>622</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>324</v>
+        <v>626</v>
       </c>
       <c r="H230" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="I230" s="27" t="s">
         <v>318</v>
-      </c>
-      <c r="I230" s="27" t="s">
-        <v>319</v>
       </c>
       <c r="J230" s="27"/>
       <c r="K230" s="27"/>
@@ -33240,90 +33292,90 @@
         <v>6372</v>
       </c>
       <c r="X230" s="32">
-        <v>99554</v>
+        <v>609</v>
       </c>
       <c r="Y230" s="32">
-        <v>6948</v>
+        <v>6906</v>
       </c>
       <c r="Z230" s="32">
-        <v>6979</v>
+        <v>6810</v>
       </c>
       <c r="AA230" s="32">
         <v>6624</v>
       </c>
       <c r="AB230" s="32">
-        <v>6915</v>
+        <v>3930</v>
       </c>
       <c r="AC230" s="32">
-        <v>6977</v>
+        <v>1052</v>
       </c>
       <c r="AD230" s="32">
         <v>6947</v>
       </c>
       <c r="AE230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP230" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A231" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B231" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C231" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D231" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="C231" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="D231" s="27" t="s">
-        <v>334</v>
-      </c>
       <c r="E231" s="27" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F231" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="G231" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="H231" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="G231" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="H231" s="27" t="s">
-        <v>627</v>
-      </c>
       <c r="I231" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J231" s="27"/>
       <c r="K231" s="27"/>
@@ -33344,90 +33396,90 @@
         <v>5233</v>
       </c>
       <c r="X231" s="32">
-        <v>6996</v>
+        <v>99554</v>
       </c>
       <c r="Y231" s="32">
-        <v>5232</v>
+        <v>6948</v>
       </c>
       <c r="Z231" s="32">
-        <v>99545</v>
+        <v>7073</v>
       </c>
       <c r="AA231" s="32">
         <v>6888</v>
       </c>
       <c r="AB231" s="32">
-        <v>902</v>
+        <v>6915</v>
       </c>
       <c r="AC231" s="32">
-        <v>1052</v>
+        <v>99548</v>
       </c>
       <c r="AD231" s="32">
         <v>6550</v>
       </c>
       <c r="AE231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP231" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A232" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B232" s="27" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C232" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D232" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D232" s="27" t="s">
-        <v>341</v>
-      </c>
       <c r="E232" s="27" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F232" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="G232" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="G232" s="27" t="s">
-        <v>344</v>
-      </c>
       <c r="H232" s="27" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J232" s="27"/>
       <c r="K232" s="27"/>
@@ -33448,90 +33500,90 @@
         <v>6959</v>
       </c>
       <c r="X232" s="32">
-        <v>6721</v>
+        <v>6996</v>
       </c>
       <c r="Y232" s="32">
-        <v>773</v>
+        <v>5232</v>
       </c>
       <c r="Z232" s="32">
-        <v>4711</v>
+        <v>6979</v>
       </c>
       <c r="AA232" s="32">
         <v>6950</v>
       </c>
       <c r="AB232" s="32">
-        <v>1036</v>
+        <v>902</v>
       </c>
       <c r="AC232" s="32">
-        <v>99548</v>
+        <v>6832</v>
       </c>
       <c r="AD232" s="32">
         <v>6591</v>
       </c>
       <c r="AE232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP232" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A233" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B233" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="D233" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C233" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="D233" s="27" t="s">
-        <v>348</v>
-      </c>
       <c r="E233" s="27" t="s">
-        <v>635</v>
+        <v>334</v>
       </c>
       <c r="F233" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G233" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="G233" s="27" t="s">
-        <v>349</v>
-      </c>
       <c r="H233" s="27" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="I233" s="27" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J233" s="27"/>
       <c r="K233" s="27"/>
@@ -33551,91 +33603,91 @@
       <c r="W233" s="32">
         <v>6916</v>
       </c>
-      <c r="X233" s="32">
-        <v>3933</v>
+      <c r="X233" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="Y233" s="32">
-        <v>6870</v>
+        <v>773</v>
       </c>
       <c r="Z233" s="32">
-        <v>4410</v>
+        <v>99545</v>
       </c>
       <c r="AA233" s="32">
         <v>4408</v>
       </c>
       <c r="AB233" s="32">
-        <v>6989</v>
+        <v>1036</v>
       </c>
       <c r="AC233" s="32">
-        <v>6832</v>
+        <v>6712</v>
       </c>
       <c r="AD233" s="32">
         <v>11545</v>
       </c>
       <c r="AE233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP233" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A234" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>634</v>
+        <v>332</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>638</v>
+        <v>341</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H234" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I234" s="27" t="s">
         <v>345</v>
-      </c>
-      <c r="I234" s="27" t="s">
-        <v>346</v>
       </c>
       <c r="J234" s="27"/>
       <c r="K234" s="27"/>
@@ -33656,90 +33708,90 @@
         <v>10743</v>
       </c>
       <c r="X234" s="32">
-        <v>4292</v>
+        <v>6721</v>
       </c>
       <c r="Y234" s="32">
-        <v>6828</v>
+        <v>6870</v>
       </c>
       <c r="Z234" s="32">
-        <v>99547</v>
+        <v>4711</v>
       </c>
       <c r="AA234" s="32">
         <v>6961</v>
       </c>
       <c r="AB234" s="32">
-        <v>6772</v>
+        <v>6989</v>
       </c>
       <c r="AC234" s="32">
-        <v>6712</v>
+        <v>6901</v>
       </c>
       <c r="AD234" s="32">
         <v>890</v>
       </c>
       <c r="AE234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP234" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A235" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B235" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C235" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="D235" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="D235" s="27" t="s">
-        <v>360</v>
-      </c>
       <c r="E235" s="27" t="s">
-        <v>361</v>
+        <v>632</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G235" s="27" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="H235" s="27" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I235" s="27" t="s">
-        <v>364</v>
+        <v>682</v>
       </c>
       <c r="J235" s="27"/>
       <c r="K235" s="27"/>
@@ -33760,90 +33812,90 @@
         <v>6205</v>
       </c>
       <c r="X235" s="32">
-        <v>5316</v>
+        <v>3933</v>
       </c>
       <c r="Y235" s="32">
-        <v>4855</v>
+        <v>6828</v>
       </c>
       <c r="Z235" s="32">
-        <v>4712</v>
+        <v>4410</v>
       </c>
       <c r="AA235" s="32">
         <v>6967</v>
       </c>
       <c r="AB235" s="32">
-        <v>6869</v>
+        <v>6772</v>
       </c>
       <c r="AC235" s="32">
-        <v>6901</v>
-      </c>
-      <c r="AD235" s="32">
-        <v>5983</v>
+        <v>6827</v>
+      </c>
+      <c r="AD235" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AE235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP235" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A236" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B236" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C236" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="D236" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="D236" s="27" t="s">
-        <v>368</v>
-      </c>
       <c r="E236" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="F236" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G236" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="H236" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="F236" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G236" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="H236" s="27" t="s">
-        <v>356</v>
-      </c>
       <c r="I236" s="27" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J236" s="27"/>
       <c r="K236" s="27"/>
@@ -33864,90 +33916,90 @@
         <v>6866</v>
       </c>
       <c r="X236" s="32">
-        <v>4853</v>
+        <v>4292</v>
       </c>
       <c r="Y236" s="32">
-        <v>631</v>
+        <v>4855</v>
       </c>
       <c r="Z236" s="32">
-        <v>6982</v>
+        <v>99547</v>
       </c>
       <c r="AA236" s="32">
         <v>7069</v>
       </c>
       <c r="AB236" s="32">
-        <v>4031</v>
+        <v>6869</v>
       </c>
       <c r="AC236" s="32">
-        <v>6827</v>
+        <v>99551</v>
       </c>
       <c r="AD236" s="32">
-        <v>6946</v>
+        <v>5983</v>
       </c>
       <c r="AE236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP236" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A237" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B237" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C237" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D237" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="D237" s="27" t="s">
-        <v>373</v>
-      </c>
       <c r="E237" s="27" t="s">
-        <v>644</v>
+        <v>360</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H237" s="27" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I237" s="27" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J237" s="27"/>
       <c r="K237" s="27"/>
@@ -33968,90 +34020,90 @@
         <v>7047</v>
       </c>
       <c r="X237" s="32">
-        <v>99541</v>
+        <v>5316</v>
       </c>
       <c r="Y237" s="32">
-        <v>6918</v>
+        <v>631</v>
       </c>
       <c r="Z237" s="32">
-        <v>6883</v>
+        <v>4712</v>
       </c>
       <c r="AA237" s="32">
         <v>4720</v>
       </c>
       <c r="AB237" s="32">
-        <v>11383</v>
+        <v>4031</v>
       </c>
       <c r="AC237" s="32">
-        <v>99551</v>
+        <v>6786</v>
       </c>
       <c r="AD237" s="32">
-        <v>10928</v>
+        <v>6946</v>
       </c>
       <c r="AE237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP237" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A238" s="27" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B238" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C238" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="D238" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C238" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D238" s="27" t="s">
-        <v>380</v>
-      </c>
       <c r="E238" s="27" t="s">
-        <v>381</v>
+        <v>692</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G238" s="27" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H238" s="27" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="I238" s="27" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J238" s="27"/>
       <c r="K238" s="27"/>
@@ -34072,90 +34124,90 @@
         <v>5020</v>
       </c>
       <c r="X238" s="32">
-        <v>3927</v>
+        <v>4853</v>
       </c>
       <c r="Y238" s="32">
-        <v>3290</v>
-      </c>
-      <c r="Z238" s="32">
-        <v>5510</v>
+        <v>6918</v>
+      </c>
+      <c r="Z238" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AA238" s="32">
         <v>4082</v>
       </c>
       <c r="AB238" s="32">
-        <v>5804</v>
+        <v>11383</v>
       </c>
       <c r="AC238" s="32">
-        <v>6786</v>
+        <v>6743</v>
       </c>
       <c r="AD238" s="32">
-        <v>5690</v>
+        <v>10928</v>
       </c>
       <c r="AE238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP238" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A239" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>643</v>
+        <v>366</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>648</v>
+        <v>368</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G239" s="27" t="s">
-        <v>382</v>
+        <v>646</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I239" s="27" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J239" s="27"/>
       <c r="K239" s="27"/>
@@ -34176,90 +34228,90 @@
         <v>7000</v>
       </c>
       <c r="X239" s="32">
-        <v>702</v>
+        <v>99541</v>
       </c>
       <c r="Y239" s="32">
-        <v>932</v>
+        <v>3290</v>
       </c>
       <c r="Z239" s="32">
-        <v>7056</v>
+        <v>6982</v>
       </c>
       <c r="AA239" s="32">
         <v>6929</v>
       </c>
       <c r="AB239" s="32">
-        <v>6876</v>
+        <v>5804</v>
       </c>
       <c r="AC239" s="32">
-        <v>6743</v>
+        <v>6884</v>
       </c>
       <c r="AD239" s="32">
-        <v>7037</v>
+        <v>5690</v>
       </c>
       <c r="AE239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP239" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A240" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C240" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D240" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="D240" s="27" t="s">
-        <v>394</v>
-      </c>
       <c r="E240" s="27" t="s">
-        <v>395</v>
+        <v>641</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G240" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="H240" s="27" t="s">
+        <v>647</v>
+      </c>
+      <c r="I240" s="27" t="s">
         <v>397</v>
-      </c>
-      <c r="H240" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="I240" s="27" t="s">
-        <v>405</v>
       </c>
       <c r="J240" s="27"/>
       <c r="K240" s="27"/>
@@ -34280,90 +34332,90 @@
         <v>6676</v>
       </c>
       <c r="X240" s="32">
-        <v>6659</v>
+        <v>3927</v>
       </c>
       <c r="Y240" s="32">
-        <v>4903</v>
+        <v>932</v>
       </c>
       <c r="Z240" s="32">
-        <v>6936</v>
+        <v>6883</v>
       </c>
       <c r="AA240" s="32">
         <v>99485</v>
       </c>
       <c r="AB240" s="32">
-        <v>3348</v>
+        <v>6876</v>
       </c>
       <c r="AC240" s="32">
-        <v>6884</v>
+        <v>11559</v>
       </c>
       <c r="AD240" s="32">
-        <v>6863</v>
+        <v>7037</v>
       </c>
       <c r="AE240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP240" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A241" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B241" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C241" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="D241" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D241" s="27" t="s">
-        <v>402</v>
-      </c>
       <c r="E241" s="27" t="s">
-        <v>651</v>
+        <v>380</v>
       </c>
       <c r="F241" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="G241" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="G241" s="27" t="s">
-        <v>652</v>
-      </c>
       <c r="H241" s="27" t="s">
-        <v>650</v>
+        <v>403</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="J241" s="27"/>
       <c r="K241" s="27"/>
@@ -34384,90 +34436,90 @@
         <v>6848</v>
       </c>
       <c r="X241" s="32">
-        <v>7053</v>
+        <v>702</v>
       </c>
       <c r="Y241" s="32">
-        <v>4705</v>
+        <v>4903</v>
       </c>
       <c r="Z241" s="32">
-        <v>6825</v>
+        <v>5510</v>
       </c>
       <c r="AA241" s="32">
         <v>5689</v>
       </c>
       <c r="AB241" s="32">
-        <v>11546</v>
+        <v>3348</v>
       </c>
       <c r="AC241" s="32">
-        <v>11559</v>
+        <v>7055</v>
       </c>
       <c r="AD241" s="32">
-        <v>4864</v>
+        <v>6863</v>
       </c>
       <c r="AE241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP241" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A242" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B242" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C242" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D242" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D242" s="27" t="s">
-        <v>409</v>
-      </c>
       <c r="E242" s="27" t="s">
-        <v>410</v>
+        <v>645</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G242" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="H242" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="H242" s="27" t="s">
-        <v>404</v>
-      </c>
       <c r="I242" s="27" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="J242" s="27"/>
       <c r="K242" s="27"/>
@@ -34488,88 +34540,90 @@
         <v>5717</v>
       </c>
       <c r="X242" s="32">
-        <v>6943</v>
+        <v>6659</v>
       </c>
       <c r="Y242" s="32">
-        <v>3976</v>
+        <v>4705</v>
       </c>
       <c r="Z242" s="32">
-        <v>4283</v>
+        <v>7056</v>
       </c>
       <c r="AA242" s="32">
         <v>6998</v>
       </c>
       <c r="AB242" s="32">
-        <v>6835</v>
+        <v>11546</v>
       </c>
       <c r="AC242" s="32">
-        <v>7055</v>
+        <v>6862</v>
       </c>
       <c r="AD242" s="32">
-        <v>6962</v>
+        <v>4864</v>
       </c>
       <c r="AE242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP242" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A243" s="27" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B243" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C243" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="D243" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="D243" s="27" t="s">
-        <v>417</v>
-      </c>
       <c r="E243" s="27" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="F243" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="G243" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="G243" s="27"/>
       <c r="H243" s="27" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="I243" s="27" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J243" s="27"/>
       <c r="K243" s="27"/>
@@ -34590,88 +34644,88 @@
         <v>6994</v>
       </c>
       <c r="X243" s="32">
-        <v>6960</v>
+        <v>7053</v>
       </c>
       <c r="Y243" s="32">
-        <v>4700</v>
+        <v>3976</v>
       </c>
       <c r="Z243" s="32">
-        <v>5000</v>
+        <v>6936</v>
       </c>
       <c r="AA243" s="32">
         <v>4275</v>
       </c>
-      <c r="AB243" s="32" t="s">
-        <v>678</v>
+      <c r="AB243" s="32">
+        <v>6835</v>
       </c>
       <c r="AC243" s="32">
-        <v>6862</v>
+        <v>6656</v>
       </c>
       <c r="AD243" s="32">
-        <v>5752</v>
+        <v>6962</v>
       </c>
       <c r="AE243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP243" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="244" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A244" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B244" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="C244" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="D244" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="C244" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="D244" s="27" t="s">
-        <v>425</v>
-      </c>
       <c r="E244" s="27" t="s">
-        <v>426</v>
+        <v>648</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>419</v>
+        <v>678</v>
       </c>
       <c r="G244" s="27"/>
       <c r="H244" s="27" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="I244" s="27" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J244" s="27"/>
       <c r="K244" s="27"/>
@@ -34692,88 +34746,88 @@
         <v>6603</v>
       </c>
       <c r="X244" s="32">
-        <v>6942</v>
+        <v>6943</v>
       </c>
       <c r="Y244" s="32">
-        <v>99474</v>
+        <v>4700</v>
       </c>
       <c r="Z244" s="32">
-        <v>6868</v>
-      </c>
-      <c r="AA244" s="32">
-        <v>6590</v>
+        <v>6825</v>
+      </c>
+      <c r="AA244" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AB244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC244" s="32">
-        <v>6656</v>
+        <v>6861</v>
       </c>
       <c r="AD244" s="32">
-        <v>6752</v>
+        <v>5752</v>
       </c>
       <c r="AE244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP244" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A245" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B245" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D245" s="27" t="s">
-        <v>656</v>
+        <v>424</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>657</v>
+        <v>409</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>654</v>
+        <v>418</v>
       </c>
       <c r="G245" s="27"/>
       <c r="H245" s="27" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="I245" s="27" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="J245" s="27"/>
       <c r="K245" s="27"/>
@@ -34794,88 +34848,88 @@
         <v>99553</v>
       </c>
       <c r="X245" s="32">
-        <v>6944</v>
+        <v>6960</v>
       </c>
       <c r="Y245" s="32">
-        <v>11547</v>
+        <v>99474</v>
       </c>
       <c r="Z245" s="32">
-        <v>6987</v>
+        <v>4283</v>
       </c>
       <c r="AA245" s="32">
-        <v>11560</v>
+        <v>6590</v>
       </c>
       <c r="AB245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC245" s="32">
-        <v>6861</v>
+        <v>4401</v>
       </c>
       <c r="AD245" s="32">
-        <v>946</v>
+        <v>6752</v>
       </c>
       <c r="AE245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP245" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A246" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D246" s="27" t="s">
-        <v>436</v>
+        <v>653</v>
       </c>
       <c r="E246" s="27" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>431</v>
+        <v>651</v>
       </c>
       <c r="G246" s="27"/>
       <c r="H246" s="27" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I246" s="27" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J246" s="27"/>
       <c r="K246" s="27"/>
@@ -34896,88 +34950,88 @@
         <v>3982</v>
       </c>
       <c r="X246" s="32">
-        <v>99542</v>
+        <v>6942</v>
       </c>
       <c r="Y246" s="32">
-        <v>6704</v>
+        <v>11547</v>
       </c>
       <c r="Z246" s="32">
-        <v>4708</v>
+        <v>5000</v>
       </c>
       <c r="AA246" s="32">
-        <v>5985</v>
+        <v>11560</v>
       </c>
       <c r="AB246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC246" s="32">
-        <v>4401</v>
+        <v>99549</v>
       </c>
       <c r="AD246" s="32">
-        <v>6737</v>
+        <v>946</v>
       </c>
       <c r="AE246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP246" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A247" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B247" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E247" s="27" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G247" s="27"/>
       <c r="H247" s="27" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="I247" s="27" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="J247" s="27"/>
       <c r="K247" s="27"/>
@@ -34998,88 +35052,88 @@
         <v>910</v>
       </c>
       <c r="X247" s="32">
-        <v>6991</v>
+        <v>6944</v>
       </c>
       <c r="Y247" s="32">
-        <v>3344</v>
+        <v>6704</v>
       </c>
       <c r="Z247" s="32">
-        <v>6955</v>
+        <v>6868</v>
       </c>
       <c r="AA247" s="32">
-        <v>6833</v>
+        <v>5985</v>
       </c>
       <c r="AB247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC247" s="32">
-        <v>99549</v>
+        <v>6910</v>
       </c>
       <c r="AD247" s="32">
-        <v>6932</v>
+        <v>6737</v>
       </c>
       <c r="AE247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP247" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A248" s="27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B248" s="27" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>660</v>
+        <v>434</v>
       </c>
       <c r="D248" s="27" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>451</v>
+        <v>654</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G248" s="27"/>
       <c r="H248" s="27" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="I248" s="27" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="J248" s="27"/>
       <c r="K248" s="27"/>
@@ -35096,92 +35150,92 @@
       <c r="V248" s="32">
         <v>3964</v>
       </c>
-      <c r="W248" s="32">
-        <v>4281</v>
+      <c r="W248" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="X248" s="32">
-        <v>11544</v>
+        <v>99542</v>
       </c>
       <c r="Y248" s="32">
-        <v>973</v>
+        <v>3344</v>
       </c>
       <c r="Z248" s="32">
-        <v>5019</v>
+        <v>6987</v>
       </c>
       <c r="AA248" s="32">
-        <v>6990</v>
+        <v>6833</v>
       </c>
       <c r="AB248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC248" s="32">
-        <v>7005</v>
+        <v>99550</v>
       </c>
       <c r="AD248" s="32">
-        <v>5634</v>
+        <v>6932</v>
       </c>
       <c r="AE248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP248" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A249" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B249" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="C249" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="C249" s="27" t="s">
-        <v>456</v>
-      </c>
       <c r="D249" s="27" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E249" s="27" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G249" s="27"/>
       <c r="H249" s="27" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="I249" s="27" t="s">
-        <v>662</v>
+        <v>466</v>
       </c>
       <c r="J249" s="27"/>
       <c r="K249" s="27"/>
@@ -35198,91 +35252,93 @@
       <c r="V249" s="32">
         <v>6980</v>
       </c>
-      <c r="W249" s="32">
-        <v>6202</v>
+      <c r="W249" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="X249" s="32">
-        <v>6756</v>
+        <v>6991</v>
       </c>
       <c r="Y249" s="32">
-        <v>6992</v>
+        <v>973</v>
       </c>
       <c r="Z249" s="32">
-        <v>6938</v>
+        <v>4708</v>
       </c>
       <c r="AA249" s="32">
-        <v>6371</v>
+        <v>6990</v>
       </c>
       <c r="AB249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC249" s="32">
-        <v>6910</v>
+        <v>6650</v>
       </c>
       <c r="AD249" s="32">
-        <v>6717</v>
+        <v>5634</v>
       </c>
       <c r="AE249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP249" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="250" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A250" s="27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B250" s="27" t="s">
-        <v>449</v>
+        <v>663</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>463</v>
+        <v>657</v>
       </c>
       <c r="D250" s="27" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E250" s="27" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G250" s="27"/>
       <c r="H250" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="I250" s="27"/>
+        <v>471</v>
+      </c>
+      <c r="I250" s="27" t="s">
+        <v>680</v>
+      </c>
       <c r="J250" s="27"/>
       <c r="K250" s="27"/>
       <c r="L250" s="27"/>
@@ -35299,88 +35355,88 @@
         <v>4291</v>
       </c>
       <c r="W250" s="32">
-        <v>7067</v>
+        <v>4281</v>
       </c>
       <c r="X250" s="32">
-        <v>6582</v>
+        <v>11544</v>
       </c>
       <c r="Y250" s="32">
-        <v>5508</v>
+        <v>6992</v>
       </c>
       <c r="Z250" s="32">
-        <v>4409</v>
+        <v>6955</v>
       </c>
       <c r="AA250" s="32">
-        <v>931</v>
+        <v>6371</v>
       </c>
       <c r="AB250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC250" s="32">
-        <v>99550</v>
+        <v>99470</v>
       </c>
       <c r="AD250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP250" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="251" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A251" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B251" s="27" t="s">
-        <v>663</v>
+        <v>440</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D251" s="27" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E251" s="27" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G251" s="27"/>
       <c r="H251" s="27" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="I251" s="27"/>
       <c r="J251" s="27"/>
@@ -35399,88 +35455,88 @@
         <v>5398</v>
       </c>
       <c r="W251" s="32">
-        <v>978</v>
+        <v>6202</v>
       </c>
       <c r="X251" s="32">
-        <v>6171</v>
+        <v>6756</v>
       </c>
       <c r="Y251" s="32">
-        <v>4460</v>
+        <v>5508</v>
       </c>
       <c r="Z251" s="32">
-        <v>6928</v>
+        <v>5019</v>
       </c>
       <c r="AA251" s="32">
-        <v>4866</v>
+        <v>931</v>
       </c>
       <c r="AB251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC251" s="32">
-        <v>6650</v>
+        <v>6384</v>
       </c>
       <c r="AD251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP251" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A252" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B252" s="27" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C252" s="27" t="s">
-        <v>665</v>
+        <v>461</v>
       </c>
       <c r="D252" s="27" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="F252" s="27" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G252" s="27"/>
       <c r="H252" s="27" t="s">
-        <v>473</v>
+        <v>664</v>
       </c>
       <c r="I252" s="27"/>
       <c r="J252" s="27"/>
@@ -35499,88 +35555,88 @@
         <v>2824</v>
       </c>
       <c r="W252" s="32">
-        <v>6541</v>
+        <v>7067</v>
       </c>
       <c r="X252" s="32">
-        <v>6864</v>
+        <v>6582</v>
       </c>
       <c r="Y252" s="32">
-        <v>4867</v>
+        <v>4460</v>
       </c>
       <c r="Z252" s="32">
-        <v>4530</v>
+        <v>6938</v>
       </c>
       <c r="AA252" s="32">
-        <v>6214</v>
+        <v>4866</v>
       </c>
       <c r="AB252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC252" s="32">
-        <v>99470</v>
+        <v>5981</v>
       </c>
       <c r="AD252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP252" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A253" s="27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B253" s="27" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C253" s="27" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D253" s="27" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="F253" s="27" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G253" s="27"/>
       <c r="H253" s="27" t="s">
-        <v>478</v>
+        <v>694</v>
       </c>
       <c r="I253" s="27"/>
       <c r="J253" s="27"/>
@@ -35599,89 +35655,87 @@
         <v>5349</v>
       </c>
       <c r="W253" s="32">
-        <v>6803</v>
+        <v>978</v>
       </c>
       <c r="X253" s="32">
-        <v>6788</v>
+        <v>6171</v>
       </c>
       <c r="Y253" s="32">
-        <v>6988</v>
+        <v>4867</v>
       </c>
       <c r="Z253" s="32">
-        <v>99544</v>
+        <v>4409</v>
       </c>
       <c r="AA253" s="32">
-        <v>6954</v>
+        <v>6214</v>
       </c>
       <c r="AB253" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="AC253" s="32">
-        <v>6384</v>
+        <v>675</v>
+      </c>
+      <c r="AC253" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AD253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP253" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A254" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B254" s="27" t="s">
-        <v>668</v>
+        <v>460</v>
       </c>
       <c r="C254" s="27" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D254" s="27" t="s">
-        <v>671</v>
+        <v>484</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G254" s="27"/>
-      <c r="H254" s="27" t="s">
-        <v>667</v>
-      </c>
+      <c r="H254" s="27"/>
       <c r="I254" s="27"/>
       <c r="J254" s="27"/>
       <c r="K254" s="27"/>
@@ -35699,84 +35753,84 @@
         <v>4274</v>
       </c>
       <c r="W254" s="32">
-        <v>6581</v>
+        <v>6541</v>
       </c>
       <c r="X254" s="32">
-        <v>4697</v>
+        <v>6864</v>
       </c>
       <c r="Y254" s="32">
-        <v>5876</v>
+        <v>6988</v>
       </c>
       <c r="Z254" s="32">
-        <v>6811</v>
+        <v>6928</v>
       </c>
       <c r="AA254" s="32">
-        <v>5462</v>
+        <v>6954</v>
       </c>
       <c r="AB254" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="AC254" s="32">
-        <v>5981</v>
+        <v>675</v>
+      </c>
+      <c r="AC254" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="AD254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP254" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A255" s="27" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B255" s="27" t="s">
-        <v>485</v>
+        <v>661</v>
       </c>
       <c r="C255" s="27" t="s">
-        <v>670</v>
+        <v>478</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>498</v>
+        <v>668</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>595</v>
+        <v>480</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G255" s="27"/>
       <c r="H255" s="27"/>
@@ -35797,84 +35851,84 @@
         <v>4850</v>
       </c>
       <c r="W255" s="32">
-        <v>6976</v>
+        <v>6803</v>
       </c>
       <c r="X255" s="32">
-        <v>6181</v>
+        <v>6788</v>
       </c>
       <c r="Y255" s="32">
-        <v>5679</v>
+        <v>5876</v>
       </c>
       <c r="Z255" s="32">
-        <v>5509</v>
+        <v>4530</v>
       </c>
       <c r="AA255" s="32">
-        <v>7035</v>
+        <v>5462</v>
       </c>
       <c r="AB255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP255" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A256" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>405</v>
+        <v>665</v>
       </c>
       <c r="C256" s="27" t="s">
-        <v>493</v>
+        <v>666</v>
       </c>
       <c r="D256" s="27" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>661</v>
+        <v>485</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G256" s="27"/>
       <c r="H256" s="27"/>
@@ -35895,84 +35949,84 @@
         <v>6844</v>
       </c>
       <c r="W256" s="32">
-        <v>6863</v>
+        <v>6581</v>
       </c>
       <c r="X256" s="32">
-        <v>6729</v>
+        <v>4697</v>
       </c>
       <c r="Y256" s="32">
-        <v>6957</v>
+        <v>5679</v>
       </c>
       <c r="Z256" s="32">
-        <v>4888</v>
+        <v>99544</v>
       </c>
       <c r="AA256" s="32">
-        <v>5692</v>
+        <v>7035</v>
       </c>
       <c r="AB256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP256" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A257" s="27" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B257" s="27" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="C257" s="27" t="s">
-        <v>497</v>
+        <v>667</v>
       </c>
       <c r="D257" s="27" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E257" s="27" t="s">
-        <v>673</v>
+        <v>488</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G257" s="27"/>
       <c r="H257" s="27"/>
@@ -35992,83 +36046,85 @@
       <c r="V257" s="32">
         <v>5350</v>
       </c>
-      <c r="W257" s="32" t="s">
-        <v>678</v>
+      <c r="W257" s="32">
+        <v>6976</v>
       </c>
       <c r="X257" s="32">
-        <v>998</v>
+        <v>6181</v>
       </c>
       <c r="Y257" s="32">
-        <v>3992</v>
+        <v>6957</v>
       </c>
       <c r="Z257" s="32">
-        <v>6958</v>
+        <v>6811</v>
       </c>
       <c r="AA257" s="32">
-        <v>6993</v>
+        <v>5692</v>
       </c>
       <c r="AB257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP257" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A258" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B258" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C258" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="D258" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="E258" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="F258" s="27" t="s">
         <v>492</v>
-      </c>
-      <c r="C258" s="27" t="s">
-        <v>502</v>
-      </c>
-      <c r="D258" s="27"/>
-      <c r="E258" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="F258" s="27" t="s">
-        <v>500</v>
       </c>
       <c r="G258" s="27"/>
       <c r="H258" s="27"/>
@@ -36089,79 +36145,83 @@
         <v>5635</v>
       </c>
       <c r="W258" s="32">
-        <v>4854</v>
+        <v>6863</v>
       </c>
       <c r="X258" s="32">
-        <v>6887</v>
-      </c>
-      <c r="Y258" s="32" t="s">
-        <v>678</v>
+        <v>6729</v>
+      </c>
+      <c r="Y258" s="32">
+        <v>3992</v>
       </c>
       <c r="Z258" s="32">
-        <v>99543</v>
+        <v>5509</v>
       </c>
       <c r="AA258" s="32">
-        <v>6734</v>
+        <v>6993</v>
       </c>
       <c r="AB258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP258" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A259" s="27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B259" s="27" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="C259" s="27" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D259" s="27"/>
-      <c r="E259" s="27"/>
-      <c r="F259" s="27"/>
+      <c r="E259" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="F259" s="27" t="s">
+        <v>498</v>
+      </c>
       <c r="G259" s="27"/>
       <c r="H259" s="27"/>
       <c r="I259" s="27"/>
@@ -36180,79 +36240,81 @@
       <c r="V259" s="32">
         <v>5347</v>
       </c>
-      <c r="W259" s="32">
-        <v>4284</v>
+      <c r="W259" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="X259" s="32">
-        <v>3920</v>
+        <v>998</v>
       </c>
       <c r="Y259" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z259" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
+      </c>
+      <c r="Z259" s="32">
+        <v>4888</v>
+      </c>
+      <c r="AA259" s="32">
+        <v>6734</v>
       </c>
       <c r="AB259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP259" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A260" s="27" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C260" s="27" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D260" s="27"/>
-      <c r="E260" s="27"/>
+      <c r="E260" s="27" t="s">
+        <v>670</v>
+      </c>
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
       <c r="H260" s="27"/>
@@ -36273,78 +36335,80 @@
         <v>3919</v>
       </c>
       <c r="W260" s="32">
-        <v>6925</v>
+        <v>4854</v>
       </c>
       <c r="X260" s="32">
-        <v>5026</v>
+        <v>6887</v>
       </c>
       <c r="Y260" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
+      </c>
+      <c r="Z260" s="32">
+        <v>6958</v>
       </c>
       <c r="AA260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP260" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A261" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B261" s="27" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C261" s="27" t="s">
-        <v>676</v>
+        <v>504</v>
       </c>
       <c r="D261" s="27"/>
-      <c r="E261" s="27"/>
+      <c r="E261" s="27" t="s">
+        <v>497</v>
+      </c>
       <c r="F261" s="27"/>
       <c r="G261" s="27"/>
       <c r="H261" s="27"/>
@@ -36365,75 +36429,75 @@
         <v>118</v>
       </c>
       <c r="W261" s="32">
-        <v>7014</v>
+        <v>4284</v>
       </c>
       <c r="X261" s="32">
-        <v>6660</v>
+        <v>3920</v>
       </c>
       <c r="Y261" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
+      </c>
+      <c r="Z261" s="32">
+        <v>99543</v>
       </c>
       <c r="AA261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP261" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A262" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B262" s="27" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C262" s="27" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D262" s="27"/>
       <c r="E262" s="27"/>
@@ -36457,74 +36521,76 @@
         <v>3986</v>
       </c>
       <c r="W262" s="32">
-        <v>6939</v>
+        <v>6925</v>
       </c>
       <c r="X262" s="32">
-        <v>6853</v>
+        <v>5026</v>
       </c>
       <c r="Y262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP262" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A263" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B263" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="C263" s="27"/>
+        <v>503</v>
+      </c>
+      <c r="C263" s="27" t="s">
+        <v>673</v>
+      </c>
       <c r="D263" s="27"/>
       <c r="E263" s="27"/>
       <c r="F263" s="27"/>
@@ -36547,72 +36613,74 @@
         <v>688</v>
       </c>
       <c r="W263" s="32">
-        <v>6923</v>
-      </c>
-      <c r="X263" s="32" t="s">
-        <v>678</v>
+        <v>7014</v>
+      </c>
+      <c r="X263" s="32">
+        <v>6660</v>
       </c>
       <c r="Y263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP263" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="C264" s="27"/>
+        <v>507</v>
+      </c>
+      <c r="C264" s="27" t="s">
+        <v>512</v>
+      </c>
       <c r="D264" s="27"/>
       <c r="E264" s="27"/>
       <c r="F264" s="27"/>
@@ -36632,73 +36700,73 @@
       <c r="T264" s="29"/>
       <c r="U264" s="29"/>
       <c r="V264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="W264" s="32">
-        <v>6911</v>
-      </c>
-      <c r="X264" s="32" t="s">
-        <v>678</v>
+        <v>6939</v>
+      </c>
+      <c r="X264" s="32">
+        <v>6853</v>
       </c>
       <c r="Y264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP264" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="27" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C265" s="27"/>
       <c r="D265" s="27"/>
@@ -36720,73 +36788,73 @@
       <c r="T265" s="29"/>
       <c r="U265" s="29"/>
       <c r="V265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="W265" s="32">
-        <v>6201</v>
+        <v>6923</v>
       </c>
       <c r="X265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Y265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP265" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="27" t="s">
-        <v>677</v>
+        <v>511</v>
       </c>
       <c r="C266" s="27"/>
       <c r="D266" s="27"/>
@@ -36808,73 +36876,73 @@
       <c r="T266" s="29"/>
       <c r="U266" s="29"/>
       <c r="V266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="W266" s="32">
-        <v>977</v>
+        <v>6911</v>
       </c>
       <c r="X266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Y266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP266" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="27" t="s">
-        <v>518</v>
+        <v>681</v>
       </c>
       <c r="C267" s="27"/>
       <c r="D267" s="27"/>
@@ -36896,72 +36964,74 @@
       <c r="T267" s="29"/>
       <c r="U267" s="29"/>
       <c r="V267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="W267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="X267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Y267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP267" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
-      <c r="B268" s="27"/>
+      <c r="B268" s="27" t="s">
+        <v>514</v>
+      </c>
       <c r="C268" s="27"/>
       <c r="D268" s="27"/>
       <c r="E268" s="27"/>
@@ -36982,72 +37052,74 @@
       <c r="T268" s="29"/>
       <c r="U268" s="29"/>
       <c r="V268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="W268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="X268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Y268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP268" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
-      <c r="B269" s="27"/>
+      <c r="B269" s="27" t="s">
+        <v>674</v>
+      </c>
       <c r="C269" s="27"/>
       <c r="D269" s="27"/>
       <c r="E269" s="27"/>
@@ -37068,72 +37140,74 @@
       <c r="T269" s="29"/>
       <c r="U269" s="29"/>
       <c r="V269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="W269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="X269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Y269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP269" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
-      <c r="B270" s="27"/>
+      <c r="B270" s="27" t="s">
+        <v>516</v>
+      </c>
       <c r="C270" s="27"/>
       <c r="D270" s="27"/>
       <c r="E270" s="27"/>
@@ -37154,67 +37228,67 @@
       <c r="T270" s="29"/>
       <c r="U270" s="29"/>
       <c r="V270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="W270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="X270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Y270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Z270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AA270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AB270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AC270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AD270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AE270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AF270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AG270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AH270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AJ270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AL270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AO270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AP270" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.2">
@@ -39302,7 +39376,7 @@
         <v>151</v>
       </c>
       <c r="C393" s="8">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="D393" s="8">
         <v>0</v>
@@ -39319,7 +39393,7 @@
         <v>152</v>
       </c>
       <c r="C394" s="8">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="D394" s="8">
         <v>0</v>
@@ -39336,7 +39410,7 @@
         <v>153</v>
       </c>
       <c r="C395" s="8">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="D395" s="8">
         <v>0</v>
@@ -39353,7 +39427,7 @@
         <v>154</v>
       </c>
       <c r="C396" s="8">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="D396" s="8">
         <v>0</v>
@@ -39370,7 +39444,7 @@
         <v>155</v>
       </c>
       <c r="C397" s="8">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="D397" s="8">
         <v>0</v>
@@ -39438,7 +39512,7 @@
         <v>160</v>
       </c>
       <c r="C401" s="8">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="D401" s="8">
         <v>0</v>
@@ -39591,13 +39665,13 @@
         <v>167</v>
       </c>
       <c r="C410" s="8">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D410" s="8">
-        <v>0</v>
-      </c>
-      <c r="E410" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -39608,13 +39682,13 @@
         <v>168</v>
       </c>
       <c r="C411" s="8">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D411" s="8">
-        <v>0</v>
-      </c>
-      <c r="E411" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -39625,13 +39699,13 @@
         <v>167</v>
       </c>
       <c r="C412" s="8">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D412" s="8">
-        <v>0</v>
-      </c>
-      <c r="E412" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E412" s="8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -39642,13 +39716,13 @@
         <v>167</v>
       </c>
       <c r="C413" s="8">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D413" s="8">
-        <v>0</v>
-      </c>
-      <c r="E413" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -39659,13 +39733,13 @@
         <v>169</v>
       </c>
       <c r="C414" s="8">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="D414" s="8">
-        <v>0</v>
-      </c>
-      <c r="E414" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E414" s="8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -39676,7 +39750,7 @@
         <v>170</v>
       </c>
       <c r="C415" s="8">
-        <v>0</v>
+        <v>1601</v>
       </c>
       <c r="D415" s="8">
         <v>0</v>
@@ -39693,7 +39767,7 @@
         <v>171</v>
       </c>
       <c r="C416" s="8">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="D416" s="8">
         <v>0</v>
@@ -39710,7 +39784,7 @@
         <v>172</v>
       </c>
       <c r="C417" s="8">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="D417" s="8">
         <v>0</v>
@@ -39727,7 +39801,7 @@
         <v>173</v>
       </c>
       <c r="C418" s="8">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="D418" s="8">
         <v>0</v>
@@ -39744,7 +39818,7 @@
         <v>174</v>
       </c>
       <c r="C419" s="8">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="D419" s="8">
         <v>0</v>
@@ -39761,7 +39835,7 @@
         <v>175</v>
       </c>
       <c r="C420" s="8">
-        <v>0</v>
+        <v>1607</v>
       </c>
       <c r="D420" s="8">
         <v>0</v>
@@ -39778,7 +39852,7 @@
         <v>176</v>
       </c>
       <c r="C421" s="8">
-        <v>0</v>
+        <v>1606</v>
       </c>
       <c r="D421" s="8">
         <v>0</v>
@@ -39795,7 +39869,7 @@
         <v>177</v>
       </c>
       <c r="C422" s="8">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="D422" s="8">
         <v>0</v>
@@ -39812,7 +39886,7 @@
         <v>178</v>
       </c>
       <c r="C423" s="8">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="D423" s="8">
         <v>0</v>
@@ -39829,13 +39903,13 @@
         <v>179</v>
       </c>
       <c r="C424" s="8">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="D424" s="8">
-        <v>0</v>
-      </c>
-      <c r="E424" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E424" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -39846,7 +39920,7 @@
         <v>180</v>
       </c>
       <c r="C425" s="8">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="D425" s="8">
         <v>0</v>
@@ -39863,7 +39937,7 @@
         <v>181</v>
       </c>
       <c r="C426" s="8">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="D426" s="8">
         <v>0</v>
@@ -39880,7 +39954,7 @@
         <v>182</v>
       </c>
       <c r="C427" s="8">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="D427" s="8">
         <v>0</v>
@@ -39897,7 +39971,7 @@
         <v>183</v>
       </c>
       <c r="C428" s="8">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="D428" s="8">
         <v>0</v>
@@ -39914,7 +39988,7 @@
         <v>184</v>
       </c>
       <c r="C429" s="8">
-        <v>0</v>
+        <v>1703</v>
       </c>
       <c r="D429" s="8">
         <v>0</v>
@@ -39931,7 +40005,7 @@
         <v>184</v>
       </c>
       <c r="C430" s="8">
-        <v>0</v>
+        <v>1703</v>
       </c>
       <c r="D430" s="8">
         <v>0</v>
@@ -39948,7 +40022,7 @@
         <v>185</v>
       </c>
       <c r="C431" s="8">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="D431" s="8">
         <v>0</v>
@@ -39965,7 +40039,7 @@
         <v>186</v>
       </c>
       <c r="C432" s="8">
-        <v>0</v>
+        <v>1705</v>
       </c>
       <c r="D432" s="8">
         <v>0</v>
@@ -39982,7 +40056,7 @@
         <v>187</v>
       </c>
       <c r="C433" s="8">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="D433" s="8">
         <v>0</v>
@@ -39999,7 +40073,7 @@
         <v>188</v>
       </c>
       <c r="C434" s="8">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="D434" s="8">
         <v>0</v>
@@ -40016,7 +40090,7 @@
         <v>189</v>
       </c>
       <c r="C435" s="8">
-        <v>0</v>
+        <v>1726</v>
       </c>
       <c r="D435" s="8">
         <v>0</v>
@@ -40033,7 +40107,7 @@
         <v>190</v>
       </c>
       <c r="C436" s="8">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="D436" s="8">
         <v>0</v>
@@ -40050,7 +40124,7 @@
         <v>191</v>
       </c>
       <c r="C437" s="8">
-        <v>0</v>
+        <v>1701</v>
       </c>
       <c r="D437" s="8">
         <v>0</v>
@@ -40067,7 +40141,7 @@
         <v>192</v>
       </c>
       <c r="C438" s="8">
-        <v>0</v>
+        <v>1702</v>
       </c>
       <c r="D438" s="8">
         <v>0</v>
@@ -40084,7 +40158,7 @@
         <v>193</v>
       </c>
       <c r="C439" s="8">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="D439" s="8">
         <v>0</v>
@@ -40101,7 +40175,7 @@
         <v>194</v>
       </c>
       <c r="C440" s="8">
-        <v>0</v>
+        <v>1709</v>
       </c>
       <c r="D440" s="8">
         <v>0</v>
@@ -40118,7 +40192,7 @@
         <v>195</v>
       </c>
       <c r="C441" s="8">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="D441" s="8">
         <v>0</v>
@@ -40135,7 +40209,7 @@
         <v>196</v>
       </c>
       <c r="C442" s="8">
-        <v>0</v>
+        <v>1711</v>
       </c>
       <c r="D442" s="8">
         <v>0</v>
@@ -40152,7 +40226,7 @@
         <v>197</v>
       </c>
       <c r="C443" s="8">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="D443" s="8">
         <v>0</v>
@@ -40343,7 +40417,7 @@
       </c>
       <c r="F2" s="3">
         <f>Sheet1!F2</f>
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="G2" s="3">
         <f>Sheet1!G2</f>
@@ -40359,7 +40433,7 @@
       </c>
       <c r="J2" s="3">
         <f>Sheet1!K2</f>
-        <v>490</v>
+        <v>245</v>
       </c>
       <c r="K2" s="3">
         <f>Sheet1!L2</f>
@@ -40391,11 +40465,11 @@
       </c>
       <c r="R2" s="3">
         <f>Sheet1!U2</f>
-        <v>1878.5</v>
+        <v>340</v>
       </c>
       <c r="S2" s="3">
         <f>Sheet1!V2</f>
-        <v>0</v>
+        <v>780.30000000000007</v>
       </c>
       <c r="T2" s="3">
         <f>Sheet1!W2</f>
@@ -40407,7 +40481,7 @@
       </c>
       <c r="V2" s="3">
         <f>Sheet1!Y2</f>
-        <v>578</v>
+        <v>1271.6000000000001</v>
       </c>
       <c r="W2" s="3">
         <f>Sheet1!AA2</f>
@@ -40415,7 +40489,7 @@
       </c>
       <c r="X2" s="3">
         <f>Sheet1!AB2</f>
-        <v>664.69999999999993</v>
+        <v>606.9</v>
       </c>
       <c r="Y2" s="3">
         <f>Sheet1!AC2</f>
@@ -40701,7 +40775,7 @@
       </c>
       <c r="D5" s="3">
         <f>Sheet1!D5</f>
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="E5" s="3">
         <f>Sheet1!E5</f>
@@ -40709,7 +40783,7 @@
       </c>
       <c r="F5" s="3">
         <f>Sheet1!F5</f>
-        <v>4900</v>
+        <v>1400</v>
       </c>
       <c r="G5" s="3">
         <f>Sheet1!G5</f>
@@ -40761,7 +40835,7 @@
       </c>
       <c r="S5" s="3">
         <f>Sheet1!V5</f>
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T5" s="3">
         <f>Sheet1!W5</f>
@@ -40769,7 +40843,7 @@
       </c>
       <c r="U5" s="3">
         <f>Sheet1!X5</f>
-        <v>2148</v>
+        <v>2048</v>
       </c>
       <c r="V5" s="3">
         <f>Sheet1!Y5</f>
@@ -40945,7 +41019,7 @@
       </c>
       <c r="D7" s="3">
         <f>Sheet1!D7</f>
-        <v>10005</v>
+        <v>6900</v>
       </c>
       <c r="E7" s="3">
         <f>Sheet1!E7</f>
@@ -40985,7 +41059,7 @@
       </c>
       <c r="N7" s="3">
         <f>Sheet1!O7</f>
-        <v>880</v>
+        <v>2200</v>
       </c>
       <c r="O7" s="3">
         <f>Sheet1!P7</f>
@@ -40993,7 +41067,7 @@
       </c>
       <c r="P7" s="3">
         <f>Sheet1!Q7+Sheet1!R7+Sheet1!S7</f>
-        <v>3780</v>
+        <v>2310</v>
       </c>
       <c r="Q7" s="3">
         <f>Sheet1!T7</f>
@@ -41033,7 +41107,7 @@
       </c>
       <c r="Z7" s="3">
         <f>Sheet1!AD7</f>
-        <v>210</v>
+        <v>798</v>
       </c>
       <c r="AA7" s="3">
         <f>Sheet1!AE7+Sheet1!Z7</f>
@@ -41185,7 +41259,7 @@
       </c>
       <c r="C9" s="3">
         <f>Sheet1!C9</f>
-        <v>5520</v>
+        <v>3450</v>
       </c>
       <c r="D9" s="3">
         <f>Sheet1!D9</f>
@@ -41197,7 +41271,7 @@
       </c>
       <c r="F9" s="3">
         <f>Sheet1!F9</f>
-        <v>1880</v>
+        <v>1680</v>
       </c>
       <c r="G9" s="3">
         <f>Sheet1!G9</f>
@@ -41253,7 +41327,7 @@
       </c>
       <c r="T9" s="3">
         <f>Sheet1!W9</f>
-        <v>1260</v>
+        <v>1050</v>
       </c>
       <c r="U9" s="3">
         <f>Sheet1!X9</f>
@@ -41265,11 +41339,11 @@
       </c>
       <c r="W9" s="3">
         <f>Sheet1!AA9</f>
-        <v>1995</v>
+        <v>2310</v>
       </c>
       <c r="X9" s="3">
         <f>Sheet1!AB9</f>
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="Y9" s="3">
         <f>Sheet1!AC9</f>
@@ -41289,7 +41363,7 @@
       </c>
       <c r="AC9" s="3">
         <f>Sheet1!AG9</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="AD9" s="3">
         <f>Sheet1!AH9+Sheet1!AI9</f>
@@ -41429,7 +41503,7 @@
       </c>
       <c r="C11" s="3">
         <f>Sheet1!C11</f>
-        <v>1944</v>
+        <v>2721.6</v>
       </c>
       <c r="D11" s="3">
         <f>Sheet1!D11</f>
@@ -41441,7 +41515,7 @@
       </c>
       <c r="F11" s="3">
         <f>Sheet1!F11</f>
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="3">
         <f>Sheet1!G11</f>
@@ -41485,7 +41559,7 @@
       </c>
       <c r="Q11" s="3">
         <f>Sheet1!T11</f>
-        <v>1820</v>
+        <v>1480</v>
       </c>
       <c r="R11" s="3">
         <f>Sheet1!U11</f>
@@ -41537,7 +41611,7 @@
       </c>
       <c r="AD11" s="3">
         <f>Sheet1!AH11+Sheet1!AI11</f>
-        <v>2225</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -41551,11 +41625,11 @@
       </c>
       <c r="C12" s="3">
         <f>Sheet1!C12</f>
-        <v>9024</v>
+        <v>3308.8</v>
       </c>
       <c r="D12" s="3">
         <f>Sheet1!D12</f>
-        <v>10888.5</v>
+        <v>5185</v>
       </c>
       <c r="E12" s="3">
         <f>Sheet1!E12</f>
@@ -41563,7 +41637,7 @@
       </c>
       <c r="F12" s="3">
         <f>Sheet1!F12</f>
-        <v>4550</v>
+        <v>6110</v>
       </c>
       <c r="G12" s="3">
         <f>Sheet1!G12</f>
@@ -41599,7 +41673,7 @@
       </c>
       <c r="O12" s="3">
         <f>Sheet1!P12</f>
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="P12" s="3">
         <f>Sheet1!Q12+Sheet1!R12+Sheet1!S12</f>
@@ -41607,7 +41681,7 @@
       </c>
       <c r="Q12" s="3">
         <f>Sheet1!T12</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="R12" s="3">
         <f>Sheet1!U12</f>
@@ -41659,7 +41733,7 @@
       </c>
       <c r="AD12" s="3">
         <f>Sheet1!AH12+Sheet1!AI12</f>
-        <v>4320</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -41685,7 +41759,7 @@
       </c>
       <c r="F13" s="3">
         <f>Sheet1!F13</f>
-        <v>6760</v>
+        <v>4160</v>
       </c>
       <c r="G13" s="3">
         <f>Sheet1!G13</f>
@@ -41721,7 +41795,7 @@
       </c>
       <c r="O13" s="3">
         <f>Sheet1!P13</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P13" s="3">
         <f>Sheet1!Q13+Sheet1!R13+Sheet1!S13</f>
@@ -41729,7 +41803,7 @@
       </c>
       <c r="Q13" s="3">
         <f>Sheet1!T13</f>
-        <v>320</v>
+        <v>1060</v>
       </c>
       <c r="R13" s="3">
         <f>Sheet1!U13</f>
@@ -41781,7 +41855,7 @@
       </c>
       <c r="AD13" s="3">
         <f>Sheet1!AH13+Sheet1!AI13</f>
-        <v>1800</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -41795,19 +41869,19 @@
       </c>
       <c r="C14" s="3">
         <f>Sheet1!C14</f>
-        <v>514.5</v>
+        <v>1715</v>
       </c>
       <c r="D14" s="3">
         <f>Sheet1!D14</f>
-        <v>864</v>
+        <v>216</v>
       </c>
       <c r="E14" s="3">
         <f>Sheet1!E14</f>
-        <v>815.1</v>
+        <v>8464.5</v>
       </c>
       <c r="F14" s="3">
         <f>Sheet1!F14</f>
-        <v>896</v>
+        <v>268.8</v>
       </c>
       <c r="G14" s="3">
         <f>Sheet1!G14</f>
@@ -41827,7 +41901,7 @@
       </c>
       <c r="K14" s="3">
         <f>Sheet1!L14</f>
-        <v>345.6</v>
+        <v>512</v>
       </c>
       <c r="L14" s="3">
         <f>Sheet1!M14</f>
@@ -41835,7 +41909,7 @@
       </c>
       <c r="M14" s="3">
         <f>Sheet1!N14</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <f>Sheet1!O14</f>
@@ -41851,7 +41925,7 @@
       </c>
       <c r="Q14" s="3">
         <f>Sheet1!T14</f>
-        <v>1984</v>
+        <v>576</v>
       </c>
       <c r="R14" s="3">
         <f>Sheet1!U14</f>
@@ -41903,7 +41977,7 @@
       </c>
       <c r="AD14" s="3">
         <f>Sheet1!AH14+Sheet1!AI14</f>
-        <v>1008</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -41917,19 +41991,19 @@
       </c>
       <c r="C15" s="3">
         <f>Sheet1!C15</f>
-        <v>9240</v>
+        <v>8580</v>
       </c>
       <c r="D15" s="3">
         <f>Sheet1!D15</f>
-        <v>10296</v>
+        <v>9594</v>
       </c>
       <c r="E15" s="3">
         <f>Sheet1!E15</f>
-        <v>5011.2</v>
+        <v>4608</v>
       </c>
       <c r="F15" s="3">
         <f>Sheet1!F15</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G15" s="3">
         <f>Sheet1!G15</f>
@@ -41973,7 +42047,7 @@
       </c>
       <c r="Q15" s="3">
         <f>Sheet1!T15</f>
-        <v>2520</v>
+        <v>2268</v>
       </c>
       <c r="R15" s="3">
         <f>Sheet1!U15</f>
@@ -42039,19 +42113,19 @@
       </c>
       <c r="C16" s="3">
         <f>Sheet1!C16</f>
-        <v>1732.5</v>
+        <v>13282.5</v>
       </c>
       <c r="D16" s="3">
         <f>Sheet1!D16</f>
-        <v>3960</v>
+        <v>2772</v>
       </c>
       <c r="E16" s="3">
         <f>Sheet1!E16</f>
-        <v>2970</v>
+        <v>15660</v>
       </c>
       <c r="F16" s="3">
         <f>Sheet1!F16</f>
-        <v>4200</v>
+        <v>2850</v>
       </c>
       <c r="G16" s="3">
         <f>Sheet1!G16</f>
@@ -42071,15 +42145,15 @@
       </c>
       <c r="K16" s="3">
         <f>Sheet1!L16</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L16" s="3">
         <f>Sheet1!M16</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="M16" s="3">
         <f>Sheet1!N16</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N16" s="3">
         <f>Sheet1!O16</f>
@@ -42095,7 +42169,7 @@
       </c>
       <c r="Q16" s="3">
         <f>Sheet1!T16</f>
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="R16" s="3">
         <f>Sheet1!U16</f>
@@ -42147,7 +42221,7 @@
       </c>
       <c r="AD16" s="3">
         <f>Sheet1!AH16+Sheet1!AI16</f>
-        <v>4464</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -42283,11 +42357,11 @@
       </c>
       <c r="C18" s="3">
         <f>Sheet1!C18</f>
-        <v>12342</v>
+        <v>15708</v>
       </c>
       <c r="D18" s="3">
         <f>Sheet1!D18</f>
-        <v>11781</v>
+        <v>8415</v>
       </c>
       <c r="E18" s="3">
         <f>Sheet1!E18</f>
@@ -42295,7 +42369,7 @@
       </c>
       <c r="F18" s="3">
         <f>Sheet1!F18</f>
-        <v>769.59999999999991</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
         <f>Sheet1!G18</f>
@@ -42311,7 +42385,7 @@
       </c>
       <c r="J18" s="3">
         <f>Sheet1!K18</f>
-        <v>5544</v>
+        <v>1601.6000000000001</v>
       </c>
       <c r="K18" s="3">
         <f>Sheet1!L18</f>
@@ -42335,7 +42409,7 @@
       </c>
       <c r="P18" s="3">
         <f>Sheet1!Q18+Sheet1!R18+Sheet1!S18</f>
-        <v>532</v>
+        <v>1064</v>
       </c>
       <c r="Q18" s="3">
         <f>Sheet1!T18</f>
@@ -42383,7 +42457,7 @@
       </c>
       <c r="AB18" s="3">
         <f>Sheet1!AF18</f>
-        <v>1152</v>
+        <v>9216</v>
       </c>
       <c r="AC18" s="3">
         <f>Sheet1!AG18</f>
@@ -42505,7 +42579,7 @@
       </c>
       <c r="AB19" s="3">
         <f>Sheet1!AF19</f>
-        <v>4536</v>
+        <v>7128</v>
       </c>
       <c r="AC19" s="3">
         <f>Sheet1!AG19</f>
@@ -42649,11 +42723,11 @@
       </c>
       <c r="C21" s="3">
         <f>Sheet1!C21</f>
-        <v>7200</v>
+        <v>9600</v>
       </c>
       <c r="D21" s="3">
         <f>Sheet1!D21</f>
-        <v>1944</v>
+        <v>4752</v>
       </c>
       <c r="E21" s="3">
         <f>Sheet1!E21</f>
@@ -42661,7 +42735,7 @@
       </c>
       <c r="F21" s="3">
         <f>Sheet1!F21</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <f>Sheet1!G21</f>
@@ -42673,7 +42747,7 @@
       </c>
       <c r="I21" s="3">
         <f>Sheet1!J21</f>
-        <v>3760</v>
+        <v>3200</v>
       </c>
       <c r="J21" s="3">
         <f>Sheet1!K21</f>
@@ -42685,7 +42759,7 @@
       </c>
       <c r="L21" s="3">
         <f>Sheet1!M21</f>
-        <v>500</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="M21" s="3">
         <f>Sheet1!N21</f>
@@ -42701,7 +42775,7 @@
       </c>
       <c r="P21" s="3">
         <f>Sheet1!Q21+Sheet1!R21+Sheet1!S21</f>
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="3">
         <f>Sheet1!T21</f>
@@ -42725,7 +42799,7 @@
       </c>
       <c r="V21" s="3">
         <f>Sheet1!Y21</f>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="W21" s="3">
         <f>Sheet1!AA21</f>
@@ -42749,7 +42823,7 @@
       </c>
       <c r="AB21" s="3">
         <f>Sheet1!AF21</f>
-        <v>3680</v>
+        <v>1200</v>
       </c>
       <c r="AC21" s="3">
         <f>Sheet1!AG21</f>
@@ -42771,11 +42845,11 @@
       </c>
       <c r="C22" s="3">
         <f>Sheet1!C22</f>
-        <v>9408</v>
+        <v>4116</v>
       </c>
       <c r="D22" s="3">
         <f>Sheet1!D22</f>
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
         <f>Sheet1!E22</f>
@@ -42795,7 +42869,7 @@
       </c>
       <c r="I22" s="3">
         <f>Sheet1!J22</f>
-        <v>5040</v>
+        <v>6439.9999999999991</v>
       </c>
       <c r="J22" s="3">
         <f>Sheet1!K22</f>
@@ -42807,11 +42881,11 @@
       </c>
       <c r="L22" s="3">
         <f>Sheet1!M22</f>
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="M22" s="3">
         <f>Sheet1!N22</f>
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N22" s="3">
         <f>Sheet1!O22</f>
@@ -42847,7 +42921,7 @@
       </c>
       <c r="V22" s="3">
         <f>Sheet1!Y22</f>
-        <v>1840</v>
+        <v>1792</v>
       </c>
       <c r="W22" s="3">
         <f>Sheet1!AA22</f>
@@ -42871,7 +42945,7 @@
       </c>
       <c r="AB22" s="3">
         <f>Sheet1!AF22</f>
-        <v>2000</v>
+        <v>1040</v>
       </c>
       <c r="AC22" s="3">
         <f>Sheet1!AG22</f>
@@ -42917,7 +42991,7 @@
       </c>
       <c r="I23" s="3">
         <f>Sheet1!J23</f>
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="J23" s="3">
         <f>Sheet1!K23</f>
@@ -42929,7 +43003,7 @@
       </c>
       <c r="L23" s="3">
         <f>Sheet1!M23</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M23" s="3">
         <f>Sheet1!N23</f>
@@ -42945,7 +43019,7 @@
       </c>
       <c r="P23" s="3">
         <f>Sheet1!Q23+Sheet1!R23+Sheet1!S23</f>
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="Q23" s="3">
         <f>Sheet1!T23</f>
@@ -42969,7 +43043,7 @@
       </c>
       <c r="V23" s="3">
         <f>Sheet1!Y23</f>
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="W23" s="3">
         <f>Sheet1!AA23</f>
@@ -42993,7 +43067,7 @@
       </c>
       <c r="AB23" s="3">
         <f>Sheet1!AF23</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="AC23" s="3">
         <f>Sheet1!AG23</f>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Production\Common\Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dclark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="694">
   <si>
     <t>MPI</t>
   </si>
@@ -1547,9 +1547,6 @@
     <t>Tamara Moore</t>
   </si>
   <si>
-    <t>Yi Cui;</t>
-  </si>
-  <si>
     <t>Tammy Ford</t>
   </si>
   <si>
@@ -1577,9 +1574,6 @@
     <t>Vasile Adochitei</t>
   </si>
   <si>
-    <t>Yvonne McLeod</t>
-  </si>
-  <si>
     <t>Wanda Cleavely,</t>
   </si>
   <si>
@@ -2115,6 +2109,9 @@
   </si>
   <si>
     <t>Wiliam Diaz</t>
+  </si>
+  <si>
+    <t>Zmak Zzzz</t>
   </si>
 </sst>
 </file>
@@ -2358,13 +2355,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q6">
-            <v>44130.560968634258</v>
+            <v>44137.33326122685</v>
           </cell>
           <cell r="R6">
-            <v>44137.560968634258</v>
+            <v>44144.33326122685</v>
           </cell>
           <cell r="S6">
-            <v>44144.560968634258</v>
+            <v>44151.33326122685</v>
           </cell>
         </row>
         <row r="8">
@@ -2372,31 +2369,31 @@
             <v>50-5710</v>
           </cell>
           <cell r="D8">
-            <v>3000</v>
+            <v>5325</v>
           </cell>
           <cell r="E8">
-            <v>245</v>
+            <v>84</v>
           </cell>
           <cell r="F8">
-            <v>340</v>
+            <v>1317.5</v>
           </cell>
           <cell r="G8">
-            <v>780.30000000000007</v>
+            <v>289</v>
           </cell>
           <cell r="H8">
-            <v>1271.6000000000001</v>
+            <v>527</v>
           </cell>
           <cell r="I8">
-            <v>606.9</v>
+            <v>297.5</v>
           </cell>
           <cell r="J8">
-            <v>153</v>
+            <v>68</v>
           </cell>
           <cell r="K8">
             <v>0</v>
           </cell>
           <cell r="P8">
-            <v>4752</v>
+            <v>0</v>
           </cell>
           <cell r="Q8">
             <v>0</v>
@@ -2405,7 +2402,7 @@
             <v>0</v>
           </cell>
           <cell r="S8">
-            <v>0</v>
+            <v>4752</v>
           </cell>
         </row>
         <row r="15">
@@ -2437,13 +2434,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q16">
-            <v>44130.560968634258</v>
+            <v>44137.33326122685</v>
           </cell>
           <cell r="R16">
-            <v>44137.560968634258</v>
+            <v>44144.33326122685</v>
           </cell>
           <cell r="S16">
-            <v>44144.560968634258</v>
+            <v>44151.33326122685</v>
           </cell>
         </row>
         <row r="17">
@@ -2472,13 +2469,13 @@
             <v>0</v>
           </cell>
           <cell r="Q27">
-            <v>24960</v>
+            <v>19648</v>
           </cell>
           <cell r="R27">
-            <v>24768</v>
+            <v>18112</v>
           </cell>
           <cell r="S27">
-            <v>18176</v>
+            <v>24512</v>
           </cell>
         </row>
         <row r="28">
@@ -2486,22 +2483,22 @@
             <v>50-9641</v>
           </cell>
           <cell r="B28">
-            <v>0</v>
+            <v>2352</v>
           </cell>
           <cell r="C28">
-            <v>8000</v>
+            <v>1000</v>
           </cell>
           <cell r="D28">
             <v>1400</v>
           </cell>
           <cell r="E28">
-            <v>650</v>
+            <v>440.00000000000006</v>
           </cell>
           <cell r="F28">
-            <v>2000</v>
+            <v>400</v>
           </cell>
           <cell r="G28">
-            <v>48</v>
+            <v>32</v>
           </cell>
           <cell r="H28">
             <v>0</v>
@@ -2542,22 +2539,22 @@
             <v>50-3214</v>
           </cell>
           <cell r="B44">
-            <v>6555</v>
+            <v>0</v>
           </cell>
           <cell r="C44">
-            <v>6900</v>
+            <v>8970</v>
           </cell>
           <cell r="D44">
             <v>0</v>
           </cell>
           <cell r="E44">
-            <v>2200</v>
+            <v>1265</v>
           </cell>
           <cell r="F44">
-            <v>2310</v>
+            <v>3570</v>
           </cell>
           <cell r="G44">
-            <v>798</v>
+            <v>0</v>
           </cell>
           <cell r="I44">
             <v>0</v>
@@ -2568,13 +2565,13 @@
             <v>PAST DUE</v>
           </cell>
           <cell r="Q47">
-            <v>44130.560968634258</v>
+            <v>44137.33326122685</v>
           </cell>
           <cell r="R47">
-            <v>44137.560968634258</v>
+            <v>44144.33326122685</v>
           </cell>
           <cell r="S47">
-            <v>44144.560968634258</v>
+            <v>44151.33326122685</v>
           </cell>
         </row>
         <row r="48">
@@ -2610,27 +2607,27 @@
         </row>
         <row r="49">
           <cell r="P49">
-            <v>1000</v>
+            <v>0</v>
           </cell>
           <cell r="Q49">
-            <v>3680</v>
+            <v>1760</v>
           </cell>
           <cell r="R49">
-            <v>2880</v>
+            <v>2560</v>
           </cell>
           <cell r="S49">
-            <v>2840</v>
+            <v>3080</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>3450</v>
+            <v>11040</v>
           </cell>
           <cell r="C50">
-            <v>6210</v>
+            <v>0</v>
           </cell>
           <cell r="D50">
-            <v>1680</v>
+            <v>2800</v>
           </cell>
           <cell r="E50">
             <v>0</v>
@@ -2642,13 +2639,13 @@
             <v>0</v>
           </cell>
           <cell r="H50">
-            <v>2310</v>
+            <v>1890</v>
           </cell>
           <cell r="I50">
+            <v>360</v>
+          </cell>
+          <cell r="J50">
             <v>240</v>
-          </cell>
-          <cell r="J50">
-            <v>1200</v>
           </cell>
           <cell r="K50"/>
         </row>
@@ -2656,7 +2653,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="Q1">
-            <v>44130.560968634258</v>
+            <v>44140.333261111111</v>
           </cell>
         </row>
         <row r="5">
@@ -2664,40 +2661,40 @@
             <v>50-4916</v>
           </cell>
           <cell r="B5">
-            <v>2721.6</v>
+            <v>3888</v>
           </cell>
           <cell r="C5">
-            <v>3570</v>
+            <v>952</v>
           </cell>
           <cell r="D5">
-            <v>3000</v>
+            <v>1050</v>
           </cell>
           <cell r="E5">
+            <v>880</v>
+          </cell>
+          <cell r="F5">
             <v>0</v>
           </cell>
-          <cell r="F5">
-            <v>165</v>
-          </cell>
           <cell r="G5">
-            <v>1480</v>
+            <v>1300</v>
           </cell>
           <cell r="H5">
-            <v>2160</v>
+            <v>1440</v>
           </cell>
           <cell r="I5">
-            <v>0</v>
+            <v>1134</v>
           </cell>
           <cell r="P5">
             <v>0</v>
           </cell>
           <cell r="Q5">
-            <v>2880</v>
+            <v>1232</v>
           </cell>
           <cell r="R5">
-            <v>1466</v>
+            <v>1260</v>
           </cell>
           <cell r="S5">
-            <v>1176</v>
+            <v>2389</v>
           </cell>
         </row>
         <row r="8">
@@ -2705,37 +2702,37 @@
             <v>50-2407</v>
           </cell>
           <cell r="B8">
-            <v>3308.8</v>
+            <v>0</v>
           </cell>
           <cell r="C8">
-            <v>5185</v>
+            <v>1555.5</v>
           </cell>
           <cell r="D8">
-            <v>6110</v>
+            <v>7150</v>
           </cell>
           <cell r="E8">
             <v>0</v>
           </cell>
           <cell r="F8">
-            <v>900</v>
+            <v>350</v>
           </cell>
           <cell r="G8">
-            <v>2500</v>
+            <v>4140</v>
           </cell>
           <cell r="H8">
-            <v>6480</v>
+            <v>1800</v>
           </cell>
           <cell r="P8">
             <v>0</v>
           </cell>
           <cell r="Q8">
-            <v>3960</v>
+            <v>966</v>
           </cell>
           <cell r="R8">
-            <v>2322</v>
+            <v>720</v>
           </cell>
           <cell r="S8">
-            <v>720</v>
+            <v>1080</v>
           </cell>
         </row>
         <row r="11">
@@ -2743,37 +2740,37 @@
             <v>50-2421</v>
           </cell>
           <cell r="B11">
-            <v>1504</v>
+            <v>10528</v>
           </cell>
           <cell r="C11">
-            <v>0</v>
+            <v>7777.5</v>
           </cell>
           <cell r="D11">
-            <v>4160</v>
+            <v>2210</v>
           </cell>
           <cell r="E11">
             <v>0</v>
           </cell>
           <cell r="F11">
-            <v>250</v>
+            <v>0</v>
           </cell>
           <cell r="G11">
-            <v>1060</v>
+            <v>480</v>
           </cell>
           <cell r="H11">
-            <v>1080</v>
+            <v>2160</v>
           </cell>
           <cell r="P11">
             <v>0</v>
           </cell>
           <cell r="Q11">
-            <v>2520</v>
+            <v>0</v>
           </cell>
           <cell r="R11">
-            <v>3600</v>
+            <v>2880</v>
           </cell>
           <cell r="S11">
-            <v>3240</v>
+            <v>2880</v>
           </cell>
         </row>
         <row r="18">
@@ -2781,31 +2778,31 @@
             <v>50-4900</v>
           </cell>
           <cell r="B18">
-            <v>1715</v>
+            <v>5659.5</v>
           </cell>
           <cell r="C18">
-            <v>216</v>
+            <v>2376</v>
           </cell>
           <cell r="D18">
-            <v>8464.5</v>
+            <v>9091.5</v>
           </cell>
           <cell r="E18">
-            <v>268.8</v>
+            <v>2240</v>
           </cell>
           <cell r="F18">
-            <v>512</v>
+            <v>576</v>
           </cell>
           <cell r="G18">
             <v>0</v>
           </cell>
           <cell r="H18">
+            <v>128</v>
+          </cell>
+          <cell r="I18">
             <v>0</v>
           </cell>
-          <cell r="I18">
-            <v>576</v>
-          </cell>
           <cell r="J18">
-            <v>2232</v>
+            <v>1584</v>
           </cell>
           <cell r="K18">
             <v>0</v>
@@ -2814,13 +2811,13 @@
             <v>0</v>
           </cell>
           <cell r="Q18">
-            <v>3096</v>
+            <v>1322</v>
           </cell>
           <cell r="R18">
-            <v>2727</v>
+            <v>840</v>
           </cell>
           <cell r="S18">
-            <v>1008</v>
+            <v>2940</v>
           </cell>
         </row>
         <row r="21">
@@ -2828,43 +2825,43 @@
             <v>50-6686</v>
           </cell>
           <cell r="B21">
-            <v>8580</v>
+            <v>2244</v>
           </cell>
           <cell r="C21">
-            <v>9594</v>
+            <v>3510</v>
           </cell>
           <cell r="D21">
-            <v>4608</v>
+            <v>6912</v>
           </cell>
           <cell r="E21">
-            <v>750</v>
+            <v>2100</v>
           </cell>
           <cell r="F21">
-            <v>0</v>
+            <v>332</v>
           </cell>
           <cell r="G21">
-            <v>0</v>
+            <v>40</v>
           </cell>
           <cell r="H21">
             <v>0</v>
           </cell>
           <cell r="I21">
-            <v>2268</v>
+            <v>630</v>
           </cell>
           <cell r="J21">
-            <v>2088</v>
+            <v>2592</v>
           </cell>
           <cell r="P21">
             <v>0</v>
           </cell>
           <cell r="Q21">
-            <v>3744</v>
+            <v>687</v>
           </cell>
           <cell r="R21">
-            <v>1293</v>
+            <v>720</v>
           </cell>
           <cell r="S21">
-            <v>936</v>
+            <v>1296</v>
           </cell>
         </row>
         <row r="24">
@@ -2872,43 +2869,43 @@
             <v>50-6729</v>
           </cell>
           <cell r="B24">
-            <v>13282.5</v>
+            <v>7161</v>
           </cell>
           <cell r="C24">
-            <v>2772</v>
+            <v>4950</v>
           </cell>
           <cell r="D24">
-            <v>15660</v>
+            <v>9180</v>
           </cell>
           <cell r="E24">
-            <v>2850</v>
+            <v>1500</v>
           </cell>
           <cell r="F24">
-            <v>120</v>
+            <v>180</v>
           </cell>
           <cell r="G24">
-            <v>126</v>
+            <v>880</v>
           </cell>
           <cell r="H24">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="I24">
-            <v>63</v>
+            <v>3255</v>
           </cell>
           <cell r="J24">
-            <v>4032</v>
+            <v>1584</v>
           </cell>
           <cell r="P24">
             <v>0</v>
           </cell>
           <cell r="Q24">
-            <v>2448</v>
+            <v>0</v>
           </cell>
           <cell r="R24">
-            <v>3816</v>
+            <v>2880</v>
           </cell>
           <cell r="S24">
-            <v>3168</v>
+            <v>2952</v>
           </cell>
         </row>
         <row r="34">
@@ -2939,58 +2936,50 @@
           <cell r="I34">
             <v>600</v>
           </cell>
-          <cell r="P34">
-            <v>0</v>
-          </cell>
-          <cell r="Q34">
-            <v>0</v>
-          </cell>
-          <cell r="R34">
-            <v>0</v>
-          </cell>
-          <cell r="S34">
-            <v>0</v>
-          </cell>
+          <cell r="P34"/>
+          <cell r="Q34"/>
+          <cell r="R34"/>
+          <cell r="S34"/>
         </row>
         <row r="37">
           <cell r="A37" t="str">
             <v>50-4748</v>
           </cell>
           <cell r="B37">
-            <v>15708</v>
+            <v>18793.5</v>
           </cell>
           <cell r="C37">
-            <v>8415</v>
+            <v>5610</v>
           </cell>
           <cell r="D37">
-            <v>400</v>
+            <v>1416</v>
           </cell>
           <cell r="E37">
-            <v>1601.6000000000001</v>
+            <v>4065.6</v>
           </cell>
           <cell r="F37">
             <v>0</v>
           </cell>
           <cell r="G37">
-            <v>1064</v>
+            <v>1596</v>
           </cell>
           <cell r="H37">
             <v>0</v>
           </cell>
           <cell r="I37">
-            <v>9216</v>
+            <v>6336</v>
           </cell>
           <cell r="P37">
             <v>0</v>
           </cell>
           <cell r="Q37">
-            <v>11520</v>
+            <v>5184</v>
           </cell>
           <cell r="R37">
             <v>10944</v>
           </cell>
           <cell r="S37">
-            <v>14400</v>
+            <v>10368</v>
           </cell>
         </row>
         <row r="38">
@@ -3001,19 +2990,19 @@
             <v>0</v>
           </cell>
           <cell r="I38">
-            <v>7128</v>
+            <v>9720</v>
           </cell>
           <cell r="P38">
             <v>0</v>
           </cell>
           <cell r="Q38">
+            <v>9720</v>
+          </cell>
+          <cell r="R38">
             <v>11664</v>
           </cell>
-          <cell r="R38">
+          <cell r="S38">
             <v>19440</v>
-          </cell>
-          <cell r="S38">
-            <v>7776</v>
           </cell>
         </row>
         <row r="57">
@@ -3065,49 +3054,49 @@
             <v>50-3627-M</v>
           </cell>
           <cell r="B58">
-            <v>9600</v>
+            <v>13600</v>
           </cell>
           <cell r="C58">
-            <v>4752</v>
+            <v>1944</v>
           </cell>
           <cell r="D58">
+            <v>300</v>
+          </cell>
+          <cell r="E58">
+            <v>240</v>
+          </cell>
+          <cell r="F58">
             <v>0</v>
-          </cell>
-          <cell r="E58">
-            <v>3200</v>
-          </cell>
-          <cell r="F58">
-            <v>459.99999999999994</v>
           </cell>
           <cell r="G58">
             <v>0</v>
           </cell>
           <cell r="H58">
-            <v>100</v>
+            <v>940</v>
           </cell>
           <cell r="I58">
-            <v>200</v>
+            <v>20</v>
           </cell>
           <cell r="J58">
             <v>0</v>
           </cell>
           <cell r="K58">
-            <v>1080</v>
+            <v>360</v>
           </cell>
           <cell r="L58">
-            <v>1200</v>
+            <v>3200</v>
           </cell>
           <cell r="P58">
             <v>0</v>
           </cell>
           <cell r="Q58">
-            <v>8960</v>
+            <v>5200</v>
           </cell>
           <cell r="R58">
-            <v>6960</v>
+            <v>8240</v>
           </cell>
           <cell r="S58">
-            <v>8160</v>
+            <v>9440</v>
           </cell>
         </row>
         <row r="59">
@@ -3115,43 +3104,43 @@
             <v>50-3632-M</v>
           </cell>
           <cell r="B59">
-            <v>4116</v>
+            <v>588</v>
           </cell>
           <cell r="C59">
-            <v>2500</v>
+            <v>4000</v>
           </cell>
           <cell r="D59">
-            <v>300</v>
+            <v>0</v>
           </cell>
           <cell r="E59">
-            <v>6439.9999999999991</v>
+            <v>3500</v>
           </cell>
           <cell r="F59">
-            <v>600</v>
+            <v>240</v>
           </cell>
           <cell r="G59">
-            <v>320</v>
+            <v>200</v>
           </cell>
           <cell r="H59">
-            <v>0</v>
+            <v>100</v>
           </cell>
           <cell r="K59">
-            <v>1792</v>
+            <v>1032</v>
           </cell>
           <cell r="L59">
-            <v>1040</v>
+            <v>2320</v>
           </cell>
           <cell r="P59">
             <v>0</v>
           </cell>
           <cell r="Q59">
-            <v>8960</v>
+            <v>5200</v>
           </cell>
           <cell r="R59">
-            <v>6960</v>
+            <v>8160</v>
           </cell>
           <cell r="S59">
-            <v>8160</v>
+            <v>9440</v>
           </cell>
         </row>
         <row r="60">
@@ -3159,25 +3148,25 @@
             <v>50-1713M</v>
           </cell>
           <cell r="B60">
-            <v>5760</v>
+            <v>2400</v>
           </cell>
           <cell r="C60">
-            <v>216</v>
+            <v>1944</v>
           </cell>
           <cell r="D60">
             <v>0</v>
           </cell>
           <cell r="E60">
-            <v>960</v>
+            <v>3040</v>
           </cell>
           <cell r="F60">
-            <v>90</v>
+            <v>0</v>
           </cell>
           <cell r="G60">
             <v>0</v>
           </cell>
           <cell r="H60">
-            <v>930</v>
+            <v>750</v>
           </cell>
           <cell r="I60">
             <v>0</v>
@@ -3186,22 +3175,22 @@
             <v>0</v>
           </cell>
           <cell r="K60">
-            <v>90</v>
+            <v>272</v>
           </cell>
           <cell r="L60">
-            <v>576</v>
+            <v>192</v>
           </cell>
           <cell r="P60">
             <v>0</v>
           </cell>
           <cell r="Q60">
-            <v>480</v>
+            <v>0</v>
           </cell>
           <cell r="R60">
             <v>384</v>
           </cell>
           <cell r="S60">
-            <v>288</v>
+            <v>384</v>
           </cell>
         </row>
         <row r="61">
@@ -3209,10 +3198,10 @@
             <v>50-1731M</v>
           </cell>
           <cell r="B61">
-            <v>1323</v>
+            <v>1058.4000000000001</v>
           </cell>
           <cell r="C61">
-            <v>0</v>
+            <v>3500</v>
           </cell>
           <cell r="D61">
             <v>0</v>
@@ -3221,31 +3210,31 @@
             <v>0</v>
           </cell>
           <cell r="F61">
-            <v>0</v>
+            <v>270</v>
           </cell>
           <cell r="G61">
-            <v>0</v>
+            <v>162</v>
           </cell>
           <cell r="H61">
             <v>0</v>
           </cell>
           <cell r="K61">
-            <v>1080</v>
+            <v>486</v>
           </cell>
           <cell r="L61">
-            <v>96</v>
+            <v>0</v>
           </cell>
           <cell r="P61">
             <v>0</v>
           </cell>
           <cell r="Q61">
-            <v>480</v>
+            <v>0</v>
           </cell>
           <cell r="R61">
             <v>384</v>
           </cell>
           <cell r="S61">
-            <v>288</v>
+            <v>384</v>
           </cell>
         </row>
       </sheetData>
@@ -7557,8 +7546,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP444"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V213" sqref="V213:AP271"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S250" sqref="S250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7696,15 +7685,15 @@
       </c>
       <c r="AK1" s="5">
         <f>'[1]CSD I INV'!$Q$6</f>
-        <v>44130.560968634258</v>
+        <v>44137.33326122685</v>
       </c>
       <c r="AL1" s="5">
         <f>'[1]CSD I INV'!$R$6</f>
-        <v>44137.560968634258</v>
+        <v>44144.33326122685</v>
       </c>
       <c r="AM1" s="5">
         <f>'[1]CSD I INV'!$S$6</f>
-        <v>44144.560968634258</v>
+        <v>44151.33326122685</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7718,7 +7707,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="6">
         <f>'[1]CSD I INV'!$D$8</f>
-        <v>3000</v>
+        <v>5325</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7726,7 +7715,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="6">
         <f>'[1]CSD I INV'!$E$8</f>
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -7739,27 +7728,27 @@
       <c r="T2" s="4"/>
       <c r="U2" s="6">
         <f>'[1]CSD I INV'!$F$8</f>
-        <v>340</v>
+        <v>1317.5</v>
       </c>
       <c r="V2" s="6">
         <f>'[1]CSD I INV'!$G$8</f>
-        <v>780.30000000000007</v>
+        <v>289</v>
       </c>
       <c r="W2" s="4"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6">
         <f>'[1]CSD I INV'!$H$8</f>
-        <v>1271.6000000000001</v>
+        <v>527</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="6">
         <f>'[1]CSD I INV'!$I$8</f>
-        <v>606.9</v>
+        <v>297.5</v>
       </c>
       <c r="AC2" s="6">
         <f>'[1]CSD I INV'!$J$8</f>
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
@@ -7772,7 +7761,7 @@
       <c r="AI2" s="4"/>
       <c r="AJ2" s="7">
         <f>'[1]CSD I INV'!$P$8</f>
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="7">
         <f>'[1]CSD I INV'!$Q$8</f>
@@ -7784,7 +7773,7 @@
       </c>
       <c r="AM2" s="7">
         <f>'[1]CSD I INV'!$S$8</f>
-        <v>0</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7924,15 +7913,15 @@
       </c>
       <c r="AK4" s="7">
         <f>'[1]CSD I INV'!$Q$16</f>
-        <v>44130.560968634258</v>
+        <v>44137.33326122685</v>
       </c>
       <c r="AL4" s="7">
         <f>'[1]CSD I INV'!$R$16</f>
-        <v>44137.560968634258</v>
+        <v>44144.33326122685</v>
       </c>
       <c r="AM4" s="7">
         <f>'[1]CSD I INV'!$S$16</f>
-        <v>44144.560968634258</v>
+        <v>44151.33326122685</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7943,11 +7932,11 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <f>'[1]CSD I INV'!$B$28</f>
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="D5" s="4">
         <f>'[1]CSD I INV'!$C$28</f>
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6">
@@ -7971,12 +7960,12 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4">
         <f>'[1]CSD I INV'!$E$28</f>
-        <v>650</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="6">
         <f>'[1]CSD I INV'!$F$28+'[1]CSD I INV'!$G$28</f>
-        <v>2048</v>
+        <v>432</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -7998,15 +7987,15 @@
       </c>
       <c r="AK5" s="7">
         <f>'[1]CSD I INV'!$Q$27</f>
-        <v>24960</v>
+        <v>19648</v>
       </c>
       <c r="AL5" s="7">
         <f>'[1]CSD I INV'!$R$27</f>
-        <v>24768</v>
+        <v>18112</v>
       </c>
       <c r="AM5" s="7">
         <f>'[1]CSD I INV'!$S$27</f>
-        <v>18176</v>
+        <v>24512</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8096,11 +8085,11 @@
       <c r="B7" s="4"/>
       <c r="C7" s="6">
         <f>'[1]CSD I INV'!$B$44</f>
-        <v>6555</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
         <f>'[1]CSD I INV'!$C$44</f>
-        <v>6900</v>
+        <v>8970</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6">
@@ -8117,12 +8106,12 @@
       <c r="N7" s="4"/>
       <c r="O7" s="6">
         <f>'[1]CSD I INV'!$E$44</f>
-        <v>2200</v>
+        <v>1265</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="6">
         <f>'[1]CSD I INV'!$F$44</f>
-        <v>2310</v>
+        <v>3570</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -8138,7 +8127,7 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="6">
         <f>'[1]CSD I INV'!$G$44</f>
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -8228,15 +8217,15 @@
       </c>
       <c r="AK8" s="7">
         <f>'[1]CSD I INV'!$Q$47</f>
-        <v>44130.560968634258</v>
+        <v>44137.33326122685</v>
       </c>
       <c r="AL8" s="7">
         <f>'[1]CSD I INV'!$R$47</f>
-        <v>44137.560968634258</v>
+        <v>44144.33326122685</v>
       </c>
       <c r="AM8" s="7">
         <f>'[1]CSD I INV'!$S$47</f>
-        <v>44144.560968634258</v>
+        <v>44151.33326122685</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8246,16 +8235,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="6">
         <f>'[1]CSD I INV'!$B$50</f>
-        <v>3450</v>
+        <v>11040</v>
       </c>
       <c r="D9" s="6">
         <f>'[1]CSD I INV'!$C$50</f>
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6">
         <f>'[1]CSD I INV'!$D$50</f>
-        <v>1680</v>
+        <v>2800</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -8288,11 +8277,11 @@
       </c>
       <c r="AA9" s="6">
         <f>'[1]CSD I INV'!$H$50</f>
-        <v>2310</v>
+        <v>1890</v>
       </c>
       <c r="AB9" s="6">
         <f>'[1]CSD I INV'!$I$50</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -8300,7 +8289,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="6">
         <f>'[1]CSD I INV'!$J$50</f>
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AH9" s="6">
         <f>'[1]CSD I INV'!$K$50</f>
@@ -8309,19 +8298,19 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="7">
         <f>'[1]CSD I INV'!$P$49</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="7">
         <f>'[1]CSD I INV'!$Q$49</f>
-        <v>3680</v>
+        <v>1760</v>
       </c>
       <c r="AL9" s="7">
         <f>'[1]CSD I INV'!$R$49</f>
-        <v>2880</v>
+        <v>2560</v>
       </c>
       <c r="AM9" s="7">
         <f>'[1]CSD I INV'!$S$49</f>
-        <v>2840</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8400,16 +8389,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="6">
         <f>'[1]CSD II INV'!$B$5</f>
-        <v>2721.6</v>
+        <v>3888</v>
       </c>
       <c r="D11" s="6">
         <f>'[1]CSD II INV'!$C$5</f>
-        <v>3570</v>
+        <v>952</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6">
         <f>'[1]CSD II INV'!$D$5</f>
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -8419,20 +8408,20 @@
       <c r="L11" s="4"/>
       <c r="M11" s="6">
         <f>'[1]CSD II INV'!$E$5</f>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="6">
         <f>'[1]CSD II INV'!$F$5</f>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="6">
         <f>'[1]CSD II INV'!$G$5</f>
-        <v>1480</v>
+        <v>1300</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -8449,11 +8438,11 @@
       <c r="AG11" s="4"/>
       <c r="AH11" s="6">
         <f>'[1]CSD II INV'!$H$5</f>
-        <v>2160</v>
+        <v>1440</v>
       </c>
       <c r="AI11" s="6">
         <f>'[1]CSD II INV'!$I$5</f>
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="AJ11" s="7">
         <f>'[1]CSD II INV'!$P$5</f>
@@ -8461,15 +8450,15 @@
       </c>
       <c r="AK11" s="7">
         <f>'[1]CSD II INV'!$Q$5</f>
-        <v>2880</v>
+        <v>1232</v>
       </c>
       <c r="AL11" s="7">
         <f>'[1]CSD II INV'!$R$5</f>
-        <v>1466</v>
+        <v>1260</v>
       </c>
       <c r="AM11" s="7">
         <f>'[1]CSD II INV'!$S$5</f>
-        <v>1176</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8480,16 +8469,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="6">
         <f>'[1]CSD II INV'!$B$8</f>
-        <v>3308.8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
         <f>'[1]CSD II INV'!$C$8</f>
-        <v>5185</v>
+        <v>1555.5</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6">
         <f>'[1]CSD II INV'!$D$8</f>
-        <v>6110</v>
+        <v>7150</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -8505,14 +8494,14 @@
       <c r="O12" s="4"/>
       <c r="P12" s="6">
         <f>'[1]CSD II INV'!$F$8</f>
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="6">
         <f>'[1]CSD II INV'!$G$8</f>
-        <v>2500</v>
+        <v>4140</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -8529,7 +8518,7 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="6">
         <f>'[1]CSD II INV'!$H$8</f>
-        <v>6480</v>
+        <v>1800</v>
       </c>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="7">
@@ -8538,15 +8527,15 @@
       </c>
       <c r="AK12" s="7">
         <f>'[1]CSD II INV'!$Q$8</f>
-        <v>3960</v>
+        <v>966</v>
       </c>
       <c r="AL12" s="7">
         <f>'[1]CSD II INV'!$R$8</f>
-        <v>2322</v>
+        <v>720</v>
       </c>
       <c r="AM12" s="7">
         <f>'[1]CSD II INV'!$S$8</f>
-        <v>720</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8557,16 +8546,16 @@
       <c r="B13" s="4"/>
       <c r="C13" s="6">
         <f>'[1]CSD II INV'!$B$11</f>
-        <v>1504</v>
+        <v>10528</v>
       </c>
       <c r="D13" s="6">
         <f>'[1]CSD II INV'!$C$11</f>
-        <v>0</v>
+        <v>7777.5</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6">
         <f>'[1]CSD II INV'!$D$11</f>
-        <v>4160</v>
+        <v>2210</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -8582,14 +8571,14 @@
       <c r="O13" s="4"/>
       <c r="P13" s="6">
         <f>'[1]CSD II INV'!$F$11</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="6">
         <f>'[1]CSD II INV'!$G$11</f>
-        <v>1060</v>
+        <v>480</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -8606,7 +8595,7 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="6">
         <f>'[1]CSD II INV'!$H$11</f>
-        <v>1080</v>
+        <v>2160</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="7">
@@ -8615,15 +8604,15 @@
       </c>
       <c r="AK13" s="7">
         <f>'[1]CSD II INV'!$Q$11</f>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="7">
         <f>'[1]CSD II INV'!$R$11</f>
-        <v>3600</v>
+        <v>2880</v>
       </c>
       <c r="AM13" s="7">
         <f>'[1]CSD II INV'!$S$11</f>
-        <v>3240</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8634,19 +8623,19 @@
       <c r="B14" s="4"/>
       <c r="C14" s="6">
         <f>'[1]CSD II INV'!$B$18</f>
-        <v>1715</v>
+        <v>5659.5</v>
       </c>
       <c r="D14" s="6">
         <f>'[1]CSD II INV'!$C$18</f>
-        <v>216</v>
+        <v>2376</v>
       </c>
       <c r="E14" s="6">
         <f>'[1]CSD II INV'!$D$18</f>
-        <v>8464.5</v>
+        <v>9091.5</v>
       </c>
       <c r="F14" s="6">
         <f>'[1]CSD II INV'!$E$18</f>
-        <v>268.8</v>
+        <v>2240</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -8655,7 +8644,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="6">
         <f>'[1]CSD II INV'!$F$18</f>
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="M14" s="6">
         <f>'[1]CSD II INV'!$G$18</f>
@@ -8663,7 +8652,7 @@
       </c>
       <c r="N14" s="6">
         <f>'[1]CSD II INV'!$H$18</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -8672,7 +8661,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="6">
         <f>'[1]CSD II INV'!$I$18</f>
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -8689,7 +8678,7 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="6">
         <f>'[1]CSD II INV'!$J$18</f>
-        <v>2232</v>
+        <v>1584</v>
       </c>
       <c r="AI14" s="6">
         <f>'[1]CSD II INV'!$K$18</f>
@@ -8701,15 +8690,15 @@
       </c>
       <c r="AK14" s="7">
         <f>'[1]CSD II INV'!$Q$18</f>
-        <v>3096</v>
+        <v>1322</v>
       </c>
       <c r="AL14" s="7">
         <f>'[1]CSD II INV'!$R$18</f>
-        <v>2727</v>
+        <v>840</v>
       </c>
       <c r="AM14" s="7">
         <f>'[1]CSD II INV'!$S$18</f>
-        <v>1008</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8720,19 +8709,19 @@
       <c r="B15" s="4"/>
       <c r="C15" s="6">
         <f>'[1]CSD II INV'!$B$21</f>
-        <v>8580</v>
+        <v>2244</v>
       </c>
       <c r="D15" s="6">
         <f>'[1]CSD II INV'!$C$21</f>
-        <v>9594</v>
+        <v>3510</v>
       </c>
       <c r="E15" s="6">
         <f>'[1]CSD II INV'!$D$21</f>
-        <v>4608</v>
+        <v>6912</v>
       </c>
       <c r="F15" s="6">
         <f>'[1]CSD II INV'!$E$21</f>
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -8741,11 +8730,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="6">
         <f>'[1]CSD II INV'!$F$21</f>
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="M15" s="6">
         <f>'[1]CSD II INV'!$G$21</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N15" s="6">
         <f>'[1]CSD II INV'!$H$21</f>
@@ -8758,7 +8747,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="6">
         <f>'[1]CSD II INV'!$I$21</f>
-        <v>2268</v>
+        <v>630</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -8775,7 +8764,7 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="6">
         <f>'[1]CSD II INV'!$J$21</f>
-        <v>2088</v>
+        <v>2592</v>
       </c>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="7">
@@ -8784,15 +8773,15 @@
       </c>
       <c r="AK15" s="7">
         <f>'[1]CSD II INV'!$Q$21</f>
-        <v>3744</v>
+        <v>687</v>
       </c>
       <c r="AL15" s="7">
         <f>'[1]CSD II INV'!$R$21</f>
-        <v>1293</v>
+        <v>720</v>
       </c>
       <c r="AM15" s="7">
         <f>'[1]CSD II INV'!$S$21</f>
-        <v>936</v>
+        <v>1296</v>
       </c>
       <c r="AN15" s="15">
         <f>'[1]KANBAN TARGETS'!$J$76</f>
@@ -8807,19 +8796,19 @@
       <c r="B16" s="4"/>
       <c r="C16" s="6">
         <f>'[1]CSD II INV'!$B$24</f>
-        <v>13282.5</v>
+        <v>7161</v>
       </c>
       <c r="D16" s="6">
         <f>'[1]CSD II INV'!$C$24</f>
-        <v>2772</v>
+        <v>4950</v>
       </c>
       <c r="E16" s="6">
         <f>'[1]CSD II INV'!$D$24</f>
-        <v>15660</v>
+        <v>9180</v>
       </c>
       <c r="F16" s="6">
         <f>'[1]CSD II INV'!$E$24</f>
-        <v>2850</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -8828,15 +8817,15 @@
       <c r="K16" s="4"/>
       <c r="L16" s="6">
         <f>'[1]CSD II INV'!$F$24</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M16" s="6">
         <f>'[1]CSD II INV'!$G$24</f>
-        <v>126</v>
+        <v>880</v>
       </c>
       <c r="N16" s="6">
         <f>'[1]CSD II INV'!$H$24</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -8845,7 +8834,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="6">
         <f>'[1]CSD II INV'!$I$24</f>
-        <v>63</v>
+        <v>3255</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -8862,7 +8851,7 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="6">
         <f>'[1]CSD II INV'!$J$24</f>
-        <v>4032</v>
+        <v>1584</v>
       </c>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="7">
@@ -8871,15 +8860,15 @@
       </c>
       <c r="AK16" s="7">
         <f>'[1]CSD II INV'!$Q$24</f>
-        <v>2448</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="7">
         <f>'[1]CSD II INV'!$R$24</f>
-        <v>3816</v>
+        <v>2880</v>
       </c>
       <c r="AM16" s="7">
         <f>'[1]CSD II INV'!$S$24</f>
-        <v>3168</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,16 +8959,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="6">
         <f>'[1]CSD II INV'!$B$37</f>
-        <v>15708</v>
+        <v>18793.5</v>
       </c>
       <c r="D18" s="6">
         <f>'[1]CSD II INV'!$C$37</f>
-        <v>8415</v>
+        <v>5610</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6">
         <f>'[1]CSD II INV'!$D$37</f>
-        <v>400</v>
+        <v>1416</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -8987,7 +8976,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="6">
         <f>'[1]CSD II INV'!$E$37</f>
-        <v>1601.6000000000001</v>
+        <v>4065.6</v>
       </c>
       <c r="L18" s="6">
         <f>'[1]CSD II INV'!$F$37</f>
@@ -8999,7 +8988,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="6">
         <f>'[1]CSD II INV'!$G$37</f>
-        <v>1064</v>
+        <v>1596</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -9020,7 +9009,7 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="6">
         <f>'[1]CSD II INV'!$I$37</f>
-        <v>9216</v>
+        <v>6336</v>
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
@@ -9031,7 +9020,7 @@
       </c>
       <c r="AK18" s="7">
         <f>'[1]CSD II INV'!$Q$37</f>
-        <v>11520</v>
+        <v>5184</v>
       </c>
       <c r="AL18" s="7">
         <f>'[1]CSD II INV'!$R$37</f>
@@ -9039,7 +9028,7 @@
       </c>
       <c r="AM18" s="7">
         <f>'[1]CSD II INV'!$S$37</f>
-        <v>14400</v>
+        <v>10368</v>
       </c>
       <c r="AN18" s="15">
         <f>'[1]KANBAN TARGETS'!$I$85</f>
@@ -9086,7 +9075,7 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="6">
         <f>'[1]CSD II INV'!$I$38</f>
-        <v>7128</v>
+        <v>9720</v>
       </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
@@ -9097,15 +9086,15 @@
       </c>
       <c r="AK19" s="7">
         <f>'[1]CSD II INV'!$Q$38</f>
-        <v>11664</v>
+        <v>9720</v>
       </c>
       <c r="AL19" s="7">
         <f>'[1]CSD II INV'!$R$38</f>
-        <v>19440</v>
+        <v>11664</v>
       </c>
       <c r="AM19" s="7">
         <f>'[1]CSD II INV'!$S$38</f>
-        <v>7776</v>
+        <v>19440</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9199,29 +9188,29 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11">
         <f>'[1]CSD II INV'!$B$58</f>
-        <v>9600</v>
+        <v>13600</v>
       </c>
       <c r="D21" s="12">
         <f>'[1]CSD II INV'!$C$58</f>
-        <v>4752</v>
+        <v>1944</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11">
         <f>'[1]CSD II INV'!$D$58</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11">
         <f>'[1]CSD II INV'!$E$58</f>
-        <v>3200</v>
+        <v>240</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11">
         <f>'[1]CSD II INV'!$F$58</f>
-        <v>459.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="N21" s="11">
         <f>'[1]CSD II INV'!$G$58</f>
@@ -9231,11 +9220,11 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11">
         <f>'[1]CSD II INV'!$H$58</f>
-        <v>100</v>
+        <v>940</v>
       </c>
       <c r="R21" s="11">
         <f>'[1]CSD II INV'!$I$58</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="S21" s="11">
         <f>'[1]CSD II INV'!$J$58</f>
@@ -9248,7 +9237,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="12">
         <f>'[1]CSD II INV'!$K$58</f>
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
@@ -9258,7 +9247,7 @@
       <c r="AE21" s="11"/>
       <c r="AF21" s="11">
         <f>'[1]CSD II INV'!$L$58</f>
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
@@ -9269,15 +9258,15 @@
       </c>
       <c r="AK21" s="13">
         <f>'[1]CSD II INV'!$Q$58</f>
-        <v>8960</v>
+        <v>5200</v>
       </c>
       <c r="AL21" s="13">
         <f>'[1]CSD II INV'!$R$58</f>
-        <v>6960</v>
+        <v>8240</v>
       </c>
       <c r="AM21" s="13">
         <f>'[1]CSD II INV'!$S$58</f>
-        <v>8160</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="22" spans="1:40" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9288,39 +9277,39 @@
       <c r="B22" s="11"/>
       <c r="C22" s="12">
         <f>'[1]CSD II INV'!$B$59</f>
-        <v>4116</v>
+        <v>588</v>
       </c>
       <c r="D22" s="12">
         <f>'[1]CSD II INV'!$C$59</f>
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12">
         <f>'[1]CSD II INV'!$D$59</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="12">
         <f>'[1]CSD II INV'!$E$59</f>
-        <v>6439.9999999999991</v>
+        <v>3500</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11">
         <f>'[1]CSD II INV'!$F$59</f>
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N22" s="11">
         <f>'[1]CSD II INV'!$G$59</f>
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11">
         <f>'[1]CSD II INV'!$H$59</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -9331,7 +9320,7 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11">
         <f>'[1]CSD II INV'!$K$59</f>
-        <v>1792</v>
+        <v>1032</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
@@ -9341,7 +9330,7 @@
       <c r="AE22" s="11"/>
       <c r="AF22" s="11">
         <f>'[1]CSD II INV'!$L$59</f>
-        <v>1040</v>
+        <v>2320</v>
       </c>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
@@ -9352,15 +9341,15 @@
       </c>
       <c r="AK22" s="13">
         <f>'[1]CSD II INV'!$Q$59</f>
-        <v>8960</v>
+        <v>5200</v>
       </c>
       <c r="AL22" s="13">
         <f>'[1]CSD II INV'!$R$59</f>
-        <v>6960</v>
+        <v>8160</v>
       </c>
       <c r="AM22" s="13">
         <f>'[1]CSD II INV'!$S$59</f>
-        <v>8160</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9371,11 +9360,11 @@
       <c r="B23" s="4"/>
       <c r="C23" s="6">
         <f>'[1]CSD II INV'!$B$60</f>
-        <v>5760</v>
+        <v>2400</v>
       </c>
       <c r="D23" s="6">
         <f>'[1]CSD II INV'!$C$60</f>
-        <v>216</v>
+        <v>1944</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="6">
@@ -9387,13 +9376,13 @@
       <c r="I23" s="4"/>
       <c r="J23" s="6">
         <f>'[1]CSD II INV'!$E$60</f>
-        <v>960</v>
+        <v>3040</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="6">
         <f>'[1]CSD II INV'!$F$60</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N23" s="6">
         <f>'[1]CSD II INV'!$G$60</f>
@@ -9403,7 +9392,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="6">
         <f>'[1]CSD II INV'!$H$60</f>
-        <v>930</v>
+        <v>750</v>
       </c>
       <c r="R23" s="6">
         <f>'[1]CSD II INV'!$I$60</f>
@@ -9420,7 +9409,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="6">
         <f>'[1]CSD II INV'!$K$60</f>
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
@@ -9430,7 +9419,7 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4">
         <f>'[1]CSD II INV'!$L$60</f>
-        <v>576</v>
+        <v>192</v>
       </c>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
@@ -9441,7 +9430,7 @@
       </c>
       <c r="AK23" s="7">
         <f>'[1]CSD II INV'!$Q$60</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="7">
         <f>'[1]CSD II INV'!$R$60</f>
@@ -9449,7 +9438,7 @@
       </c>
       <c r="AM23" s="7">
         <f>'[1]CSD II INV'!$S$60</f>
-        <v>288</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9460,11 +9449,11 @@
       <c r="B24" s="4"/>
       <c r="C24" s="6">
         <f>'[1]CSD II INV'!$B$61</f>
-        <v>1323</v>
+        <v>1058.4000000000001</v>
       </c>
       <c r="D24" s="6">
         <f>'[1]CSD II INV'!$C$61</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6">
@@ -9482,11 +9471,11 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4">
         <f>'[1]CSD II INV'!$F$61</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N24" s="4">
         <f>'[1]CSD II INV'!$G$61</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -9503,7 +9492,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="6">
         <f>'[1]CSD II INV'!$K$61</f>
-        <v>1080</v>
+        <v>486</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
@@ -9513,7 +9502,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4">
         <f>'[1]CSD II INV'!$L$61</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
@@ -9524,7 +9513,7 @@
       </c>
       <c r="AK24" s="7">
         <f>'[1]CSD II INV'!$Q$61</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="7">
         <f>'[1]CSD II INV'!$R$61</f>
@@ -9532,7 +9521,7 @@
       </c>
       <c r="AM24" s="7">
         <f>'[1]CSD II INV'!$S$61</f>
-        <v>288</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10328,7 +10317,7 @@
     <row r="42" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <f>'[1]CSD II INV'!$Q$1</f>
-        <v>44130.560968634258</v>
+        <v>44140.333261111111</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -31231,130 +31220,130 @@
     <row r="209" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="212" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A212" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C212" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="B212" s="28" t="s">
+      <c r="D212" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="E212" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="D212" s="28" t="s">
+      <c r="F212" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="E212" s="28" t="s">
+      <c r="G212" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="F212" s="28" t="s">
+      <c r="H212" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="G212" s="28" t="s">
+      <c r="I212" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="H212" s="28" t="s">
+      <c r="J212" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="I212" s="28" t="s">
+      <c r="K212" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="J212" s="28" t="s">
+      <c r="L212" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="K212" s="28" t="s">
+      <c r="M212" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="L212" s="28" t="s">
+      <c r="N212" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="M212" s="28" t="s">
+      <c r="O212" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="N212" s="28" t="s">
+      <c r="P212" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="O212" s="28" t="s">
+      <c r="Q212" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="P212" s="28" t="s">
+      <c r="R212" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="Q212" s="28" t="s">
+      <c r="S212" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="R212" s="28" t="s">
+      <c r="T212" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="S212" s="28" t="s">
+      <c r="U212" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="T212" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="U212" s="28" t="s">
-        <v>540</v>
-      </c>
       <c r="V212" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="W212" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="X212" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="W212" s="30" t="s">
+      <c r="Y212" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="X212" s="30" t="s">
+      <c r="Z212" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="Y212" s="30" t="s">
+      <c r="AA212" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="Z212" s="31" t="s">
+      <c r="AB212" s="31" t="s">
         <v>524</v>
       </c>
-      <c r="AA212" s="31" t="s">
+      <c r="AC212" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="AB212" s="31" t="s">
+      <c r="AD212" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="AC212" s="31" t="s">
+      <c r="AE212" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="AD212" s="31" t="s">
+      <c r="AF212" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="AE212" s="31" t="s">
+      <c r="AG212" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="AF212" s="31" t="s">
+      <c r="AH212" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="AG212" s="31" t="s">
+      <c r="AI212" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="AH212" s="31" t="s">
+      <c r="AJ212" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="AI212" s="30" t="s">
+      <c r="AK212" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="AJ212" s="30" t="s">
+      <c r="AL212" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="AK212" s="30" t="s">
+      <c r="AM212" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="AL212" s="30" t="s">
+      <c r="AN212" s="31" t="s">
         <v>536</v>
       </c>
-      <c r="AM212" s="31" t="s">
+      <c r="AO212" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="AN212" s="31" t="s">
+      <c r="AP212" s="31" t="s">
         <v>538</v>
-      </c>
-      <c r="AO212" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP212" s="31" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.2">
@@ -31377,7 +31366,7 @@
         <v>204</v>
       </c>
       <c r="G213" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H213" s="27" t="s">
         <v>205</v>
@@ -31386,32 +31375,32 @@
         <v>206</v>
       </c>
       <c r="J213" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K213" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L213" s="27" t="s">
         <v>207</v>
       </c>
       <c r="M213" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N213" s="27"/>
       <c r="O213" s="27"/>
       <c r="P213" s="27"/>
       <c r="Q213" s="27"/>
       <c r="R213" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="S213" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="T213" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="S213" s="27" t="s">
+      <c r="U213" s="27" t="s">
         <v>546</v>
-      </c>
-      <c r="T213" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="U213" s="27" t="s">
-        <v>548</v>
       </c>
       <c r="V213" s="32">
         <v>6569</v>
@@ -31453,16 +31442,16 @@
         <v>6969</v>
       </c>
       <c r="AI213" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ213" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK213" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL213" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM213" s="32">
         <v>904</v>
@@ -31494,7 +31483,7 @@
         <v>211</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G214" s="27" t="s">
         <v>212</v>
@@ -31506,32 +31495,32 @@
         <v>214</v>
       </c>
       <c r="J214" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="K214" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="L214" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="K214" s="27" t="s">
+      <c r="M214" s="27" t="s">
         <v>552</v>
-      </c>
-      <c r="L214" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="M214" s="27" t="s">
-        <v>554</v>
       </c>
       <c r="N214" s="27"/>
       <c r="O214" s="27"/>
       <c r="P214" s="27"/>
       <c r="Q214" s="27"/>
       <c r="R214" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="S214" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="T214" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="S214" s="27" t="s">
+      <c r="U214" s="27" t="s">
         <v>556</v>
-      </c>
-      <c r="T214" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="U214" s="27" t="s">
-        <v>558</v>
       </c>
       <c r="V214" s="32">
         <v>6905</v>
@@ -31573,16 +31562,16 @@
         <v>4532</v>
       </c>
       <c r="AI214" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ214" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK214" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL214" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM214" s="32">
         <v>868</v>
@@ -31605,10 +31594,10 @@
         <v>224</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E215" s="27" t="s">
         <v>219</v>
@@ -31626,32 +31615,32 @@
         <v>228</v>
       </c>
       <c r="J215" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="K215" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="L215" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="K215" s="27" t="s">
+      <c r="M215" s="27" t="s">
         <v>560</v>
-      </c>
-      <c r="L215" s="27" t="s">
-        <v>561</v>
-      </c>
-      <c r="M215" s="27" t="s">
-        <v>562</v>
       </c>
       <c r="N215" s="27"/>
       <c r="O215" s="27"/>
       <c r="P215" s="27"/>
       <c r="Q215" s="27"/>
       <c r="R215" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="S215" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="T215" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="S215" s="27" t="s">
+      <c r="U215" s="27" t="s">
         <v>564</v>
-      </c>
-      <c r="T215" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="U215" s="27" t="s">
-        <v>566</v>
       </c>
       <c r="V215" s="32">
         <v>966</v>
@@ -31660,10 +31649,10 @@
         <v>6912</v>
       </c>
       <c r="X215" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y215" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z215" s="32">
         <v>6824</v>
@@ -31693,16 +31682,16 @@
         <v>6921</v>
       </c>
       <c r="AI215" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ215" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK215" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL215" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM215" s="32">
         <v>6733</v>
@@ -31722,7 +31711,7 @@
         <v>223</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C216" s="27" t="s">
         <v>217</v>
@@ -31737,22 +31726,22 @@
         <v>227</v>
       </c>
       <c r="G216" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H216" s="27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I216" s="27" t="s">
         <v>235</v>
       </c>
       <c r="J216" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="K216" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="L216" s="27" t="s">
         <v>569</v>
-      </c>
-      <c r="K216" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="L216" s="27" t="s">
-        <v>571</v>
       </c>
       <c r="M216" s="27" t="s">
         <v>229</v>
@@ -31765,13 +31754,13 @@
         <v>274</v>
       </c>
       <c r="S216" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="T216" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="U216" s="27" t="s">
         <v>573</v>
-      </c>
-      <c r="T216" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="U216" s="27" t="s">
-        <v>575</v>
       </c>
       <c r="V216" s="32">
         <v>961</v>
@@ -31813,16 +31802,16 @@
         <v>5240</v>
       </c>
       <c r="AI216" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ216" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK216" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL216" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM216" s="32">
         <v>6836</v>
@@ -31842,7 +31831,7 @@
         <v>236</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C217" s="27" t="s">
         <v>225</v>
@@ -31866,32 +31855,32 @@
         <v>244</v>
       </c>
       <c r="J217" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="K217" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="L217" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="K217" s="27" t="s">
+      <c r="M217" s="27" t="s">
         <v>578</v>
-      </c>
-      <c r="L217" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="M217" s="27" t="s">
-        <v>580</v>
       </c>
       <c r="N217" s="27"/>
       <c r="O217" s="27"/>
       <c r="P217" s="27"/>
       <c r="Q217" s="27"/>
       <c r="R217" s="27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S217" s="27" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="T217" s="27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="U217" s="27" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V217" s="32">
         <v>5005</v>
@@ -31933,16 +31922,16 @@
         <v>5030</v>
       </c>
       <c r="AI217" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ217" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK217" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL217" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM217" s="32">
         <v>7009</v>
@@ -31980,35 +31969,35 @@
         <v>242</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I218" s="27" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J218" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="K218" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="L218" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="K218" s="27" t="s">
+      <c r="M218" s="27" t="s">
         <v>587</v>
-      </c>
-      <c r="L218" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="M218" s="27" t="s">
-        <v>589</v>
       </c>
       <c r="N218" s="27"/>
       <c r="O218" s="27"/>
       <c r="P218" s="27"/>
       <c r="Q218" s="27"/>
       <c r="R218" s="27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="S218" s="27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="T218" s="27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="U218" s="27"/>
       <c r="V218" s="32">
@@ -32051,16 +32040,16 @@
         <v>5031</v>
       </c>
       <c r="AI218" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ218" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK218" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL218" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM218" s="32">
         <v>3353</v>
@@ -32072,7 +32061,7 @@
         <v>6795</v>
       </c>
       <c r="AP218" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="219" spans="1:42" x14ac:dyDescent="0.2">
@@ -32089,7 +32078,7 @@
         <v>247</v>
       </c>
       <c r="E219" s="27" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F219" s="27" t="s">
         <v>248</v>
@@ -32098,19 +32087,19 @@
         <v>249</v>
       </c>
       <c r="H219" s="27" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J219" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="K219" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="L219" s="27" t="s">
         <v>594</v>
-      </c>
-      <c r="K219" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="L219" s="27" t="s">
-        <v>596</v>
       </c>
       <c r="M219" s="27"/>
       <c r="N219" s="27"/>
@@ -32118,11 +32107,11 @@
       <c r="P219" s="27"/>
       <c r="Q219" s="27"/>
       <c r="R219" s="27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S219" s="29"/>
       <c r="T219" s="29" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="U219" s="29"/>
       <c r="V219" s="32">
@@ -32138,7 +32127,7 @@
         <v>898</v>
       </c>
       <c r="Z219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA219" s="32">
         <v>5805</v>
@@ -32147,7 +32136,7 @@
         <v>814</v>
       </c>
       <c r="AC219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD219" s="32">
         <v>6209</v>
@@ -32162,31 +32151,31 @@
         <v>3909</v>
       </c>
       <c r="AH219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM219" s="32">
         <v>4722</v>
       </c>
       <c r="AN219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO219" s="32">
         <v>6658</v>
       </c>
       <c r="AP219" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.2">
@@ -32209,16 +32198,16 @@
         <v>255</v>
       </c>
       <c r="G220" s="27" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H220" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I220" s="27" t="s">
         <v>256</v>
       </c>
       <c r="J220" s="27" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K220" s="27"/>
       <c r="L220" s="27"/>
@@ -32228,11 +32217,11 @@
       <c r="P220" s="27"/>
       <c r="Q220" s="27"/>
       <c r="R220" s="27" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S220" s="29"/>
       <c r="T220" s="29" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="U220" s="29"/>
       <c r="V220" s="32">
@@ -32254,7 +32243,7 @@
         <v>5874</v>
       </c>
       <c r="AB220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC220" s="32">
         <v>6978</v>
@@ -32266,42 +32255,42 @@
         <v>4148</v>
       </c>
       <c r="AF220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM220" s="32">
         <v>3975</v>
       </c>
       <c r="AN220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO220" s="32">
         <v>5879</v>
       </c>
       <c r="AP220" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A221" s="27" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B221" s="27" t="s">
         <v>258</v>
@@ -32310,22 +32299,22 @@
         <v>259</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F221" s="27" t="s">
         <v>260</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H221" s="27" t="s">
         <v>261</v>
       </c>
       <c r="I221" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J221" s="27"/>
       <c r="K221" s="27"/>
@@ -32336,11 +32325,11 @@
       <c r="P221" s="27"/>
       <c r="Q221" s="27"/>
       <c r="R221" s="27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="S221" s="29"/>
       <c r="T221" s="29" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="U221" s="29"/>
       <c r="V221" s="32">
@@ -32368,43 +32357,43 @@
         <v>6525</v>
       </c>
       <c r="AD221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM221" s="32">
         <v>933</v>
       </c>
       <c r="AN221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO221" s="32">
         <v>5763</v>
       </c>
       <c r="AP221" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.2">
@@ -32424,16 +32413,16 @@
         <v>265</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G222" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H222" s="27" t="s">
         <v>267</v>
       </c>
       <c r="I222" s="27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J222" s="27"/>
       <c r="K222" s="27"/>
@@ -32444,11 +32433,11 @@
       <c r="P222" s="27"/>
       <c r="Q222" s="27"/>
       <c r="R222" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S222" s="29"/>
       <c r="T222" s="29" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="U222" s="29"/>
       <c r="V222" s="32">
@@ -32479,40 +32468,40 @@
         <v>5028</v>
       </c>
       <c r="AE222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM222" s="32">
         <v>6893</v>
       </c>
       <c r="AN222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO222" s="32">
         <v>4862</v>
       </c>
       <c r="AP222" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.2">
@@ -32520,7 +32509,7 @@
         <v>282</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C223" s="27" t="s">
         <v>269</v>
@@ -32554,7 +32543,7 @@
       <c r="R223" s="27"/>
       <c r="S223" s="29"/>
       <c r="T223" s="29" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="U223" s="29"/>
       <c r="V223" s="32">
@@ -32585,40 +32574,40 @@
         <v>6551</v>
       </c>
       <c r="AE223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO223" s="32">
         <v>6785</v>
       </c>
       <c r="AP223" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="224" spans="1:42" x14ac:dyDescent="0.2">
@@ -32629,22 +32618,22 @@
         <v>277</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D224" s="27" t="s">
         <v>278</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G224" s="27" t="s">
         <v>273</v>
       </c>
       <c r="H224" s="27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I224" s="27" t="s">
         <v>275</v>
@@ -32683,46 +32672,46 @@
         <v>5004</v>
       </c>
       <c r="AC224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD224" s="32">
         <v>4713</v>
       </c>
       <c r="AE224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP224" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.2">
@@ -32733,7 +32722,7 @@
         <v>283</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D225" s="27" t="s">
         <v>285</v>
@@ -32748,7 +32737,7 @@
         <v>279</v>
       </c>
       <c r="H225" s="27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I225" s="27" t="s">
         <v>281</v>
@@ -32772,7 +32761,7 @@
         <v>99552</v>
       </c>
       <c r="X225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y225" s="32">
         <v>7004</v>
@@ -32793,40 +32782,40 @@
         <v>6719</v>
       </c>
       <c r="AE225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP225" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="226" spans="1:42" x14ac:dyDescent="0.2">
@@ -32873,7 +32862,7 @@
         <v>143</v>
       </c>
       <c r="W226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X226" s="32">
         <v>6924</v>
@@ -32897,40 +32886,40 @@
         <v>7013</v>
       </c>
       <c r="AE226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP226" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.2">
@@ -32941,7 +32930,7 @@
         <v>298</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D227" s="27" t="s">
         <v>300</v>
@@ -32953,13 +32942,13 @@
         <v>302</v>
       </c>
       <c r="G227" s="27" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H227" s="27" t="s">
         <v>304</v>
       </c>
       <c r="I227" s="27" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J227" s="27"/>
       <c r="K227" s="27"/>
@@ -33001,40 +32990,40 @@
         <v>7036</v>
       </c>
       <c r="AE227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP227" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.2">
@@ -33105,40 +33094,40 @@
         <v>6964</v>
       </c>
       <c r="AE228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP228" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.2">
@@ -33146,16 +33135,16 @@
         <v>325</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C229" s="27" t="s">
         <v>299</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F229" s="27" t="s">
         <v>315</v>
@@ -33194,7 +33183,7 @@
         <v>4085</v>
       </c>
       <c r="Z229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA229" s="32">
         <v>4863</v>
@@ -33209,40 +33198,40 @@
         <v>3914</v>
       </c>
       <c r="AE229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP229" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.2">
@@ -33250,25 +33239,25 @@
         <v>331</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D230" s="27" t="s">
         <v>321</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F230" s="27" t="s">
         <v>267</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H230" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I230" s="27" t="s">
         <v>318</v>
@@ -33313,40 +33302,40 @@
         <v>6947</v>
       </c>
       <c r="AE230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP230" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.2">
@@ -33417,40 +33406,40 @@
         <v>6550</v>
       </c>
       <c r="AE231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP231" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.2">
@@ -33458,7 +33447,7 @@
         <v>346</v>
       </c>
       <c r="B232" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C232" s="27" t="s">
         <v>320</v>
@@ -33479,7 +33468,7 @@
         <v>337</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J232" s="27"/>
       <c r="K232" s="27"/>
@@ -33521,40 +33510,40 @@
         <v>6591</v>
       </c>
       <c r="AE232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP232" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.2">
@@ -33565,7 +33554,7 @@
         <v>339</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D233" s="27" t="s">
         <v>340</v>
@@ -33583,7 +33572,7 @@
         <v>344</v>
       </c>
       <c r="I233" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J233" s="27"/>
       <c r="K233" s="27"/>
@@ -33604,7 +33593,7 @@
         <v>6916</v>
       </c>
       <c r="X233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y233" s="32">
         <v>773</v>
@@ -33625,40 +33614,40 @@
         <v>11545</v>
       </c>
       <c r="AE233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP233" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.2">
@@ -33666,7 +33655,7 @@
         <v>356</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C234" s="27" t="s">
         <v>332</v>
@@ -33678,7 +33667,7 @@
         <v>341</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G234" s="27" t="s">
         <v>348</v>
@@ -33729,40 +33718,40 @@
         <v>890</v>
       </c>
       <c r="AE234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP234" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.2">
@@ -33773,16 +33762,16 @@
         <v>351</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D235" s="27" t="s">
         <v>353</v>
       </c>
       <c r="E235" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G235" s="27" t="s">
         <v>354</v>
@@ -33791,7 +33780,7 @@
         <v>355</v>
       </c>
       <c r="I235" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J235" s="27"/>
       <c r="K235" s="27"/>
@@ -33830,43 +33819,43 @@
         <v>6827</v>
       </c>
       <c r="AD235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP235" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.2">
@@ -33877,13 +33866,13 @@
         <v>357</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D236" s="27" t="s">
         <v>359</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F236" s="27" t="s">
         <v>361</v>
@@ -33937,40 +33926,40 @@
         <v>5983</v>
       </c>
       <c r="AE236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP236" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.2">
@@ -33990,10 +33979,10 @@
         <v>360</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H237" s="27" t="s">
         <v>374</v>
@@ -34041,45 +34030,45 @@
         <v>6946</v>
       </c>
       <c r="AE237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP237" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A238" s="27" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B238" s="27" t="s">
         <v>371</v>
@@ -34091,13 +34080,13 @@
         <v>372</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G238" s="27" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H238" s="27" t="s">
         <v>382</v>
@@ -34130,7 +34119,7 @@
         <v>6918</v>
       </c>
       <c r="Z238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA238" s="32">
         <v>4082</v>
@@ -34145,40 +34134,40 @@
         <v>10928</v>
       </c>
       <c r="AE238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP238" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.2">
@@ -34201,7 +34190,7 @@
         <v>373</v>
       </c>
       <c r="G239" s="27" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H239" s="27" t="s">
         <v>388</v>
@@ -34249,40 +34238,40 @@
         <v>5690</v>
       </c>
       <c r="AE239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP239" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.2">
@@ -34299,7 +34288,7 @@
         <v>386</v>
       </c>
       <c r="E240" s="27" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F240" s="27" t="s">
         <v>387</v>
@@ -34308,7 +34297,7 @@
         <v>381</v>
       </c>
       <c r="H240" s="27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I240" s="27" t="s">
         <v>397</v>
@@ -34353,40 +34342,40 @@
         <v>7037</v>
       </c>
       <c r="AE240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP240" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.2">
@@ -34397,7 +34386,7 @@
         <v>391</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D241" s="27" t="s">
         <v>393</v>
@@ -34457,40 +34446,40 @@
         <v>6863</v>
       </c>
       <c r="AE241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP241" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.2">
@@ -34507,13 +34496,13 @@
         <v>401</v>
       </c>
       <c r="E242" s="27" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F242" s="27" t="s">
         <v>402</v>
       </c>
       <c r="G242" s="27" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H242" s="27" t="s">
         <v>412</v>
@@ -34561,45 +34550,45 @@
         <v>4864</v>
       </c>
       <c r="AE242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP242" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A243" s="27" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B243" s="27" t="s">
         <v>406</v>
@@ -34665,40 +34654,40 @@
         <v>6962</v>
       </c>
       <c r="AE243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP243" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="244" spans="1:42" x14ac:dyDescent="0.2">
@@ -34715,12 +34704,14 @@
         <v>416</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="G244" s="27"/>
+        <v>676</v>
+      </c>
+      <c r="G244" s="27" t="s">
+        <v>693</v>
+      </c>
       <c r="H244" s="27" t="s">
         <v>426</v>
       </c>
@@ -34755,10 +34746,10 @@
         <v>6825</v>
       </c>
       <c r="AA244" s="32" t="s">
-        <v>675</v>
-      </c>
-      <c r="AB244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
+      </c>
+      <c r="AB244" s="32">
+        <v>8976</v>
       </c>
       <c r="AC244" s="32">
         <v>6861</v>
@@ -34767,40 +34758,40 @@
         <v>5752</v>
       </c>
       <c r="AE244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP244" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.2">
@@ -34860,7 +34851,7 @@
         <v>6590</v>
       </c>
       <c r="AB245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC245" s="32">
         <v>4401</v>
@@ -34869,40 +34860,40 @@
         <v>6752</v>
       </c>
       <c r="AE245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP245" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.2">
@@ -34910,19 +34901,19 @@
         <v>439</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C246" s="27" t="s">
         <v>423</v>
       </c>
       <c r="D246" s="27" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E246" s="27" t="s">
         <v>417</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G246" s="27"/>
       <c r="H246" s="27" t="s">
@@ -34962,7 +34953,7 @@
         <v>11560</v>
       </c>
       <c r="AB246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC246" s="32">
         <v>99549</v>
@@ -34971,40 +34962,40 @@
         <v>946</v>
       </c>
       <c r="AE246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP246" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.2">
@@ -35064,7 +35055,7 @@
         <v>5985</v>
       </c>
       <c r="AB247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC247" s="32">
         <v>6910</v>
@@ -35073,40 +35064,40 @@
         <v>6737</v>
       </c>
       <c r="AE247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP247" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.2">
@@ -35114,7 +35105,7 @@
         <v>453</v>
       </c>
       <c r="B248" s="27" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C248" s="27" t="s">
         <v>434</v>
@@ -35123,7 +35114,7 @@
         <v>442</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F248" s="27" t="s">
         <v>437</v>
@@ -35151,7 +35142,7 @@
         <v>3964</v>
       </c>
       <c r="W248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X248" s="32">
         <v>99542</v>
@@ -35166,7 +35157,7 @@
         <v>6833</v>
       </c>
       <c r="AB248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC248" s="32">
         <v>99550</v>
@@ -35175,40 +35166,40 @@
         <v>6932</v>
       </c>
       <c r="AE248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP248" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.2">
@@ -35216,7 +35207,7 @@
         <v>459</v>
       </c>
       <c r="B249" s="27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C249" s="27" t="s">
         <v>441</v>
@@ -35253,7 +35244,7 @@
         <v>6980</v>
       </c>
       <c r="W249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X249" s="32">
         <v>6991</v>
@@ -35268,7 +35259,7 @@
         <v>6990</v>
       </c>
       <c r="AB249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC249" s="32">
         <v>6650</v>
@@ -35277,40 +35268,40 @@
         <v>5634</v>
       </c>
       <c r="AE249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP249" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="250" spans="1:42" x14ac:dyDescent="0.2">
@@ -35318,10 +35309,10 @@
         <v>467</v>
       </c>
       <c r="B250" s="27" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D250" s="27" t="s">
         <v>455</v>
@@ -35337,7 +35328,7 @@
         <v>471</v>
       </c>
       <c r="I250" s="27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J250" s="27"/>
       <c r="K250" s="27"/>
@@ -35370,49 +35361,49 @@
         <v>6371</v>
       </c>
       <c r="AB250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC250" s="32">
         <v>99470</v>
       </c>
       <c r="AD250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP250" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="251" spans="1:42" x14ac:dyDescent="0.2">
@@ -35470,49 +35461,49 @@
         <v>931</v>
       </c>
       <c r="AB251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC251" s="32">
         <v>6384</v>
       </c>
       <c r="AD251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP251" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.2">
@@ -35536,7 +35527,7 @@
       </c>
       <c r="G252" s="27"/>
       <c r="H252" s="27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I252" s="27"/>
       <c r="J252" s="27"/>
@@ -35570,49 +35561,49 @@
         <v>4866</v>
       </c>
       <c r="AB252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC252" s="32">
         <v>5981</v>
       </c>
       <c r="AD252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP252" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.2">
@@ -35620,7 +35611,7 @@
         <v>482</v>
       </c>
       <c r="B253" s="27" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C253" s="27" t="s">
         <v>468</v>
@@ -35636,7 +35627,7 @@
       </c>
       <c r="G253" s="27"/>
       <c r="H253" s="27" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I253" s="27"/>
       <c r="J253" s="27"/>
@@ -35670,49 +35661,49 @@
         <v>6214</v>
       </c>
       <c r="AB253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP253" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.2">
@@ -35723,7 +35714,7 @@
         <v>460</v>
       </c>
       <c r="C254" s="27" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D254" s="27" t="s">
         <v>484</v>
@@ -35768,63 +35759,63 @@
         <v>6954</v>
       </c>
       <c r="AB254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP254" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A255" s="27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B255" s="27" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C255" s="27" t="s">
         <v>478</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E255" s="27" t="s">
         <v>480</v>
@@ -35866,49 +35857,49 @@
         <v>5462</v>
       </c>
       <c r="AB255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP255" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.2">
@@ -35916,10 +35907,10 @@
         <v>493</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C256" s="27" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D256" s="27" t="s">
         <v>496</v>
@@ -35964,60 +35955,60 @@
         <v>7035</v>
       </c>
       <c r="AB256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP256" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A257" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B257" s="27" t="s">
         <v>483</v>
       </c>
       <c r="C257" s="27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D257" s="27" t="s">
         <v>501</v>
@@ -36062,49 +36053,49 @@
         <v>5692</v>
       </c>
       <c r="AB257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP257" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.2">
@@ -36117,11 +36108,9 @@
       <c r="C258" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="D258" s="27" t="s">
-        <v>505</v>
-      </c>
+      <c r="D258" s="27"/>
       <c r="E258" s="27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F258" s="27" t="s">
         <v>492</v>
@@ -36150,9 +36139,7 @@
       <c r="X258" s="32">
         <v>6729</v>
       </c>
-      <c r="Y258" s="32">
-        <v>3992</v>
-      </c>
+      <c r="Y258" s="32"/>
       <c r="Z258" s="32">
         <v>5509</v>
       </c>
@@ -36160,64 +36147,64 @@
         <v>6993</v>
       </c>
       <c r="AB258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP258" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A259" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B259" s="27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C259" s="27" t="s">
         <v>495</v>
       </c>
       <c r="D259" s="27"/>
       <c r="E259" s="27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F259" s="27" t="s">
         <v>498</v>
@@ -36241,13 +36228,13 @@
         <v>5347</v>
       </c>
       <c r="W259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X259" s="32">
         <v>998</v>
       </c>
       <c r="Y259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z259" s="32">
         <v>4888</v>
@@ -36256,54 +36243,54 @@
         <v>6734</v>
       </c>
       <c r="AB259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP259" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A260" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B260" s="27" t="s">
         <v>490</v>
@@ -36313,7 +36300,7 @@
       </c>
       <c r="D260" s="27"/>
       <c r="E260" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F260" s="27"/>
       <c r="G260" s="27"/>
@@ -36341,63 +36328,63 @@
         <v>6887</v>
       </c>
       <c r="Y260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z260" s="32">
         <v>6958</v>
       </c>
       <c r="AA260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP260" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A261" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B261" s="27" t="s">
         <v>494</v>
@@ -36435,69 +36422,69 @@
         <v>3920</v>
       </c>
       <c r="Y261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z261" s="32">
         <v>99543</v>
       </c>
       <c r="AA261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP261" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A262" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B262" s="27" t="s">
         <v>499</v>
       </c>
       <c r="C262" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D262" s="27"/>
       <c r="E262" s="27"/>
@@ -36527,69 +36514,67 @@
         <v>5026</v>
       </c>
       <c r="Y262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP262" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A263" s="27" t="s">
-        <v>515</v>
-      </c>
+      <c r="A263" s="27"/>
       <c r="B263" s="27" t="s">
         <v>503</v>
       </c>
       <c r="C263" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D263" s="27"/>
       <c r="E263" s="27"/>
@@ -36609,9 +36594,7 @@
       <c r="S263" s="29"/>
       <c r="T263" s="29"/>
       <c r="U263" s="29"/>
-      <c r="V263" s="32">
-        <v>688</v>
-      </c>
+      <c r="V263" s="32"/>
       <c r="W263" s="32">
         <v>7014</v>
       </c>
@@ -36619,67 +36602,67 @@
         <v>6660</v>
       </c>
       <c r="Y263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP263" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C264" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D264" s="27"/>
       <c r="E264" s="27"/>
@@ -36700,7 +36683,7 @@
       <c r="T264" s="29"/>
       <c r="U264" s="29"/>
       <c r="V264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="W264" s="32">
         <v>6939</v>
@@ -36709,64 +36692,64 @@
         <v>6853</v>
       </c>
       <c r="Y264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP264" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C265" s="27"/>
       <c r="D265" s="27"/>
@@ -36788,73 +36771,73 @@
       <c r="T265" s="29"/>
       <c r="U265" s="29"/>
       <c r="V265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="W265" s="32">
         <v>6923</v>
       </c>
       <c r="X265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP265" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C266" s="27"/>
       <c r="D266" s="27"/>
@@ -36876,73 +36859,73 @@
       <c r="T266" s="29"/>
       <c r="U266" s="29"/>
       <c r="V266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="W266" s="32">
         <v>6911</v>
       </c>
       <c r="X266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP266" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C267" s="27"/>
       <c r="D267" s="27"/>
@@ -36964,73 +36947,73 @@
       <c r="T267" s="29"/>
       <c r="U267" s="29"/>
       <c r="V267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="W267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP267" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="268" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C268" s="27"/>
       <c r="D268" s="27"/>
@@ -37052,73 +37035,73 @@
       <c r="T268" s="29"/>
       <c r="U268" s="29"/>
       <c r="V268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="W268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP268" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C269" s="27"/>
       <c r="D269" s="27"/>
@@ -37140,73 +37123,73 @@
       <c r="T269" s="29"/>
       <c r="U269" s="29"/>
       <c r="V269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="W269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP269" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="270" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C270" s="27"/>
       <c r="D270" s="27"/>
@@ -37228,67 +37211,67 @@
       <c r="T270" s="29"/>
       <c r="U270" s="29"/>
       <c r="V270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="W270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="X270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AB270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AD270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AE270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AI270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AJ270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AK270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AO270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AP270" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.2">
@@ -39671,7 +39654,7 @@
         <v>1</v>
       </c>
       <c r="E410" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -39688,7 +39671,7 @@
         <v>1</v>
       </c>
       <c r="E411" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -39705,7 +39688,7 @@
         <v>1</v>
       </c>
       <c r="E412" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -39722,7 +39705,7 @@
         <v>1</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -39739,7 +39722,7 @@
         <v>1</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -39909,7 +39892,7 @@
         <v>1</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -40417,7 +40400,7 @@
       </c>
       <c r="F2" s="3">
         <f>Sheet1!F2</f>
-        <v>3000</v>
+        <v>5325</v>
       </c>
       <c r="G2" s="3">
         <f>Sheet1!G2</f>
@@ -40433,7 +40416,7 @@
       </c>
       <c r="J2" s="3">
         <f>Sheet1!K2</f>
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="K2" s="3">
         <f>Sheet1!L2</f>
@@ -40465,11 +40448,11 @@
       </c>
       <c r="R2" s="3">
         <f>Sheet1!U2</f>
-        <v>340</v>
+        <v>1317.5</v>
       </c>
       <c r="S2" s="3">
         <f>Sheet1!V2</f>
-        <v>780.30000000000007</v>
+        <v>289</v>
       </c>
       <c r="T2" s="3">
         <f>Sheet1!W2</f>
@@ -40481,7 +40464,7 @@
       </c>
       <c r="V2" s="3">
         <f>Sheet1!Y2</f>
-        <v>1271.6000000000001</v>
+        <v>527</v>
       </c>
       <c r="W2" s="3">
         <f>Sheet1!AA2</f>
@@ -40489,11 +40472,11 @@
       </c>
       <c r="X2" s="3">
         <f>Sheet1!AB2</f>
-        <v>606.9</v>
+        <v>297.5</v>
       </c>
       <c r="Y2" s="3">
         <f>Sheet1!AC2</f>
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="3">
         <f>Sheet1!AD2</f>
@@ -40771,11 +40754,11 @@
       </c>
       <c r="C5" s="3">
         <f>Sheet1!C5</f>
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="D5" s="3">
         <f>Sheet1!D5</f>
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="3">
         <f>Sheet1!E5</f>
@@ -40835,7 +40818,7 @@
       </c>
       <c r="S5" s="3">
         <f>Sheet1!V5</f>
-        <v>650</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="T5" s="3">
         <f>Sheet1!W5</f>
@@ -40843,7 +40826,7 @@
       </c>
       <c r="U5" s="3">
         <f>Sheet1!X5</f>
-        <v>2048</v>
+        <v>432</v>
       </c>
       <c r="V5" s="3">
         <f>Sheet1!Y5</f>
@@ -41015,11 +40998,11 @@
       </c>
       <c r="C7" s="3">
         <f>Sheet1!C7</f>
-        <v>6555</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <f>Sheet1!D7</f>
-        <v>6900</v>
+        <v>8970</v>
       </c>
       <c r="E7" s="3">
         <f>Sheet1!E7</f>
@@ -41059,7 +41042,7 @@
       </c>
       <c r="N7" s="3">
         <f>Sheet1!O7</f>
-        <v>2200</v>
+        <v>1265</v>
       </c>
       <c r="O7" s="3">
         <f>Sheet1!P7</f>
@@ -41067,7 +41050,7 @@
       </c>
       <c r="P7" s="3">
         <f>Sheet1!Q7+Sheet1!R7+Sheet1!S7</f>
-        <v>2310</v>
+        <v>3570</v>
       </c>
       <c r="Q7" s="3">
         <f>Sheet1!T7</f>
@@ -41107,7 +41090,7 @@
       </c>
       <c r="Z7" s="3">
         <f>Sheet1!AD7</f>
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="3">
         <f>Sheet1!AE7+Sheet1!Z7</f>
@@ -41259,11 +41242,11 @@
       </c>
       <c r="C9" s="3">
         <f>Sheet1!C9</f>
-        <v>3450</v>
+        <v>11040</v>
       </c>
       <c r="D9" s="3">
         <f>Sheet1!D9</f>
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <f>Sheet1!E9</f>
@@ -41271,7 +41254,7 @@
       </c>
       <c r="F9" s="3">
         <f>Sheet1!F9</f>
-        <v>1680</v>
+        <v>2800</v>
       </c>
       <c r="G9" s="3">
         <f>Sheet1!G9</f>
@@ -41339,11 +41322,11 @@
       </c>
       <c r="W9" s="3">
         <f>Sheet1!AA9</f>
-        <v>2310</v>
+        <v>1890</v>
       </c>
       <c r="X9" s="3">
         <f>Sheet1!AB9</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="Y9" s="3">
         <f>Sheet1!AC9</f>
@@ -41363,7 +41346,7 @@
       </c>
       <c r="AC9" s="3">
         <f>Sheet1!AG9</f>
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AD9" s="3">
         <f>Sheet1!AH9+Sheet1!AI9</f>
@@ -41503,11 +41486,11 @@
       </c>
       <c r="C11" s="3">
         <f>Sheet1!C11</f>
-        <v>2721.6</v>
+        <v>3888</v>
       </c>
       <c r="D11" s="3">
         <f>Sheet1!D11</f>
-        <v>3570</v>
+        <v>952</v>
       </c>
       <c r="E11" s="3">
         <f>Sheet1!E11</f>
@@ -41515,7 +41498,7 @@
       </c>
       <c r="F11" s="3">
         <f>Sheet1!F11</f>
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="G11" s="3">
         <f>Sheet1!G11</f>
@@ -41539,7 +41522,7 @@
       </c>
       <c r="L11" s="3">
         <f>Sheet1!M11</f>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="M11" s="3">
         <f>Sheet1!N11</f>
@@ -41551,7 +41534,7 @@
       </c>
       <c r="O11" s="3">
         <f>Sheet1!P11</f>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3">
         <f>Sheet1!Q11+Sheet1!R11+Sheet1!S11</f>
@@ -41559,7 +41542,7 @@
       </c>
       <c r="Q11" s="3">
         <f>Sheet1!T11</f>
-        <v>1480</v>
+        <v>1300</v>
       </c>
       <c r="R11" s="3">
         <f>Sheet1!U11</f>
@@ -41611,7 +41594,7 @@
       </c>
       <c r="AD11" s="3">
         <f>Sheet1!AH11+Sheet1!AI11</f>
-        <v>2160</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -41625,11 +41608,11 @@
       </c>
       <c r="C12" s="3">
         <f>Sheet1!C12</f>
-        <v>3308.8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <f>Sheet1!D12</f>
-        <v>5185</v>
+        <v>1555.5</v>
       </c>
       <c r="E12" s="3">
         <f>Sheet1!E12</f>
@@ -41637,7 +41620,7 @@
       </c>
       <c r="F12" s="3">
         <f>Sheet1!F12</f>
-        <v>6110</v>
+        <v>7150</v>
       </c>
       <c r="G12" s="3">
         <f>Sheet1!G12</f>
@@ -41673,7 +41656,7 @@
       </c>
       <c r="O12" s="3">
         <f>Sheet1!P12</f>
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="P12" s="3">
         <f>Sheet1!Q12+Sheet1!R12+Sheet1!S12</f>
@@ -41681,7 +41664,7 @@
       </c>
       <c r="Q12" s="3">
         <f>Sheet1!T12</f>
-        <v>2500</v>
+        <v>4140</v>
       </c>
       <c r="R12" s="3">
         <f>Sheet1!U12</f>
@@ -41733,7 +41716,7 @@
       </c>
       <c r="AD12" s="3">
         <f>Sheet1!AH12+Sheet1!AI12</f>
-        <v>6480</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -41747,11 +41730,11 @@
       </c>
       <c r="C13" s="3">
         <f>Sheet1!C13</f>
-        <v>1504</v>
+        <v>10528</v>
       </c>
       <c r="D13" s="3">
         <f>Sheet1!D13</f>
-        <v>0</v>
+        <v>7777.5</v>
       </c>
       <c r="E13" s="3">
         <f>Sheet1!E13</f>
@@ -41759,7 +41742,7 @@
       </c>
       <c r="F13" s="3">
         <f>Sheet1!F13</f>
-        <v>4160</v>
+        <v>2210</v>
       </c>
       <c r="G13" s="3">
         <f>Sheet1!G13</f>
@@ -41795,7 +41778,7 @@
       </c>
       <c r="O13" s="3">
         <f>Sheet1!P13</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
         <f>Sheet1!Q13+Sheet1!R13+Sheet1!S13</f>
@@ -41803,7 +41786,7 @@
       </c>
       <c r="Q13" s="3">
         <f>Sheet1!T13</f>
-        <v>1060</v>
+        <v>480</v>
       </c>
       <c r="R13" s="3">
         <f>Sheet1!U13</f>
@@ -41855,7 +41838,7 @@
       </c>
       <c r="AD13" s="3">
         <f>Sheet1!AH13+Sheet1!AI13</f>
-        <v>1080</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -41869,19 +41852,19 @@
       </c>
       <c r="C14" s="3">
         <f>Sheet1!C14</f>
-        <v>1715</v>
+        <v>5659.5</v>
       </c>
       <c r="D14" s="3">
         <f>Sheet1!D14</f>
-        <v>216</v>
+        <v>2376</v>
       </c>
       <c r="E14" s="3">
         <f>Sheet1!E14</f>
-        <v>8464.5</v>
+        <v>9091.5</v>
       </c>
       <c r="F14" s="3">
         <f>Sheet1!F14</f>
-        <v>268.8</v>
+        <v>2240</v>
       </c>
       <c r="G14" s="3">
         <f>Sheet1!G14</f>
@@ -41901,7 +41884,7 @@
       </c>
       <c r="K14" s="3">
         <f>Sheet1!L14</f>
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="L14" s="3">
         <f>Sheet1!M14</f>
@@ -41909,7 +41892,7 @@
       </c>
       <c r="M14" s="3">
         <f>Sheet1!N14</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="N14" s="3">
         <f>Sheet1!O14</f>
@@ -41925,7 +41908,7 @@
       </c>
       <c r="Q14" s="3">
         <f>Sheet1!T14</f>
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <f>Sheet1!U14</f>
@@ -41977,7 +41960,7 @@
       </c>
       <c r="AD14" s="3">
         <f>Sheet1!AH14+Sheet1!AI14</f>
-        <v>2232</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -41991,19 +41974,19 @@
       </c>
       <c r="C15" s="3">
         <f>Sheet1!C15</f>
-        <v>8580</v>
+        <v>2244</v>
       </c>
       <c r="D15" s="3">
         <f>Sheet1!D15</f>
-        <v>9594</v>
+        <v>3510</v>
       </c>
       <c r="E15" s="3">
         <f>Sheet1!E15</f>
-        <v>4608</v>
+        <v>6912</v>
       </c>
       <c r="F15" s="3">
         <f>Sheet1!F15</f>
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
         <f>Sheet1!G15</f>
@@ -42023,11 +42006,11 @@
       </c>
       <c r="K15" s="3">
         <f>Sheet1!L15</f>
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="L15" s="3">
         <f>Sheet1!M15</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M15" s="3">
         <f>Sheet1!N15</f>
@@ -42047,7 +42030,7 @@
       </c>
       <c r="Q15" s="3">
         <f>Sheet1!T15</f>
-        <v>2268</v>
+        <v>630</v>
       </c>
       <c r="R15" s="3">
         <f>Sheet1!U15</f>
@@ -42099,7 +42082,7 @@
       </c>
       <c r="AD15" s="3">
         <f>Sheet1!AH15+Sheet1!AI15</f>
-        <v>2088</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -42113,19 +42096,19 @@
       </c>
       <c r="C16" s="3">
         <f>Sheet1!C16</f>
-        <v>13282.5</v>
+        <v>7161</v>
       </c>
       <c r="D16" s="3">
         <f>Sheet1!D16</f>
-        <v>2772</v>
+        <v>4950</v>
       </c>
       <c r="E16" s="3">
         <f>Sheet1!E16</f>
-        <v>15660</v>
+        <v>9180</v>
       </c>
       <c r="F16" s="3">
         <f>Sheet1!F16</f>
-        <v>2850</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="3">
         <f>Sheet1!G16</f>
@@ -42145,15 +42128,15 @@
       </c>
       <c r="K16" s="3">
         <f>Sheet1!L16</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L16" s="3">
         <f>Sheet1!M16</f>
-        <v>126</v>
+        <v>880</v>
       </c>
       <c r="M16" s="3">
         <f>Sheet1!N16</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3">
         <f>Sheet1!O16</f>
@@ -42169,7 +42152,7 @@
       </c>
       <c r="Q16" s="3">
         <f>Sheet1!T16</f>
-        <v>63</v>
+        <v>3255</v>
       </c>
       <c r="R16" s="3">
         <f>Sheet1!U16</f>
@@ -42221,7 +42204,7 @@
       </c>
       <c r="AD16" s="3">
         <f>Sheet1!AH16+Sheet1!AI16</f>
-        <v>4032</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -42357,11 +42340,11 @@
       </c>
       <c r="C18" s="3">
         <f>Sheet1!C18</f>
-        <v>15708</v>
+        <v>18793.5</v>
       </c>
       <c r="D18" s="3">
         <f>Sheet1!D18</f>
-        <v>8415</v>
+        <v>5610</v>
       </c>
       <c r="E18" s="3">
         <f>Sheet1!E18</f>
@@ -42369,7 +42352,7 @@
       </c>
       <c r="F18" s="3">
         <f>Sheet1!F18</f>
-        <v>400</v>
+        <v>1416</v>
       </c>
       <c r="G18" s="3">
         <f>Sheet1!G18</f>
@@ -42385,7 +42368,7 @@
       </c>
       <c r="J18" s="3">
         <f>Sheet1!K18</f>
-        <v>1601.6000000000001</v>
+        <v>4065.6</v>
       </c>
       <c r="K18" s="3">
         <f>Sheet1!L18</f>
@@ -42409,7 +42392,7 @@
       </c>
       <c r="P18" s="3">
         <f>Sheet1!Q18+Sheet1!R18+Sheet1!S18</f>
-        <v>1064</v>
+        <v>1596</v>
       </c>
       <c r="Q18" s="3">
         <f>Sheet1!T18</f>
@@ -42457,7 +42440,7 @@
       </c>
       <c r="AB18" s="3">
         <f>Sheet1!AF18</f>
-        <v>9216</v>
+        <v>6336</v>
       </c>
       <c r="AC18" s="3">
         <f>Sheet1!AG18</f>
@@ -42579,7 +42562,7 @@
       </c>
       <c r="AB19" s="3">
         <f>Sheet1!AF19</f>
-        <v>7128</v>
+        <v>9720</v>
       </c>
       <c r="AC19" s="3">
         <f>Sheet1!AG19</f>
@@ -42723,11 +42706,11 @@
       </c>
       <c r="C21" s="3">
         <f>Sheet1!C21</f>
-        <v>9600</v>
+        <v>13600</v>
       </c>
       <c r="D21" s="3">
         <f>Sheet1!D21</f>
-        <v>4752</v>
+        <v>1944</v>
       </c>
       <c r="E21" s="3">
         <f>Sheet1!E21</f>
@@ -42735,7 +42718,7 @@
       </c>
       <c r="F21" s="3">
         <f>Sheet1!F21</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G21" s="3">
         <f>Sheet1!G21</f>
@@ -42747,7 +42730,7 @@
       </c>
       <c r="I21" s="3">
         <f>Sheet1!J21</f>
-        <v>3200</v>
+        <v>240</v>
       </c>
       <c r="J21" s="3">
         <f>Sheet1!K21</f>
@@ -42759,7 +42742,7 @@
       </c>
       <c r="L21" s="3">
         <f>Sheet1!M21</f>
-        <v>459.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <f>Sheet1!N21</f>
@@ -42775,7 +42758,7 @@
       </c>
       <c r="P21" s="3">
         <f>Sheet1!Q21+Sheet1!R21+Sheet1!S21</f>
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="Q21" s="3">
         <f>Sheet1!T21</f>
@@ -42799,7 +42782,7 @@
       </c>
       <c r="V21" s="3">
         <f>Sheet1!Y21</f>
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="W21" s="3">
         <f>Sheet1!AA21</f>
@@ -42823,7 +42806,7 @@
       </c>
       <c r="AB21" s="3">
         <f>Sheet1!AF21</f>
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="AC21" s="3">
         <f>Sheet1!AG21</f>
@@ -42845,11 +42828,11 @@
       </c>
       <c r="C22" s="3">
         <f>Sheet1!C22</f>
-        <v>4116</v>
+        <v>588</v>
       </c>
       <c r="D22" s="3">
         <f>Sheet1!D22</f>
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="3">
         <f>Sheet1!E22</f>
@@ -42857,7 +42840,7 @@
       </c>
       <c r="F22" s="3">
         <f>Sheet1!F22</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <f>Sheet1!G22</f>
@@ -42869,7 +42852,7 @@
       </c>
       <c r="I22" s="3">
         <f>Sheet1!J22</f>
-        <v>6439.9999999999991</v>
+        <v>3500</v>
       </c>
       <c r="J22" s="3">
         <f>Sheet1!K22</f>
@@ -42881,11 +42864,11 @@
       </c>
       <c r="L22" s="3">
         <f>Sheet1!M22</f>
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="M22" s="3">
         <f>Sheet1!N22</f>
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <f>Sheet1!O22</f>
@@ -42897,7 +42880,7 @@
       </c>
       <c r="P22" s="3">
         <f>Sheet1!Q22+Sheet1!R22+Sheet1!S22</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <f>Sheet1!T22</f>
@@ -42921,7 +42904,7 @@
       </c>
       <c r="V22" s="3">
         <f>Sheet1!Y22</f>
-        <v>1792</v>
+        <v>1032</v>
       </c>
       <c r="W22" s="3">
         <f>Sheet1!AA22</f>
@@ -42945,7 +42928,7 @@
       </c>
       <c r="AB22" s="3">
         <f>Sheet1!AF22</f>
-        <v>1040</v>
+        <v>2320</v>
       </c>
       <c r="AC22" s="3">
         <f>Sheet1!AG22</f>
@@ -42967,11 +42950,11 @@
       </c>
       <c r="C23" s="3">
         <f>Sheet1!C23</f>
-        <v>5760</v>
+        <v>2400</v>
       </c>
       <c r="D23" s="3">
         <f>Sheet1!D23</f>
-        <v>216</v>
+        <v>1944</v>
       </c>
       <c r="E23" s="3">
         <f>Sheet1!E23</f>
@@ -42991,7 +42974,7 @@
       </c>
       <c r="I23" s="3">
         <f>Sheet1!J23</f>
-        <v>960</v>
+        <v>3040</v>
       </c>
       <c r="J23" s="3">
         <f>Sheet1!K23</f>
@@ -43003,7 +42986,7 @@
       </c>
       <c r="L23" s="3">
         <f>Sheet1!M23</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <f>Sheet1!N23</f>
@@ -43019,7 +43002,7 @@
       </c>
       <c r="P23" s="3">
         <f>Sheet1!Q23+Sheet1!R23+Sheet1!S23</f>
-        <v>930</v>
+        <v>750</v>
       </c>
       <c r="Q23" s="3">
         <f>Sheet1!T23</f>
@@ -43043,7 +43026,7 @@
       </c>
       <c r="V23" s="3">
         <f>Sheet1!Y23</f>
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="W23" s="3">
         <f>Sheet1!AA23</f>
@@ -43067,7 +43050,7 @@
       </c>
       <c r="AB23" s="3">
         <f>Sheet1!AF23</f>
-        <v>576</v>
+        <v>192</v>
       </c>
       <c r="AC23" s="3">
         <f>Sheet1!AG23</f>
@@ -43089,11 +43072,11 @@
       </c>
       <c r="C24" s="3">
         <f>Sheet1!C24</f>
-        <v>1323</v>
+        <v>1058.4000000000001</v>
       </c>
       <c r="D24" s="3">
         <f>Sheet1!D24</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E24" s="3">
         <f>Sheet1!E24</f>
@@ -43125,11 +43108,11 @@
       </c>
       <c r="L24" s="3">
         <f>Sheet1!M24</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M24" s="3">
         <f>Sheet1!N24</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="N24" s="3">
         <f>Sheet1!O24</f>
@@ -43165,7 +43148,7 @@
       </c>
       <c r="V24" s="3">
         <f>Sheet1!Y24</f>
-        <v>1080</v>
+        <v>486</v>
       </c>
       <c r="W24" s="3">
         <f>Sheet1!AA24</f>
@@ -43189,7 +43172,7 @@
       </c>
       <c r="AB24" s="3">
         <f>Sheet1!AF24</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="3">
         <f>Sheet1!AG24</f>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="794">
   <si>
     <t>MPI</t>
   </si>
@@ -276,9 +276,6 @@
     <t>1522 / 1523 (10/20)</t>
   </si>
   <si>
-    <t>1540 (30)</t>
-  </si>
-  <si>
     <t>1539 (30)</t>
   </si>
   <si>
@@ -315,21 +312,12 @@
     <t>1800 / 1801 (10/20)</t>
   </si>
   <si>
-    <t>1543 / 776 (30)</t>
-  </si>
-  <si>
     <t>1529 (30)</t>
   </si>
   <si>
-    <t>1804 (40)</t>
-  </si>
-  <si>
     <t>1805 (40)</t>
   </si>
   <si>
-    <t>1806 (50)</t>
-  </si>
-  <si>
     <t>1808 (60)</t>
   </si>
   <si>
@@ -705,9 +693,6 @@
     <t>Mike Ward</t>
   </si>
   <si>
-    <t>Alvin John;</t>
-  </si>
-  <si>
     <t>Belayneh Beyene;</t>
   </si>
   <si>
@@ -909,9 +894,6 @@
     <t>Dwayne Mceown;</t>
   </si>
   <si>
-    <t>Dennis Macumber</t>
-  </si>
-  <si>
     <t>Mark Pongratz;</t>
   </si>
   <si>
@@ -1056,9 +1038,6 @@
     <t>Maria Veloso</t>
   </si>
   <si>
-    <t>Robert Reid</t>
-  </si>
-  <si>
     <t>Geoff Lockwood</t>
   </si>
   <si>
@@ -1128,18 +1107,12 @@
     <t>Jasmine Rafuse;</t>
   </si>
   <si>
-    <t>Leroy Gibson</t>
-  </si>
-  <si>
     <t>Maria Costanzo-Paola</t>
   </si>
   <si>
     <t>Mark Harris</t>
   </si>
   <si>
-    <t>Shubham Salecha</t>
-  </si>
-  <si>
     <t>Parth Patel;</t>
   </si>
   <si>
@@ -1407,9 +1380,6 @@
     <t>Trish Jordan</t>
   </si>
   <si>
-    <t>Stanley Jose</t>
-  </si>
-  <si>
     <t>Todd MacDonald</t>
   </si>
   <si>
@@ -1746,9 +1716,6 @@
     <t>Jolan Lewis</t>
   </si>
   <si>
-    <t>Julie Broderick-Clarke</t>
-  </si>
-  <si>
     <t>Joseph Doogan</t>
   </si>
   <si>
@@ -1764,9 +1731,6 @@
     <t>Charles Robert Fraser;</t>
   </si>
   <si>
-    <t>Keota Khamphilavong</t>
-  </si>
-  <si>
     <t>Sidney Vandermeer;</t>
   </si>
   <si>
@@ -2235,9 +2199,6 @@
     <t>Rimple Rimple</t>
   </si>
   <si>
-    <t>Wanda Cleaveley</t>
-  </si>
-  <si>
     <t>Natalya Hare</t>
   </si>
   <si>
@@ -2271,9 +2232,6 @@
     <t>Kelton Americano</t>
   </si>
   <si>
-    <t>Spandan Jariwala;</t>
-  </si>
-  <si>
     <t>Jubin Chacko;</t>
   </si>
   <si>
@@ -2292,15 +2250,9 @@
     <t>Arun Abraham;</t>
   </si>
   <si>
-    <t>Ravi Swaminathan;</t>
-  </si>
-  <si>
     <t>Jared James</t>
   </si>
   <si>
-    <t>Bronson Higgs</t>
-  </si>
-  <si>
     <t>Alosious Vamattam</t>
   </si>
   <si>
@@ -2328,61 +2280,136 @@
     <t>Harsh Patel;</t>
   </si>
   <si>
-    <t>Jaykumar Patel</t>
-  </si>
-  <si>
-    <t>Spandan Jariwala</t>
-  </si>
-  <si>
-    <t>333u</t>
-  </si>
-  <si>
-    <t>332u</t>
-  </si>
-  <si>
-    <t>349u</t>
-  </si>
-  <si>
-    <t>314s</t>
-  </si>
-  <si>
-    <t>316s</t>
-  </si>
-  <si>
-    <t>316u</t>
-  </si>
-  <si>
-    <t>314u</t>
-  </si>
-  <si>
-    <t>331s</t>
-  </si>
-  <si>
-    <t>331u</t>
-  </si>
-  <si>
     <t>50-5810</t>
   </si>
   <si>
-    <t>341u</t>
-  </si>
-  <si>
-    <t>342u</t>
-  </si>
-  <si>
-    <t>343u</t>
-  </si>
-  <si>
-    <t>346u</t>
-  </si>
-  <si>
-    <t>344u</t>
-  </si>
-  <si>
-    <t>345u</t>
-  </si>
-  <si>
     <t>50-1713</t>
+  </si>
+  <si>
+    <t>James Kuepfer;</t>
+  </si>
+  <si>
+    <t>Ruth Ann Dobbin</t>
+  </si>
+  <si>
+    <t>Muhammed Riyaz Pandyala-Parambil;</t>
+  </si>
+  <si>
+    <t>Nihas Noushad;</t>
+  </si>
+  <si>
+    <t>Faizan Rangrej;</t>
+  </si>
+  <si>
+    <t>Vikshit Patel;</t>
+  </si>
+  <si>
+    <t>Maulik Panchani;</t>
+  </si>
+  <si>
+    <t>Kishan Patel;</t>
+  </si>
+  <si>
+    <t>Aditya Nagpal;</t>
+  </si>
+  <si>
+    <t>Jaymeet Patel;</t>
+  </si>
+  <si>
+    <t>Vishalkumar Kyada;</t>
+  </si>
+  <si>
+    <t>Vishnu Ravindran;</t>
+  </si>
+  <si>
+    <t>Vishnu Sagar Kuttikattuparambil Sadhanandan;</t>
+  </si>
+  <si>
+    <t>Priyam Vyas</t>
+  </si>
+  <si>
+    <t>Tanmay Thakre</t>
+  </si>
+  <si>
+    <t>349u.0</t>
+  </si>
+  <si>
+    <t>314s.0</t>
+  </si>
+  <si>
+    <t>316s.0</t>
+  </si>
+  <si>
+    <t>316u.0</t>
+  </si>
+  <si>
+    <t>344u.0</t>
+  </si>
+  <si>
+    <t>333u.0</t>
+  </si>
+  <si>
+    <t>332u.0</t>
+  </si>
+  <si>
+    <t>314u.0</t>
+  </si>
+  <si>
+    <t>331s.0</t>
+  </si>
+  <si>
+    <t>331u.0</t>
+  </si>
+  <si>
+    <t>341u.0</t>
+  </si>
+  <si>
+    <t>342u.0</t>
+  </si>
+  <si>
+    <t>343u.0</t>
+  </si>
+  <si>
+    <t>346u.0</t>
+  </si>
+  <si>
+    <t>345u.0</t>
+  </si>
+  <si>
+    <t>1806 (50) - 1813(110)</t>
+  </si>
+  <si>
+    <t>Robert Reid;</t>
+  </si>
+  <si>
+    <t>1540 (30) / 1539 (30)</t>
+  </si>
+  <si>
+    <t>1529/1543 / 776 (30)</t>
+  </si>
+  <si>
+    <t>1804 (40) / 1805(40)</t>
+  </si>
+  <si>
+    <t>Nolwen Keraval</t>
+  </si>
+  <si>
+    <t>Karen Vanderlinden</t>
+  </si>
+  <si>
+    <t>Robert Wilson</t>
+  </si>
+  <si>
+    <t>Sara Wood</t>
+  </si>
+  <si>
+    <t>Ananthu Mohan;</t>
+  </si>
+  <si>
+    <t>Kan Sang Chang</t>
+  </si>
+  <si>
+    <t>Gunner Nicholls</t>
   </si>
 </sst>
 </file>
@@ -2914,7 +2941,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP724"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V213" sqref="V213:AP271"/>
     </sheetView>
   </sheetViews>
@@ -3066,7 +3093,7 @@
     </row>
     <row r="2" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3140,7 +3167,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3165,24 +3192,24 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="6" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="6" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="6" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="AK3" s="7">
         <v>0</v>
@@ -3245,7 +3272,7 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="AK4" s="7">
         <v>44151.43029236111</v>
@@ -3259,7 +3286,7 @@
     </row>
     <row r="5" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -3389,7 +3416,7 @@
     </row>
     <row r="7" spans="1:40" s="9" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6">
@@ -3457,7 +3484,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3475,35 +3502,35 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="6" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="6" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="6" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="AH8" s="6">
         <v>0</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="AK8" s="7">
         <v>44151.43029236111</v>
@@ -3647,7 +3674,7 @@
     </row>
     <row r="11" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="6">
@@ -3714,7 +3741,7 @@
     </row>
     <row r="12" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="6">
@@ -3779,7 +3806,7 @@
     </row>
     <row r="13" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="6">
@@ -3844,7 +3871,7 @@
     </row>
     <row r="14" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6">
@@ -3915,7 +3942,7 @@
     </row>
     <row r="15" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6">
@@ -3987,7 +4014,7 @@
     </row>
     <row r="16" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6">
@@ -4056,7 +4083,7 @@
     </row>
     <row r="17" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="6">
@@ -4123,7 +4150,7 @@
     </row>
     <row r="18" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="6">
@@ -4193,7 +4220,7 @@
     </row>
     <row r="19" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6">
@@ -4248,7 +4275,7 @@
     </row>
     <row r="20" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="6">
@@ -4317,7 +4344,7 @@
     </row>
     <row r="21" spans="1:40" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11">
@@ -4390,7 +4417,7 @@
     </row>
     <row r="22" spans="1:40" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="12">
@@ -4459,7 +4486,7 @@
     </row>
     <row r="23" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="6">
@@ -4532,7 +4559,7 @@
     </row>
     <row r="24" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="6">
@@ -5408,123 +5435,123 @@
     </row>
     <row r="44" spans="1:39" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="M44" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="N44" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="O44" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="P44" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="Q44" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="R44" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="S44" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="T44" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="U44" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="V44" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="W44" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="X44" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="Y44" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="N44" s="17" t="s">
+      <c r="Z44" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="O44" s="17" t="s">
+      <c r="AA44" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="AB44" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="Q44" s="17" t="s">
+      <c r="AC44" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="R44" s="17" t="s">
+      <c r="AD44" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="S44" s="17" t="s">
+      <c r="AE44" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="T44" s="17" t="s">
+      <c r="AF44" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="U44" s="17" t="s">
+      <c r="AG44" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="V44" s="17" t="s">
+      <c r="AH44" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="W44" s="17" t="s">
+      <c r="AI44" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="X44" s="17" t="s">
+      <c r="AJ44" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="Y44" s="17" t="s">
+      <c r="AK44" s="17" t="s">
         <v>678</v>
-      </c>
-      <c r="Z44" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA44" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB44" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="AC44" s="17" t="s">
-        <v>682</v>
-      </c>
-      <c r="AD44" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="AE44" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="AF44" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="AG44" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="AH44" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="AI44" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="AJ44" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="AK44" s="17" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C45" s="8">
         <v>0</v>
@@ -5637,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C46" s="8">
         <v>0</v>
@@ -5750,7 +5777,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -5860,10 +5887,10 @@
     </row>
     <row r="48" spans="1:39" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C48" s="8">
         <v>0</v>
@@ -5976,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C49" s="8">
         <v>0</v>
@@ -6086,10 +6113,10 @@
     </row>
     <row r="50" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C50" s="8">
         <v>0</v>
@@ -6202,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C51" s="8">
         <v>0</v>
@@ -6312,10 +6339,10 @@
     </row>
     <row r="52" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C52" s="8">
         <v>720</v>
@@ -6425,10 +6452,10 @@
     </row>
     <row r="53" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C53" s="8">
         <v>0</v>
@@ -6541,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C54" s="8">
         <v>0</v>
@@ -6651,10 +6678,10 @@
     </row>
     <row r="55" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C55" s="8">
         <v>0</v>
@@ -6767,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C56" s="8">
         <v>0</v>
@@ -6877,10 +6904,10 @@
     </row>
     <row r="57" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C57" s="8">
         <v>720</v>
@@ -6990,10 +7017,10 @@
     </row>
     <row r="58" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="C58" s="8">
         <v>0</v>
@@ -7103,10 +7130,10 @@
     </row>
     <row r="59" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C59" s="8">
         <v>0</v>
@@ -7219,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C60" s="8">
         <v>0</v>
@@ -7329,10 +7356,10 @@
     </row>
     <row r="61" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C61" s="8">
         <v>0</v>
@@ -7445,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C62" s="8">
         <v>0</v>
@@ -7555,10 +7582,10 @@
     </row>
     <row r="63" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C63" s="8">
         <v>0</v>
@@ -7671,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C64" s="8">
         <v>0</v>
@@ -7781,10 +7808,10 @@
     </row>
     <row r="65" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C65" s="8">
         <v>0</v>
@@ -7894,10 +7921,10 @@
     </row>
     <row r="66" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C66" s="8">
         <v>0</v>
@@ -8007,10 +8034,10 @@
     </row>
     <row r="67" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C67" s="8">
         <v>0</v>
@@ -8123,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C68" s="8">
         <v>0</v>
@@ -8236,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C69" s="8">
         <v>0</v>
@@ -8349,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C70" s="8">
         <v>0</v>
@@ -8459,10 +8486,10 @@
     </row>
     <row r="71" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C71" s="8">
         <v>0</v>
@@ -8575,7 +8602,7 @@
         <v>35</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C72" s="8">
         <v>0</v>
@@ -8688,7 +8715,7 @@
         <v>34</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="C73" s="8">
         <v>0</v>
@@ -8801,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C74" s="8">
         <v>0</v>
@@ -8914,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C75" s="8">
         <v>0</v>
@@ -9024,10 +9051,10 @@
     </row>
     <row r="76" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C76" s="8">
         <v>0</v>
@@ -9137,10 +9164,10 @@
     </row>
     <row r="77" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C77" s="8">
         <v>0</v>
@@ -9253,7 +9280,7 @@
         <v>42</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C78" s="8">
         <v>0</v>
@@ -9363,10 +9390,10 @@
     </row>
     <row r="79" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C79" s="8">
         <v>0</v>
@@ -9476,10 +9503,10 @@
     </row>
     <row r="80" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C80" s="8">
         <v>0</v>
@@ -9589,10 +9616,10 @@
     </row>
     <row r="81" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C81" s="8">
         <v>0</v>
@@ -9702,10 +9729,10 @@
     </row>
     <row r="82" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C82" s="8">
         <v>0</v>
@@ -9815,10 +9842,10 @@
     </row>
     <row r="83" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C83" s="8">
         <v>0</v>
@@ -9928,10 +9955,10 @@
     </row>
     <row r="84" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C84" s="8">
         <v>0</v>
@@ -10041,10 +10068,10 @@
     </row>
     <row r="85" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C85" s="8">
         <v>0</v>
@@ -10154,10 +10181,10 @@
     </row>
     <row r="86" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C86" s="8">
         <v>0</v>
@@ -10267,10 +10294,10 @@
     </row>
     <row r="87" spans="1:37" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C87" s="8">
         <v>0</v>
@@ -13438,25 +13465,25 @@
     </row>
     <row r="118" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="H118" s="8">
         <v>0</v>
@@ -13476,7 +13503,7 @@
     </row>
     <row r="119" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B119" s="8">
         <v>0</v>
@@ -13562,7 +13589,7 @@
     </row>
     <row r="120" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B120" s="8">
         <v>0</v>
@@ -13648,7 +13675,7 @@
     </row>
     <row r="121" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B121" s="8">
         <v>0</v>
@@ -13734,7 +13761,7 @@
     </row>
     <row r="122" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B122" s="8">
         <v>0</v>
@@ -13820,7 +13847,7 @@
     </row>
     <row r="123" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B123" s="8">
         <v>0</v>
@@ -13906,7 +13933,7 @@
     </row>
     <row r="124" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B124" s="8">
         <v>0</v>
@@ -13992,7 +14019,7 @@
     </row>
     <row r="125" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B125" s="8">
         <v>0</v>
@@ -14078,7 +14105,7 @@
     </row>
     <row r="126" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B126" s="8">
         <v>0</v>
@@ -14164,7 +14191,7 @@
     </row>
     <row r="127" spans="1:37" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B127" s="8">
         <v>6916</v>
@@ -14508,7 +14535,7 @@
     </row>
     <row r="131" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B131" s="8">
         <v>0</v>
@@ -14680,7 +14707,7 @@
     </row>
     <row r="133" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B133" s="8">
         <v>0</v>
@@ -14766,7 +14793,7 @@
     </row>
     <row r="134" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B134" s="8">
         <v>0</v>
@@ -14852,7 +14879,7 @@
     </row>
     <row r="135" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B135" s="8">
         <v>0</v>
@@ -14938,7 +14965,7 @@
     </row>
     <row r="136" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B136" s="8">
         <v>0</v>
@@ -15024,7 +15051,7 @@
     </row>
     <row r="137" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B137" s="8">
         <v>0</v>
@@ -21132,187 +21159,185 @@
     <row r="209" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="212" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A212" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="C212" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="E212" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="F212" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="H212" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="I212" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="J212" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="K212" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="B212" s="28" t="s">
+      <c r="L212" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="M212" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="D212" s="28" t="s">
+      <c r="N212" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="E212" s="28" t="s">
+      <c r="O212" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="F212" s="28" t="s">
+      <c r="P212" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="G212" s="28" t="s">
+      <c r="Q212" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="H212" s="28" t="s">
+      <c r="R212" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="I212" s="28" t="s">
+      <c r="S212" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="J212" s="28" t="s">
+      <c r="T212" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="K212" s="28" t="s">
+      <c r="U212" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="L212" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="M212" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="N212" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="O212" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="P212" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q212" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="R212" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="S212" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="T212" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="U212" s="28" t="s">
-        <v>487</v>
-      </c>
       <c r="V212" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="W212" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="X212" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y212" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z212" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA212" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB212" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC212" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD212" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE212" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF212" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="W212" s="30" t="s">
+      <c r="AG212" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="X212" s="30" t="s">
+      <c r="AH212" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="Y212" s="30" t="s">
+      <c r="AI212" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="Z212" s="31" t="s">
+      <c r="AJ212" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="AA212" s="31" t="s">
+      <c r="AK212" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="AB212" s="31" t="s">
+      <c r="AL212" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="AC212" s="31" t="s">
+      <c r="AM212" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="AD212" s="31" t="s">
+      <c r="AN212" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="AE212" s="31" t="s">
+      <c r="AO212" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="AF212" s="31" t="s">
+      <c r="AP212" s="31" t="s">
         <v>477</v>
-      </c>
-      <c r="AG212" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH212" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="AI212" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="AJ212" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK212" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="AL212" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM212" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="AN212" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="AO212" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="AP212" s="31" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A213" s="27" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C213" s="27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D213" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E213" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G213" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E213" s="27" t="s">
+      <c r="J213" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="K213" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="L213" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F213" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="G213" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="H213" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="I213" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="J213" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="K213" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="L213" s="27" t="s">
-        <v>205</v>
-      </c>
       <c r="M213" s="27" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="N213" s="27"/>
       <c r="O213" s="27"/>
       <c r="P213" s="27"/>
       <c r="Q213" s="27"/>
       <c r="R213" s="27" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="S213" s="27" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="T213" s="27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="U213" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="V213" s="32">
         <v>6569</v>
@@ -21336,7 +21361,7 @@
         <v>6907</v>
       </c>
       <c r="AC213" s="32">
-        <v>6269</v>
+        <v>0</v>
       </c>
       <c r="AD213" s="32">
         <v>6891</v>
@@ -21380,59 +21405,59 @@
     </row>
     <row r="214" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A214" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B214" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E214" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="F214" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D214" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E214" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F214" s="27" t="s">
-        <v>217</v>
-      </c>
       <c r="G214" s="27" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H214" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I214" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="I214" s="27" t="s">
-        <v>223</v>
-      </c>
       <c r="J214" s="27" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="K214" s="27" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L214" s="27" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M214" s="27" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="N214" s="27"/>
       <c r="O214" s="27"/>
       <c r="P214" s="27"/>
       <c r="Q214" s="27"/>
       <c r="R214" s="27" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="S214" s="27" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="T214" s="27" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="U214" s="27" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="V214" s="32">
         <v>6905</v>
@@ -21447,7 +21472,7 @@
         <v>7065</v>
       </c>
       <c r="Z214" s="32">
-        <v>6748</v>
+        <v>11362</v>
       </c>
       <c r="AA214" s="32">
         <v>6645</v>
@@ -21456,7 +21481,7 @@
         <v>614</v>
       </c>
       <c r="AC214" s="32">
-        <v>6856</v>
+        <v>6269</v>
       </c>
       <c r="AD214" s="32">
         <v>6329</v>
@@ -21500,59 +21525,59 @@
     </row>
     <row r="215" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A215" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="E215" s="27" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="G215" s="27" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="H215" s="27" t="s">
-        <v>512</v>
+        <v>215</v>
       </c>
       <c r="I215" s="27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J215" s="27" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K215" s="27" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L215" s="27" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="M215" s="27" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="N215" s="27"/>
       <c r="O215" s="27"/>
       <c r="P215" s="27"/>
       <c r="Q215" s="27"/>
       <c r="R215" s="27" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="S215" s="27" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="T215" s="27" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="U215" s="27" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="V215" s="32">
         <v>966</v>
@@ -21561,13 +21586,13 @@
         <v>6912</v>
       </c>
       <c r="X215" s="32">
-        <v>6859</v>
+        <v>6935</v>
       </c>
       <c r="Y215" s="32">
         <v>7094</v>
       </c>
       <c r="Z215" s="32">
-        <v>6824</v>
+        <v>6748</v>
       </c>
       <c r="AA215" s="32">
         <v>7168</v>
@@ -21576,7 +21601,7 @@
         <v>7097</v>
       </c>
       <c r="AC215" s="32">
-        <v>6857</v>
+        <v>6856</v>
       </c>
       <c r="AD215" s="32">
         <v>6623</v>
@@ -21591,7 +21616,7 @@
         <v>188</v>
       </c>
       <c r="AH215" s="32">
-        <v>6921</v>
+        <v>4688</v>
       </c>
       <c r="AI215" s="32">
         <v>0</v>
@@ -21620,59 +21645,59 @@
     </row>
     <row r="216" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A216" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>231</v>
+        <v>717</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G216" s="27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H216" s="27" t="s">
-        <v>236</v>
+        <v>502</v>
       </c>
       <c r="I216" s="27" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J216" s="27" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K216" s="27" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L216" s="27" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="M216" s="27" t="s">
-        <v>224</v>
+        <v>496</v>
       </c>
       <c r="N216" s="27"/>
       <c r="O216" s="27"/>
       <c r="P216" s="27"/>
       <c r="Q216" s="27"/>
       <c r="R216" s="27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="S216" s="27" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="T216" s="27" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="U216" s="27" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="V216" s="32">
         <v>961</v>
@@ -21681,13 +21706,13 @@
         <v>116</v>
       </c>
       <c r="X216" s="32">
-        <v>6935</v>
+        <v>7132</v>
       </c>
       <c r="Y216" s="32">
         <v>671</v>
       </c>
       <c r="Z216" s="32">
-        <v>6966</v>
+        <v>6824</v>
       </c>
       <c r="AA216" s="32">
         <v>6930</v>
@@ -21696,7 +21721,7 @@
         <v>6908</v>
       </c>
       <c r="AC216" s="32">
-        <v>6716</v>
+        <v>6857</v>
       </c>
       <c r="AD216" s="32">
         <v>4525</v>
@@ -21711,7 +21736,7 @@
         <v>5024</v>
       </c>
       <c r="AH216" s="32">
-        <v>5240</v>
+        <v>6921</v>
       </c>
       <c r="AI216" s="32">
         <v>0</v>
@@ -21740,59 +21765,59 @@
     </row>
     <row r="217" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A217" s="27" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C217" s="27" t="s">
-        <v>729</v>
+        <v>244</v>
       </c>
       <c r="D217" s="27" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="E217" s="27" t="s">
-        <v>731</v>
+        <v>218</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G217" s="27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H217" s="27" t="s">
-        <v>577</v>
+        <v>231</v>
       </c>
       <c r="I217" s="27" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="J217" s="27" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="K217" s="27" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="L217" s="27" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M217" s="27" t="s">
-        <v>524</v>
+        <v>220</v>
       </c>
       <c r="N217" s="27"/>
       <c r="O217" s="27"/>
       <c r="P217" s="27"/>
       <c r="Q217" s="27"/>
       <c r="R217" s="27" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="S217" s="27" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="T217" s="27" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="U217" s="27" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="V217" s="32">
         <v>5463</v>
@@ -21801,13 +21826,13 @@
         <v>7150</v>
       </c>
       <c r="X217" s="32">
-        <v>7132</v>
+        <v>6547</v>
       </c>
       <c r="Y217" s="32">
         <v>7177</v>
       </c>
       <c r="Z217" s="32">
-        <v>7127</v>
+        <v>6966</v>
       </c>
       <c r="AA217" s="32">
         <v>5805</v>
@@ -21816,7 +21841,7 @@
         <v>4141</v>
       </c>
       <c r="AC217" s="32">
-        <v>4721</v>
+        <v>6716</v>
       </c>
       <c r="AD217" s="32">
         <v>6209</v>
@@ -21831,7 +21856,7 @@
         <v>5348</v>
       </c>
       <c r="AH217" s="32">
-        <v>5030</v>
+        <v>5240</v>
       </c>
       <c r="AI217" s="32">
         <v>0</v>
@@ -21860,57 +21885,57 @@
     </row>
     <row r="218" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A218" s="27" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E218" s="27" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G218" s="27" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="I218" s="27" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J218" s="27" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K218" s="27"/>
       <c r="L218" s="27" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="M218" s="27" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="N218" s="27"/>
       <c r="O218" s="27"/>
       <c r="P218" s="27"/>
       <c r="Q218" s="27"/>
       <c r="R218" s="27" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="S218" s="27" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="T218" s="27" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="U218" s="27" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="V218" s="32">
         <v>5005</v>
@@ -21919,13 +21944,13 @@
         <v>10739</v>
       </c>
       <c r="X218" s="32">
-        <v>6547</v>
+        <v>5637</v>
       </c>
       <c r="Y218" s="32">
         <v>844</v>
       </c>
       <c r="Z218" s="32">
-        <v>6933</v>
+        <v>7127</v>
       </c>
       <c r="AA218" s="32">
         <v>5874</v>
@@ -21934,7 +21959,7 @@
         <v>814</v>
       </c>
       <c r="AC218" s="32">
-        <v>6978</v>
+        <v>4721</v>
       </c>
       <c r="AD218" s="32">
         <v>6796</v>
@@ -21949,7 +21974,7 @@
         <v>6956</v>
       </c>
       <c r="AH218" s="32">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="AI218" s="32">
         <v>0</v>
@@ -21978,55 +22003,57 @@
     </row>
     <row r="219" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A219" s="27" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C219" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D219" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E219" s="27" t="s">
-        <v>227</v>
+        <v>743</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G219" s="27" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="H219" s="27" t="s">
-        <v>250</v>
+        <v>525</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="J219" s="27" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K219" s="27"/>
       <c r="L219" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="M219" s="27"/>
+        <v>513</v>
+      </c>
+      <c r="M219" s="27" t="s">
+        <v>521</v>
+      </c>
       <c r="N219" s="27"/>
       <c r="O219" s="27"/>
       <c r="P219" s="27"/>
       <c r="Q219" s="27"/>
       <c r="R219" s="27" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="S219" s="29" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="T219" s="29" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="U219" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="V219" s="32">
         <v>3347</v>
@@ -22035,13 +22062,13 @@
         <v>6766</v>
       </c>
       <c r="X219" s="32">
-        <v>5637</v>
+        <v>6573</v>
       </c>
       <c r="Y219" s="32">
         <v>727</v>
       </c>
       <c r="Z219" s="32">
-        <v>4706</v>
+        <v>6933</v>
       </c>
       <c r="AA219" s="32">
         <v>4714</v>
@@ -22050,7 +22077,7 @@
         <v>4933</v>
       </c>
       <c r="AC219" s="32">
-        <v>6525</v>
+        <v>6978</v>
       </c>
       <c r="AD219" s="32">
         <v>5028</v>
@@ -22065,7 +22092,7 @@
         <v>940</v>
       </c>
       <c r="AH219" s="32">
-        <v>0</v>
+        <v>5031</v>
       </c>
       <c r="AI219" s="32">
         <v>0</v>
@@ -22094,38 +22121,38 @@
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A220" s="27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C220" s="27" t="s">
-        <v>257</v>
+        <v>576</v>
       </c>
       <c r="D220" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F220" s="27" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G220" s="27" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H220" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I220" s="27" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J220" s="27" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="K220" s="27"/>
       <c r="L220" s="27" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="M220" s="27"/>
       <c r="N220" s="27"/>
@@ -22133,16 +22160,16 @@
       <c r="P220" s="27"/>
       <c r="Q220" s="27"/>
       <c r="R220" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="S220" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="T220" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="S220" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="T220" s="29" t="s">
-        <v>549</v>
-      </c>
       <c r="U220" s="29" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="V220" s="32">
         <v>4011</v>
@@ -22151,13 +22178,13 @@
         <v>7156</v>
       </c>
       <c r="X220" s="32">
-        <v>6573</v>
+        <v>6382</v>
       </c>
       <c r="Y220" s="32">
         <v>898</v>
       </c>
       <c r="Z220" s="32">
-        <v>4285</v>
+        <v>4706</v>
       </c>
       <c r="AA220" s="32">
         <v>6773</v>
@@ -22166,7 +22193,7 @@
         <v>3375</v>
       </c>
       <c r="AC220" s="32">
-        <v>6624</v>
+        <v>6525</v>
       </c>
       <c r="AD220" s="32">
         <v>6551</v>
@@ -22210,38 +22237,38 @@
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A221" s="27" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B221" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C221" s="27" t="s">
-        <v>588</v>
+        <v>266</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>756</v>
+        <v>547</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>617</v>
+        <v>228</v>
       </c>
       <c r="F221" s="27" t="s">
-        <v>557</v>
+        <v>269</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H221" s="27" t="s">
-        <v>558</v>
+        <v>250</v>
       </c>
       <c r="I221" s="27" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J221" s="27" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="K221" s="27"/>
       <c r="L221" s="27" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="M221" s="27"/>
       <c r="N221" s="27"/>
@@ -22249,14 +22276,14 @@
       <c r="P221" s="27"/>
       <c r="Q221" s="27"/>
       <c r="R221" s="27" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="S221" s="29"/>
       <c r="T221" s="29" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="U221" s="29" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="V221" s="32">
         <v>942</v>
@@ -22265,28 +22292,28 @@
         <v>5636</v>
       </c>
       <c r="X221" s="32">
-        <v>6382</v>
+        <v>6924</v>
       </c>
       <c r="Y221" s="32">
-        <v>5938</v>
+        <v>5495</v>
       </c>
       <c r="Z221" s="32">
-        <v>7088</v>
+        <v>4285</v>
       </c>
       <c r="AA221" s="32">
-        <v>5495</v>
+        <v>6983</v>
       </c>
       <c r="AB221" s="32">
         <v>5318</v>
       </c>
       <c r="AC221" s="32">
-        <v>5691</v>
+        <v>6624</v>
       </c>
       <c r="AD221" s="32">
         <v>4713</v>
       </c>
       <c r="AE221" s="32">
-        <v>6923</v>
+        <v>4148</v>
       </c>
       <c r="AF221" s="32">
         <v>0</v>
@@ -22324,35 +22351,33 @@
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A222" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C222" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="E222" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="G222" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H222" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="I222" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="B222" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C222" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="D222" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="E222" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="F222" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="G222" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="H222" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="I222" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="J222" s="27" t="s">
-        <v>541</v>
-      </c>
+      <c r="J222" s="27"/>
       <c r="K222" s="27"/>
       <c r="L222" s="27"/>
       <c r="M222" s="27"/>
@@ -22361,11 +22386,11 @@
       <c r="P222" s="27"/>
       <c r="Q222" s="27"/>
       <c r="R222" s="27" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="S222" s="29"/>
       <c r="T222" s="29" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="U222" s="29"/>
       <c r="V222" s="32">
@@ -22375,28 +22400,28 @@
         <v>6843</v>
       </c>
       <c r="X222" s="32">
-        <v>6924</v>
+        <v>7183</v>
       </c>
       <c r="Y222" s="32">
         <v>905</v>
       </c>
       <c r="Z222" s="32">
-        <v>7090</v>
+        <v>7088</v>
       </c>
       <c r="AA222" s="32">
-        <v>6983</v>
+        <v>7169</v>
       </c>
       <c r="AB222" s="32">
         <v>5004</v>
       </c>
       <c r="AC222" s="32">
-        <v>6867</v>
+        <v>5691</v>
       </c>
       <c r="AD222" s="32">
         <v>6719</v>
       </c>
       <c r="AE222" s="32">
-        <v>4148</v>
+        <v>0</v>
       </c>
       <c r="AF222" s="32">
         <v>0</v>
@@ -22434,31 +22459,31 @@
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A223" s="27" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>555</v>
+        <v>273</v>
       </c>
       <c r="D223" s="27" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E223" s="27" t="s">
-        <v>545</v>
+        <v>720</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I223" s="27" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J223" s="27"/>
       <c r="K223" s="27"/>
@@ -22470,9 +22495,7 @@
       <c r="Q223" s="27"/>
       <c r="R223" s="27"/>
       <c r="S223" s="29"/>
-      <c r="T223" s="29" t="s">
-        <v>311</v>
-      </c>
+      <c r="T223" s="29"/>
       <c r="U223" s="29"/>
       <c r="V223" s="32">
         <v>6886</v>
@@ -22481,22 +22504,22 @@
         <v>6860</v>
       </c>
       <c r="X223" s="32">
-        <v>4688</v>
+        <v>6544</v>
       </c>
       <c r="Y223" s="32">
         <v>4286</v>
       </c>
       <c r="Z223" s="32">
-        <v>11548</v>
+        <v>7090</v>
       </c>
       <c r="AA223" s="32">
-        <v>6937</v>
+        <v>4863</v>
       </c>
       <c r="AB223" s="32">
         <v>7149</v>
       </c>
       <c r="AC223" s="32">
-        <v>7061</v>
+        <v>6867</v>
       </c>
       <c r="AD223" s="32">
         <v>7013</v>
@@ -22532,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="AO223" s="32">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="AP223" s="32">
         <v>0</v>
@@ -22540,31 +22563,31 @@
     </row>
     <row r="224" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A224" s="27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B224" s="27" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>760</v>
+        <v>551</v>
       </c>
       <c r="D224" s="27" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>253</v>
+        <v>535</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="G224" s="27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H224" s="27" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I224" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="J224" s="27"/>
       <c r="K224" s="27"/>
@@ -22585,22 +22608,22 @@
         <v>6402</v>
       </c>
       <c r="X224" s="32">
-        <v>7183</v>
+        <v>609</v>
       </c>
       <c r="Y224" s="32">
         <v>5015</v>
       </c>
       <c r="Z224" s="32">
-        <v>6914</v>
+        <v>11548</v>
       </c>
       <c r="AA224" s="32">
-        <v>7169</v>
+        <v>7154</v>
       </c>
       <c r="AB224" s="32">
         <v>3729</v>
       </c>
       <c r="AC224" s="32">
-        <v>6794</v>
+        <v>7061</v>
       </c>
       <c r="AD224" s="32">
         <v>7036</v>
@@ -22644,31 +22667,31 @@
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A225" s="27" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>278</v>
+        <v>738</v>
       </c>
       <c r="D225" s="27" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E225" s="27" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>297</v>
+        <v>749</v>
       </c>
       <c r="G225" s="27" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H225" s="27" t="s">
-        <v>565</v>
+        <v>288</v>
       </c>
       <c r="I225" s="27" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J225" s="27"/>
       <c r="K225" s="27"/>
@@ -22689,22 +22712,22 @@
         <v>5880</v>
       </c>
       <c r="X225" s="32">
-        <v>6544</v>
+        <v>7165</v>
       </c>
       <c r="Y225" s="32">
         <v>3377</v>
       </c>
       <c r="Z225" s="32">
-        <v>4932</v>
+        <v>6914</v>
       </c>
       <c r="AA225" s="32">
-        <v>4863</v>
+        <v>6972</v>
       </c>
       <c r="AB225" s="32">
         <v>172</v>
       </c>
       <c r="AC225" s="32">
-        <v>1052</v>
+        <v>6794</v>
       </c>
       <c r="AD225" s="32">
         <v>3914</v>
@@ -22748,31 +22771,31 @@
     </row>
     <row r="226" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A226" s="27" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E226" s="27" t="s">
-        <v>556</v>
+        <v>254</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>743</v>
+        <v>301</v>
       </c>
       <c r="G226" s="27" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H226" s="27" t="s">
-        <v>733</v>
+        <v>555</v>
       </c>
       <c r="I226" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J226" s="27"/>
       <c r="K226" s="27"/>
@@ -22793,22 +22816,22 @@
         <v>6913</v>
       </c>
       <c r="X226" s="32">
-        <v>609</v>
+        <v>6738</v>
       </c>
       <c r="Y226" s="32">
         <v>7004</v>
       </c>
       <c r="Z226" s="32">
-        <v>4707</v>
+        <v>4932</v>
       </c>
       <c r="AA226" s="32">
-        <v>7154</v>
+        <v>6888</v>
       </c>
       <c r="AB226" s="32">
         <v>6849</v>
       </c>
       <c r="AC226" s="32">
-        <v>7124</v>
+        <v>1052</v>
       </c>
       <c r="AD226" s="32">
         <v>6947</v>
@@ -22852,31 +22875,31 @@
     </row>
     <row r="227" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A227" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>752</v>
+        <v>561</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E227" s="27" t="s">
-        <v>273</v>
+        <v>546</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>765</v>
+        <v>304</v>
       </c>
       <c r="G227" s="27" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H227" s="27" t="s">
-        <v>312</v>
+        <v>721</v>
       </c>
       <c r="I227" s="27" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J227" s="27"/>
       <c r="K227" s="27"/>
@@ -22897,22 +22920,22 @@
         <v>7044</v>
       </c>
       <c r="X227" s="32">
-        <v>7165</v>
+        <v>3933</v>
       </c>
       <c r="Y227" s="32">
         <v>3451</v>
       </c>
       <c r="Z227" s="32">
-        <v>5014</v>
+        <v>4707</v>
       </c>
       <c r="AA227" s="32">
-        <v>6972</v>
+        <v>6950</v>
       </c>
       <c r="AB227" s="32">
         <v>996</v>
       </c>
       <c r="AC227" s="32">
-        <v>6832</v>
+        <v>7124</v>
       </c>
       <c r="AD227" s="32">
         <v>6550</v>
@@ -22956,31 +22979,31 @@
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A228" s="27" t="s">
-        <v>300</v>
+        <v>752</v>
       </c>
       <c r="B228" s="27" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>616</v>
+        <v>320</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>284</v>
+        <v>756</v>
       </c>
       <c r="E228" s="27" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>307</v>
+        <v>746</v>
       </c>
       <c r="G228" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H228" s="27" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="I228" s="27" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J228" s="27"/>
       <c r="K228" s="27"/>
@@ -22995,28 +23018,28 @@
       <c r="T228" s="29"/>
       <c r="U228" s="29"/>
       <c r="V228" s="32">
-        <v>197</v>
+        <v>769</v>
       </c>
       <c r="W228" s="32">
         <v>895</v>
       </c>
       <c r="X228" s="32">
-        <v>6738</v>
+        <v>5316</v>
       </c>
       <c r="Y228" s="32">
-        <v>7045</v>
+        <v>11830</v>
       </c>
       <c r="Z228" s="32">
-        <v>6953</v>
+        <v>5014</v>
       </c>
       <c r="AA228" s="32">
-        <v>6888</v>
+        <v>7175</v>
       </c>
       <c r="AB228" s="32">
         <v>3930</v>
       </c>
       <c r="AC228" s="32">
-        <v>6712</v>
+        <v>6832</v>
       </c>
       <c r="AD228" s="32">
         <v>6591</v>
@@ -23060,31 +23083,31 @@
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A229" s="27" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>571</v>
+        <v>792</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G229" s="27" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H229" s="27" t="s">
-        <v>323</v>
+        <v>787</v>
       </c>
       <c r="I229" s="27" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="J229" s="27"/>
       <c r="K229" s="27"/>
@@ -23099,28 +23122,28 @@
       <c r="T229" s="29"/>
       <c r="U229" s="29"/>
       <c r="V229" s="32">
-        <v>630</v>
+        <v>197</v>
       </c>
       <c r="W229" s="32">
         <v>6372</v>
       </c>
-      <c r="X229" s="32">
-        <v>3933</v>
+      <c r="X229" s="32" t="s">
+        <v>792</v>
       </c>
       <c r="Y229" s="32">
-        <v>3988</v>
+        <v>7045</v>
       </c>
       <c r="Z229" s="32">
-        <v>6735</v>
+        <v>6953</v>
       </c>
       <c r="AA229" s="32">
-        <v>6950</v>
+        <v>4408</v>
       </c>
       <c r="AB229" s="32">
         <v>6915</v>
       </c>
-      <c r="AC229" s="32">
-        <v>6901</v>
+      <c r="AC229" s="32" t="s">
+        <v>787</v>
       </c>
       <c r="AD229" s="32">
         <v>11545</v>
@@ -23164,31 +23187,31 @@
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A230" s="27" t="s">
-        <v>742</v>
+        <v>298</v>
       </c>
       <c r="B230" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E230" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="G230" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="C230" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="D230" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="E230" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="F230" s="27" t="s">
-        <v>762</v>
-      </c>
-      <c r="G230" s="27" t="s">
-        <v>311</v>
-      </c>
       <c r="H230" s="27" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="I230" s="27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J230" s="27"/>
       <c r="K230" s="27"/>
@@ -23202,29 +23225,29 @@
       <c r="S230" s="29"/>
       <c r="T230" s="29"/>
       <c r="U230" s="29"/>
-      <c r="V230" s="32">
-        <v>7138</v>
+      <c r="V230" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="W230" s="32">
         <v>5233</v>
       </c>
       <c r="X230" s="32">
-        <v>4292</v>
+        <v>4853</v>
       </c>
       <c r="Y230" s="32">
-        <v>4085</v>
+        <v>3988</v>
       </c>
       <c r="Z230" s="32">
-        <v>994</v>
+        <v>6735</v>
       </c>
       <c r="AA230" s="32">
-        <v>7175</v>
+        <v>6961</v>
       </c>
       <c r="AB230" s="32">
         <v>902</v>
       </c>
       <c r="AC230" s="32">
-        <v>6827</v>
+        <v>6712</v>
       </c>
       <c r="AD230" s="32">
         <v>890</v>
@@ -23268,31 +23291,31 @@
     </row>
     <row r="231" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A231" s="27" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B231" s="27" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>306</v>
+        <v>552</v>
       </c>
       <c r="E231" s="27" t="s">
-        <v>624</v>
+        <v>287</v>
       </c>
       <c r="F231" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="G231" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H231" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="G231" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="H231" s="27" t="s">
-        <v>342</v>
-      </c>
       <c r="I231" s="27" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="J231" s="27"/>
       <c r="K231" s="27"/>
@@ -23307,28 +23330,28 @@
       <c r="T231" s="29"/>
       <c r="U231" s="29"/>
       <c r="V231" s="32">
-        <v>7141</v>
+        <v>7138</v>
       </c>
       <c r="W231" s="32">
         <v>6959</v>
       </c>
       <c r="X231" s="32">
-        <v>5316</v>
+        <v>3927</v>
       </c>
       <c r="Y231" s="32">
-        <v>6948</v>
+        <v>4085</v>
       </c>
       <c r="Z231" s="32">
-        <v>7107</v>
+        <v>994</v>
       </c>
       <c r="AA231" s="32">
-        <v>4408</v>
+        <v>7069</v>
       </c>
       <c r="AB231" s="32">
         <v>1036</v>
       </c>
       <c r="AC231" s="32">
-        <v>7174</v>
+        <v>6901</v>
       </c>
       <c r="AD231" s="32">
         <v>4717</v>
@@ -23372,31 +23395,31 @@
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A232" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="B232" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="B232" s="27" t="s">
-        <v>314</v>
-      </c>
       <c r="C232" s="27" t="s">
-        <v>332</v>
+        <v>619</v>
       </c>
       <c r="D232" s="27" t="s">
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="J232" s="27"/>
       <c r="K232" s="27"/>
@@ -23411,28 +23434,28 @@
       <c r="T232" s="29"/>
       <c r="U232" s="29"/>
       <c r="V232" s="32">
-        <v>6852</v>
+        <v>7141</v>
       </c>
       <c r="W232" s="32">
         <v>6916</v>
       </c>
       <c r="X232" s="32">
-        <v>4853</v>
+        <v>7129</v>
       </c>
       <c r="Y232" s="32">
-        <v>7104</v>
+        <v>6948</v>
       </c>
       <c r="Z232" s="32">
-        <v>6810</v>
+        <v>7107</v>
       </c>
       <c r="AA232" s="32">
-        <v>6961</v>
+        <v>4082</v>
       </c>
       <c r="AB232" s="32">
         <v>6989</v>
       </c>
       <c r="AC232" s="32">
-        <v>6786</v>
+        <v>6827</v>
       </c>
       <c r="AD232" s="32">
         <v>7162</v>
@@ -23476,31 +23499,31 @@
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A233" s="27" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B233" s="27" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>348</v>
+        <v>568</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>309</v>
+        <v>613</v>
       </c>
       <c r="E233" s="27" t="s">
-        <v>301</v>
+        <v>793</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H233" s="27" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="I233" s="27" t="s">
-        <v>346</v>
+        <v>788</v>
       </c>
       <c r="J233" s="27"/>
       <c r="K233" s="27"/>
@@ -23515,31 +23538,31 @@
       <c r="T233" s="29"/>
       <c r="U233" s="29"/>
       <c r="V233" s="32">
-        <v>6973</v>
+        <v>6852</v>
       </c>
       <c r="W233" s="32">
         <v>10743</v>
       </c>
       <c r="X233" s="32">
-        <v>3927</v>
+        <v>702</v>
       </c>
       <c r="Y233" s="32">
-        <v>5232</v>
-      </c>
-      <c r="Z233" s="32">
-        <v>7073</v>
+        <v>7104</v>
+      </c>
+      <c r="Z233" s="32" t="s">
+        <v>793</v>
       </c>
       <c r="AA233" s="32">
-        <v>7069</v>
+        <v>5689</v>
       </c>
       <c r="AB233" s="32">
         <v>6743</v>
       </c>
       <c r="AC233" s="32">
-        <v>6884</v>
+        <v>6786</v>
       </c>
       <c r="AD233" s="32">
-        <v>6946</v>
+        <v>4865</v>
       </c>
       <c r="AE233" s="32">
         <v>0</v>
@@ -23580,31 +23603,31 @@
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A234" s="27" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>631</v>
+        <v>347</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>316</v>
+        <v>553</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>578</v>
+        <v>360</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>586</v>
+        <v>349</v>
       </c>
       <c r="I234" s="27" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="J234" s="27"/>
       <c r="K234" s="27"/>
@@ -23619,31 +23642,31 @@
       <c r="T234" s="29"/>
       <c r="U234" s="29"/>
       <c r="V234" s="32">
-        <v>4280</v>
+        <v>6973</v>
       </c>
       <c r="W234" s="32">
         <v>6205</v>
       </c>
       <c r="X234" s="32">
-        <v>7129</v>
+        <v>6659</v>
       </c>
       <c r="Y234" s="32">
-        <v>773</v>
+        <v>5232</v>
       </c>
       <c r="Z234" s="32">
-        <v>4711</v>
+        <v>6810</v>
       </c>
       <c r="AA234" s="32">
-        <v>4720</v>
+        <v>6998</v>
       </c>
       <c r="AB234" s="32">
         <v>6772</v>
       </c>
       <c r="AC234" s="32">
-        <v>11559</v>
+        <v>6884</v>
       </c>
       <c r="AD234" s="32">
-        <v>10928</v>
+        <v>6946</v>
       </c>
       <c r="AE234" s="32">
         <v>0</v>
@@ -23684,31 +23707,31 @@
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A235" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="B235" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E235" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F235" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="G235" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="B235" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C235" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="D235" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="E235" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="F235" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="G235" s="27" t="s">
-        <v>336</v>
-      </c>
       <c r="H235" s="27" t="s">
-        <v>369</v>
+        <v>574</v>
       </c>
       <c r="I235" s="27" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J235" s="27"/>
       <c r="K235" s="27"/>
@@ -23723,31 +23746,31 @@
       <c r="T235" s="29"/>
       <c r="U235" s="29"/>
       <c r="V235" s="32">
-        <v>5016</v>
+        <v>11831</v>
       </c>
       <c r="W235" s="32">
         <v>6866</v>
       </c>
       <c r="X235" s="32">
-        <v>702</v>
+        <v>6960</v>
       </c>
       <c r="Y235" s="32">
-        <v>6870</v>
+        <v>773</v>
       </c>
       <c r="Z235" s="32">
-        <v>4410</v>
+        <v>7073</v>
       </c>
       <c r="AA235" s="32">
-        <v>4082</v>
+        <v>4275</v>
       </c>
       <c r="AB235" s="32">
         <v>6869</v>
       </c>
       <c r="AC235" s="32">
-        <v>7055</v>
+        <v>11559</v>
       </c>
       <c r="AD235" s="32">
-        <v>5690</v>
+        <v>10928</v>
       </c>
       <c r="AE235" s="32">
         <v>0</v>
@@ -23788,31 +23811,31 @@
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A236" s="27" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B236" s="27" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>354</v>
+        <v>718</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>362</v>
+        <v>597</v>
       </c>
       <c r="G236" s="27" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H236" s="27" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I236" s="27" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="J236" s="27"/>
       <c r="K236" s="27"/>
@@ -23827,22 +23850,22 @@
       <c r="T236" s="29"/>
       <c r="U236" s="29"/>
       <c r="V236" s="32">
-        <v>4852</v>
+        <v>4280</v>
       </c>
       <c r="W236" s="32">
         <v>7047</v>
       </c>
       <c r="X236" s="32">
-        <v>6659</v>
+        <v>7134</v>
       </c>
       <c r="Y236" s="32">
-        <v>6828</v>
+        <v>6870</v>
       </c>
       <c r="Z236" s="32">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="AA236" s="32">
-        <v>5689</v>
+        <v>7083</v>
       </c>
       <c r="AB236" s="32">
         <v>4031</v>
@@ -23851,7 +23874,7 @@
         <v>6862</v>
       </c>
       <c r="AD236" s="32">
-        <v>6863</v>
+        <v>5690</v>
       </c>
       <c r="AE236" s="32">
         <v>0</v>
@@ -23892,31 +23915,31 @@
     </row>
     <row r="237" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A237" s="27" t="s">
-        <v>576</v>
+        <v>324</v>
       </c>
       <c r="B237" s="27" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E237" s="27" t="s">
-        <v>341</v>
+        <v>562</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="H237" s="27" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="I237" s="27" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="J237" s="27"/>
       <c r="K237" s="27"/>
@@ -23931,22 +23954,22 @@
       <c r="T237" s="29"/>
       <c r="U237" s="29"/>
       <c r="V237" s="32">
-        <v>6967</v>
+        <v>5016</v>
       </c>
       <c r="W237" s="32">
         <v>5020</v>
       </c>
       <c r="X237" s="32">
-        <v>6943</v>
+        <v>6991</v>
       </c>
       <c r="Y237" s="32">
-        <v>4855</v>
+        <v>6828</v>
       </c>
       <c r="Z237" s="32">
-        <v>6982</v>
+        <v>4410</v>
       </c>
       <c r="AA237" s="32">
-        <v>6998</v>
+        <v>6590</v>
       </c>
       <c r="AB237" s="32">
         <v>11383</v>
@@ -23955,7 +23978,7 @@
         <v>7108</v>
       </c>
       <c r="AD237" s="32">
-        <v>4864</v>
+        <v>6863</v>
       </c>
       <c r="AE237" s="32">
         <v>0</v>
@@ -23996,31 +24019,31 @@
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A238" s="27" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>373</v>
+        <v>582</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>581</v>
+        <v>328</v>
       </c>
       <c r="F238" s="27" t="s">
+        <v>758</v>
+      </c>
+      <c r="G238" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="H238" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="G238" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="H238" s="27" t="s">
-        <v>385</v>
-      </c>
       <c r="I238" s="27" t="s">
-        <v>761</v>
+        <v>370</v>
       </c>
       <c r="J238" s="27"/>
       <c r="K238" s="27"/>
@@ -24035,22 +24058,22 @@
       <c r="T238" s="29"/>
       <c r="U238" s="29"/>
       <c r="V238" s="32">
-        <v>653</v>
+        <v>4852</v>
       </c>
       <c r="W238" s="32">
         <v>6676</v>
       </c>
       <c r="X238" s="32">
-        <v>6960</v>
+        <v>11544</v>
       </c>
       <c r="Y238" s="32">
-        <v>631</v>
+        <v>4855</v>
       </c>
       <c r="Z238" s="32">
-        <v>6883</v>
+        <v>4712</v>
       </c>
       <c r="AA238" s="32">
-        <v>4275</v>
+        <v>11833</v>
       </c>
       <c r="AB238" s="32">
         <v>5804</v>
@@ -24059,7 +24082,7 @@
         <v>6656</v>
       </c>
       <c r="AD238" s="32">
-        <v>11360</v>
+        <v>4864</v>
       </c>
       <c r="AE238" s="32">
         <v>0</v>
@@ -24100,31 +24123,31 @@
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A239" s="27" t="s">
-        <v>358</v>
+        <v>565</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>730</v>
+        <v>402</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>619</v>
+        <v>335</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="G239" s="27" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I239" s="27" t="s">
-        <v>386</v>
+        <v>745</v>
       </c>
       <c r="J239" s="27"/>
       <c r="K239" s="27"/>
@@ -24139,22 +24162,22 @@
       <c r="T239" s="29"/>
       <c r="U239" s="29"/>
       <c r="V239" s="32">
-        <v>937</v>
+        <v>6967</v>
       </c>
       <c r="W239" s="32">
         <v>6193</v>
       </c>
       <c r="X239" s="32">
-        <v>7134</v>
+        <v>6756</v>
       </c>
       <c r="Y239" s="32">
-        <v>6918</v>
+        <v>631</v>
       </c>
       <c r="Z239" s="32">
-        <v>5510</v>
+        <v>6982</v>
       </c>
       <c r="AA239" s="32">
-        <v>7083</v>
+        <v>11560</v>
       </c>
       <c r="AB239" s="32">
         <v>6876</v>
@@ -24163,7 +24186,7 @@
         <v>4401</v>
       </c>
       <c r="AD239" s="32">
-        <v>6962</v>
+        <v>11360</v>
       </c>
       <c r="AE239" s="32">
         <v>0</v>
@@ -24204,31 +24227,31 @@
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A240" s="27" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E240" s="27" t="s">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>384</v>
+        <v>742</v>
       </c>
       <c r="G240" s="27" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H240" s="27" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="J240" s="27"/>
       <c r="K240" s="27"/>
@@ -24243,22 +24266,22 @@
       <c r="T240" s="29"/>
       <c r="U240" s="29"/>
       <c r="V240" s="32">
-        <v>4861</v>
+        <v>653</v>
       </c>
       <c r="W240" s="32">
         <v>6848</v>
       </c>
       <c r="X240" s="32">
-        <v>6991</v>
+        <v>6582</v>
       </c>
       <c r="Y240" s="32">
-        <v>3290</v>
+        <v>6918</v>
       </c>
       <c r="Z240" s="32">
-        <v>7109</v>
+        <v>6883</v>
       </c>
       <c r="AA240" s="32">
-        <v>6590</v>
+        <v>5985</v>
       </c>
       <c r="AB240" s="32">
         <v>3348</v>
@@ -24267,7 +24290,7 @@
         <v>6910</v>
       </c>
       <c r="AD240" s="32">
-        <v>5752</v>
+        <v>6962</v>
       </c>
       <c r="AE240" s="32">
         <v>0</v>
@@ -24308,31 +24331,31 @@
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A241" s="27" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B241" s="27" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>594</v>
+        <v>415</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E241" s="27" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>589</v>
+        <v>388</v>
       </c>
       <c r="G241" s="27" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="H241" s="27" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="J241" s="27"/>
       <c r="K241" s="27"/>
@@ -24347,22 +24370,22 @@
       <c r="T241" s="29"/>
       <c r="U241" s="29"/>
       <c r="V241" s="32">
-        <v>5498</v>
+        <v>937</v>
       </c>
       <c r="W241" s="32">
         <v>7179</v>
       </c>
       <c r="X241" s="32">
-        <v>11544</v>
+        <v>6171</v>
       </c>
       <c r="Y241" s="32">
-        <v>932</v>
+        <v>3290</v>
       </c>
       <c r="Z241" s="32">
-        <v>6936</v>
+        <v>5510</v>
       </c>
       <c r="AA241" s="32">
-        <v>11560</v>
+        <v>6833</v>
       </c>
       <c r="AB241" s="32">
         <v>11546</v>
@@ -24371,7 +24394,7 @@
         <v>6650</v>
       </c>
       <c r="AD241" s="32">
-        <v>6752</v>
+        <v>5752</v>
       </c>
       <c r="AE241" s="32">
         <v>0</v>
@@ -24412,31 +24435,31 @@
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A242" s="27" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B242" s="27" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>411</v>
+        <v>586</v>
       </c>
       <c r="D242" s="27" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E242" s="27" t="s">
-        <v>375</v>
+        <v>615</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>758</v>
+        <v>394</v>
       </c>
       <c r="G242" s="27" t="s">
-        <v>377</v>
+        <v>757</v>
       </c>
       <c r="H242" s="27" t="s">
-        <v>426</v>
+        <v>763</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="J242" s="27"/>
       <c r="K242" s="27"/>
@@ -24451,31 +24474,31 @@
       <c r="T242" s="29"/>
       <c r="U242" s="29"/>
       <c r="V242" s="32">
-        <v>735</v>
+        <v>4861</v>
       </c>
       <c r="W242" s="32">
         <v>5717</v>
       </c>
       <c r="X242" s="32">
-        <v>6756</v>
+        <v>6864</v>
       </c>
       <c r="Y242" s="32">
-        <v>4903</v>
+        <v>932</v>
       </c>
       <c r="Z242" s="32">
-        <v>4283</v>
+        <v>7109</v>
       </c>
       <c r="AA242" s="32">
-        <v>5985</v>
+        <v>6990</v>
       </c>
       <c r="AB242" s="32">
-        <v>6835</v>
+        <v>11368</v>
       </c>
       <c r="AC242" s="32">
-        <v>99470</v>
+        <v>6831</v>
       </c>
       <c r="AD242" s="32">
-        <v>946</v>
+        <v>6752</v>
       </c>
       <c r="AE242" s="32">
         <v>0</v>
@@ -24516,29 +24539,31 @@
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A243" s="27" t="s">
-        <v>592</v>
+        <v>362</v>
       </c>
       <c r="B243" s="27" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>383</v>
+        <v>755</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="G243" s="27"/>
+        <v>386</v>
+      </c>
+      <c r="G243" s="27" t="s">
+        <v>368</v>
+      </c>
       <c r="H243" s="27" t="s">
-        <v>431</v>
+        <v>764</v>
       </c>
       <c r="I243" s="27" t="s">
-        <v>409</v>
+        <v>783</v>
       </c>
       <c r="J243" s="27"/>
       <c r="K243" s="27"/>
@@ -24553,31 +24578,31 @@
       <c r="T243" s="29"/>
       <c r="U243" s="29"/>
       <c r="V243" s="32">
-        <v>882</v>
+        <v>5498</v>
       </c>
       <c r="W243" s="32">
         <v>6994</v>
       </c>
       <c r="X243" s="32">
-        <v>6582</v>
+        <v>6788</v>
       </c>
       <c r="Y243" s="32">
-        <v>4705</v>
+        <v>4903</v>
       </c>
       <c r="Z243" s="32">
-        <v>5000</v>
+        <v>7193</v>
       </c>
       <c r="AA243" s="32">
-        <v>6833</v>
+        <v>6704</v>
       </c>
       <c r="AB243" s="32">
-        <v>0</v>
+        <v>6835</v>
       </c>
       <c r="AC243" s="32">
-        <v>6384</v>
+        <v>7194</v>
       </c>
       <c r="AD243" s="32">
-        <v>6737</v>
+        <v>7174</v>
       </c>
       <c r="AE243" s="32">
         <v>0</v>
@@ -24618,29 +24643,29 @@
     </row>
     <row r="244" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A244" s="27" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>424</v>
+        <v>589</v>
       </c>
       <c r="D244" s="27" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>403</v>
+        <v>765</v>
       </c>
       <c r="G244" s="27"/>
       <c r="H244" s="27" t="s">
-        <v>600</v>
+        <v>417</v>
       </c>
       <c r="I244" s="27" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="J244" s="27"/>
       <c r="K244" s="27"/>
@@ -24655,31 +24680,31 @@
       <c r="T244" s="29"/>
       <c r="U244" s="29"/>
       <c r="V244" s="32">
-        <v>6826</v>
-      </c>
-      <c r="W244" s="32" t="s">
-        <v>766</v>
+        <v>735</v>
+      </c>
+      <c r="W244" s="32">
+        <v>6603</v>
       </c>
       <c r="X244" s="32">
-        <v>6171</v>
+        <v>4697</v>
       </c>
       <c r="Y244" s="32">
-        <v>3976</v>
+        <v>4705</v>
       </c>
       <c r="Z244" s="32">
-        <v>6868</v>
-      </c>
-      <c r="AA244" s="32">
-        <v>6990</v>
+        <v>6936</v>
+      </c>
+      <c r="AA244" s="32" t="s">
+        <v>765</v>
       </c>
       <c r="AB244" s="32">
         <v>0</v>
       </c>
       <c r="AC244" s="32">
-        <v>5981</v>
+        <v>7190</v>
       </c>
       <c r="AD244" s="32">
-        <v>5634</v>
+        <v>946</v>
       </c>
       <c r="AE244" s="32">
         <v>0</v>
@@ -24720,27 +24745,29 @@
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A245" s="27" t="s">
-        <v>391</v>
+        <v>580</v>
       </c>
       <c r="B245" s="27" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="D245" s="27" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>734</v>
+        <v>366</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
+      <c r="H245" s="27" t="s">
+        <v>422</v>
+      </c>
       <c r="I245" s="27" t="s">
-        <v>611</v>
+        <v>400</v>
       </c>
       <c r="J245" s="27"/>
       <c r="K245" s="27"/>
@@ -24755,19 +24782,19 @@
       <c r="T245" s="29"/>
       <c r="U245" s="29"/>
       <c r="V245" s="32">
-        <v>694</v>
+        <v>882</v>
       </c>
       <c r="W245" s="32">
         <v>7170</v>
       </c>
       <c r="X245" s="32">
-        <v>6864</v>
+        <v>6181</v>
       </c>
       <c r="Y245" s="32">
-        <v>4700</v>
+        <v>3976</v>
       </c>
       <c r="Z245" s="32">
-        <v>7122</v>
+        <v>4283</v>
       </c>
       <c r="AA245" s="32">
         <v>7116</v>
@@ -24776,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="AC245" s="32">
-        <v>0</v>
+        <v>6384</v>
       </c>
       <c r="AD245" s="32">
-        <v>7085</v>
+        <v>6737</v>
       </c>
       <c r="AE245" s="32">
         <v>0</v>
@@ -24820,26 +24847,30 @@
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A246" s="27" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>593</v>
+        <v>759</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D246" s="27" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E246" s="27" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="F246" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="G246" s="27"/>
+      <c r="H246" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="I246" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="G246" s="27"/>
-      <c r="H246" s="27"/>
-      <c r="I246" s="27"/>
       <c r="J246" s="27"/>
       <c r="K246" s="27"/>
       <c r="L246" s="27"/>
@@ -24853,19 +24884,19 @@
       <c r="T246" s="29"/>
       <c r="U246" s="29"/>
       <c r="V246" s="32">
-        <v>926</v>
+        <v>6826</v>
       </c>
       <c r="W246" s="32">
-        <v>3982</v>
+        <v>11832</v>
       </c>
       <c r="X246" s="32">
-        <v>6788</v>
+        <v>6729</v>
       </c>
       <c r="Y246" s="32">
-        <v>7098</v>
+        <v>4700</v>
       </c>
       <c r="Z246" s="32">
-        <v>4708</v>
+        <v>5000</v>
       </c>
       <c r="AA246" s="32">
         <v>931</v>
@@ -24874,10 +24905,10 @@
         <v>0</v>
       </c>
       <c r="AC246" s="32">
-        <v>0</v>
+        <v>5981</v>
       </c>
       <c r="AD246" s="32">
-        <v>0</v>
+        <v>5634</v>
       </c>
       <c r="AE246" s="32">
         <v>0</v>
@@ -24918,26 +24949,28 @@
     </row>
     <row r="247" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A247" s="27" t="s">
-        <v>736</v>
+        <v>382</v>
       </c>
       <c r="B247" s="27" t="s">
-        <v>394</v>
+        <v>581</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>601</v>
+        <v>438</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>591</v>
+        <v>379</v>
       </c>
       <c r="E247" s="27" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G247" s="27"/>
       <c r="H247" s="27"/>
-      <c r="I247" s="27"/>
+      <c r="I247" s="27" t="s">
+        <v>599</v>
+      </c>
       <c r="J247" s="27"/>
       <c r="K247" s="27"/>
       <c r="L247" s="27"/>
@@ -24951,19 +24984,19 @@
       <c r="T247" s="29"/>
       <c r="U247" s="29"/>
       <c r="V247" s="32">
-        <v>7140</v>
+        <v>694</v>
       </c>
       <c r="W247" s="32">
-        <v>910</v>
+        <v>3982</v>
       </c>
       <c r="X247" s="32">
-        <v>4697</v>
+        <v>998</v>
       </c>
       <c r="Y247" s="32">
-        <v>11547</v>
+        <v>7098</v>
       </c>
       <c r="Z247" s="32">
-        <v>6955</v>
+        <v>6868</v>
       </c>
       <c r="AA247" s="32">
         <v>4866</v>
@@ -24975,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="AD247" s="32">
-        <v>0</v>
+        <v>7085</v>
       </c>
       <c r="AE247" s="32">
         <v>0</v>
@@ -25016,22 +25049,22 @@
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A248" s="27" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B248" s="27" t="s">
-        <v>618</v>
+        <v>385</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>740</v>
+        <v>442</v>
       </c>
       <c r="D248" s="27" t="s">
-        <v>395</v>
+        <v>579</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>407</v>
+        <v>722</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>430</v>
+        <v>753</v>
       </c>
       <c r="G248" s="27"/>
       <c r="H248" s="27"/>
@@ -25049,22 +25082,22 @@
       <c r="T248" s="29"/>
       <c r="U248" s="29"/>
       <c r="V248" s="32">
-        <v>6850</v>
+        <v>926</v>
       </c>
       <c r="W248" s="32">
-        <v>7092</v>
+        <v>910</v>
       </c>
       <c r="X248" s="32">
-        <v>6181</v>
+        <v>6887</v>
       </c>
       <c r="Y248" s="32">
-        <v>6704</v>
+        <v>11547</v>
       </c>
       <c r="Z248" s="32">
-        <v>5019</v>
+        <v>7122</v>
       </c>
       <c r="AA248" s="32">
-        <v>6954</v>
+        <v>6214</v>
       </c>
       <c r="AB248" s="32">
         <v>0</v>
@@ -25114,22 +25147,22 @@
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A249" s="27" t="s">
-        <v>410</v>
+        <v>723</v>
       </c>
       <c r="B249" s="27" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D249" s="27" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E249" s="27" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>749</v>
+        <v>421</v>
       </c>
       <c r="G249" s="27"/>
       <c r="H249" s="27"/>
@@ -25147,22 +25180,22 @@
       <c r="T249" s="29"/>
       <c r="U249" s="29"/>
       <c r="V249" s="32">
-        <v>3964</v>
+        <v>7140</v>
       </c>
       <c r="W249" s="32">
-        <v>7081</v>
+        <v>7092</v>
       </c>
       <c r="X249" s="32">
-        <v>6729</v>
+        <v>3920</v>
       </c>
       <c r="Y249" s="32">
         <v>3344</v>
       </c>
       <c r="Z249" s="32">
-        <v>6938</v>
+        <v>4708</v>
       </c>
       <c r="AA249" s="32">
-        <v>7166</v>
+        <v>6954</v>
       </c>
       <c r="AB249" s="32">
         <v>0</v>
@@ -25212,22 +25245,22 @@
     </row>
     <row r="250" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A250" s="27" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="B250" s="27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>447</v>
+        <v>747</v>
       </c>
       <c r="D250" s="27" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E250" s="27" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>436</v>
+        <v>735</v>
       </c>
       <c r="G250" s="27"/>
       <c r="H250" s="27"/>
@@ -25245,22 +25278,22 @@
       <c r="T250" s="29"/>
       <c r="U250" s="29"/>
       <c r="V250" s="32">
-        <v>6980</v>
+        <v>6850</v>
       </c>
       <c r="W250" s="32">
-        <v>4281</v>
+        <v>7081</v>
       </c>
       <c r="X250" s="32">
-        <v>998</v>
+        <v>7176</v>
       </c>
       <c r="Y250" s="32">
         <v>973</v>
       </c>
       <c r="Z250" s="32">
-        <v>4409</v>
+        <v>6955</v>
       </c>
       <c r="AA250" s="32">
-        <v>5462</v>
+        <v>7166</v>
       </c>
       <c r="AB250" s="32">
         <v>0</v>
@@ -25310,22 +25343,22 @@
     </row>
     <row r="251" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A251" s="27" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B251" s="27" t="s">
-        <v>399</v>
+        <v>587</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D251" s="27" t="s">
-        <v>754</v>
+        <v>403</v>
       </c>
       <c r="E251" s="27" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G251" s="27"/>
       <c r="H251" s="27"/>
@@ -25343,22 +25376,22 @@
       <c r="T251" s="29"/>
       <c r="U251" s="29"/>
       <c r="V251" s="32">
-        <v>4291</v>
+        <v>3964</v>
       </c>
       <c r="W251" s="32">
-        <v>6202</v>
+        <v>4281</v>
       </c>
       <c r="X251" s="32">
-        <v>6887</v>
+        <v>5026</v>
       </c>
       <c r="Y251" s="32">
-        <v>7178</v>
+        <v>6992</v>
       </c>
       <c r="Z251" s="32">
-        <v>6928</v>
+        <v>6938</v>
       </c>
       <c r="AA251" s="32">
-        <v>7035</v>
+        <v>5462</v>
       </c>
       <c r="AB251" s="32">
         <v>0</v>
@@ -25408,22 +25441,22 @@
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A252" s="27" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B252" s="27" t="s">
-        <v>597</v>
+        <v>390</v>
       </c>
       <c r="C252" s="27" t="s">
-        <v>454</v>
+        <v>595</v>
       </c>
       <c r="D252" s="27" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="F252" s="27" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G252" s="27"/>
       <c r="H252" s="27"/>
@@ -25441,22 +25474,22 @@
       <c r="T252" s="29"/>
       <c r="U252" s="29"/>
       <c r="V252" s="32">
-        <v>5398</v>
+        <v>6980</v>
       </c>
       <c r="W252" s="32">
-        <v>978</v>
+        <v>6202</v>
       </c>
       <c r="X252" s="32">
-        <v>3920</v>
+        <v>6660</v>
       </c>
       <c r="Y252" s="32">
-        <v>6992</v>
+        <v>5508</v>
       </c>
       <c r="Z252" s="32">
-        <v>4530</v>
+        <v>4409</v>
       </c>
       <c r="AA252" s="32">
-        <v>5692</v>
+        <v>7035</v>
       </c>
       <c r="AB252" s="32">
         <v>0</v>
@@ -25506,22 +25539,22 @@
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A253" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B253" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="C253" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D253" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="E253" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F253" s="27" t="s">
         <v>432</v>
-      </c>
-      <c r="B253" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="C253" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="D253" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="E253" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="F253" s="27" t="s">
-        <v>444</v>
       </c>
       <c r="G253" s="27"/>
       <c r="H253" s="27"/>
@@ -25539,22 +25572,22 @@
       <c r="T253" s="29"/>
       <c r="U253" s="29"/>
       <c r="V253" s="32">
-        <v>2824</v>
+        <v>4291</v>
       </c>
       <c r="W253" s="32">
-        <v>6541</v>
+        <v>978</v>
       </c>
       <c r="X253" s="32">
-        <v>7176</v>
+        <v>6853</v>
       </c>
       <c r="Y253" s="32">
-        <v>5508</v>
+        <v>700</v>
       </c>
       <c r="Z253" s="32">
-        <v>5509</v>
+        <v>6928</v>
       </c>
       <c r="AA253" s="32">
-        <v>6993</v>
+        <v>5692</v>
       </c>
       <c r="AB253" s="32">
         <v>0</v>
@@ -25604,22 +25637,22 @@
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A254" s="27" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="B254" s="27" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="C254" s="27" t="s">
-        <v>458</v>
+        <v>731</v>
       </c>
       <c r="D254" s="27" t="s">
-        <v>630</v>
+        <v>398</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>595</v>
+        <v>426</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>449</v>
+        <v>766</v>
       </c>
       <c r="G254" s="27"/>
       <c r="H254" s="27"/>
@@ -25637,22 +25670,22 @@
       <c r="T254" s="29"/>
       <c r="U254" s="29"/>
       <c r="V254" s="32">
-        <v>5349</v>
+        <v>5398</v>
       </c>
       <c r="W254" s="32">
-        <v>6863</v>
+        <v>6541</v>
       </c>
       <c r="X254" s="32">
-        <v>5026</v>
+        <v>7155</v>
       </c>
       <c r="Y254" s="32">
-        <v>3928</v>
+        <v>5019</v>
       </c>
       <c r="Z254" s="32">
-        <v>4888</v>
-      </c>
-      <c r="AA254" s="32">
-        <v>6734</v>
+        <v>4530</v>
+      </c>
+      <c r="AA254" s="32" t="s">
+        <v>766</v>
       </c>
       <c r="AB254" s="32">
         <v>0</v>
@@ -25702,21 +25735,23 @@
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A255" s="27" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B255" s="27" t="s">
-        <v>466</v>
+        <v>754</v>
       </c>
       <c r="C255" s="27" t="s">
-        <v>607</v>
+        <v>726</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>428</v>
+        <v>618</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="F255" s="27"/>
+        <v>524</v>
+      </c>
+      <c r="F255" s="27" t="s">
+        <v>435</v>
+      </c>
       <c r="G255" s="27"/>
       <c r="H255" s="27"/>
       <c r="I255" s="27"/>
@@ -25733,22 +25768,22 @@
       <c r="T255" s="29"/>
       <c r="U255" s="29"/>
       <c r="V255" s="32">
-        <v>4274</v>
+        <v>2824</v>
       </c>
       <c r="W255" s="32">
-        <v>7079</v>
+        <v>6581</v>
       </c>
       <c r="X255" s="32">
-        <v>6660</v>
+        <v>7151</v>
       </c>
       <c r="Y255" s="32">
-        <v>4460</v>
+        <v>3928</v>
       </c>
       <c r="Z255" s="32">
-        <v>6958</v>
+        <v>5509</v>
       </c>
       <c r="AA255" s="32">
-        <v>0</v>
+        <v>6993</v>
       </c>
       <c r="AB255" s="32">
         <v>0</v>
@@ -25798,19 +25833,21 @@
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A256" s="27" t="s">
-        <v>603</v>
+        <v>428</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="C256" s="27" t="s">
-        <v>462</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C256" s="27"/>
       <c r="D256" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="E256" s="27"/>
-      <c r="F256" s="27"/>
+        <v>419</v>
+      </c>
+      <c r="E256" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="F256" s="27" t="s">
+        <v>440</v>
+      </c>
       <c r="G256" s="27"/>
       <c r="H256" s="27"/>
       <c r="I256" s="27"/>
@@ -25827,22 +25864,22 @@
       <c r="T256" s="29"/>
       <c r="U256" s="29"/>
       <c r="V256" s="32">
-        <v>4850</v>
+        <v>5349</v>
       </c>
       <c r="W256" s="32">
-        <v>4854</v>
+        <v>6863</v>
       </c>
       <c r="X256" s="32">
-        <v>6853</v>
+        <v>0</v>
       </c>
       <c r="Y256" s="32">
-        <v>4867</v>
+        <v>4460</v>
       </c>
       <c r="Z256" s="32">
-        <v>0</v>
+        <v>4888</v>
       </c>
       <c r="AA256" s="32">
-        <v>0</v>
+        <v>6734</v>
       </c>
       <c r="AB256" s="32">
         <v>0</v>
@@ -25892,18 +25929,18 @@
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A257" s="27" t="s">
-        <v>445</v>
+        <v>790</v>
       </c>
       <c r="B257" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="C257" s="27" t="s">
-        <v>744</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C257" s="27"/>
       <c r="D257" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="E257" s="27"/>
+        <v>425</v>
+      </c>
+      <c r="E257" s="27" t="s">
+        <v>592</v>
+      </c>
       <c r="F257" s="27"/>
       <c r="G257" s="27"/>
       <c r="H257" s="27"/>
@@ -25921,19 +25958,19 @@
       <c r="T257" s="29"/>
       <c r="U257" s="29"/>
       <c r="V257" s="32">
-        <v>6844</v>
+        <v>3910</v>
       </c>
       <c r="W257" s="32">
-        <v>4284</v>
+        <v>7079</v>
       </c>
       <c r="X257" s="32">
-        <v>7155</v>
+        <v>0</v>
       </c>
       <c r="Y257" s="32">
-        <v>6988</v>
+        <v>4867</v>
       </c>
       <c r="Z257" s="32">
-        <v>0</v>
+        <v>6958</v>
       </c>
       <c r="AA257" s="32">
         <v>0</v>
@@ -25986,16 +26023,14 @@
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A258" s="27" t="s">
-        <v>605</v>
+        <v>431</v>
       </c>
       <c r="B258" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="C258" s="27" t="s">
-        <v>739</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C258" s="27"/>
       <c r="D258" s="27" t="s">
-        <v>602</v>
+        <v>429</v>
       </c>
       <c r="E258" s="27"/>
       <c r="F258" s="27"/>
@@ -26015,16 +26050,16 @@
       <c r="T258" s="29"/>
       <c r="U258" s="29"/>
       <c r="V258" s="32">
-        <v>5350</v>
+        <v>4274</v>
       </c>
       <c r="W258" s="32">
-        <v>6939</v>
+        <v>4854</v>
       </c>
       <c r="X258" s="32">
-        <v>7151</v>
+        <v>0</v>
       </c>
       <c r="Y258" s="32">
-        <v>5876</v>
+        <v>6988</v>
       </c>
       <c r="Z258" s="32">
         <v>0</v>
@@ -26080,14 +26115,14 @@
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A259" s="27" t="s">
-        <v>453</v>
+        <v>591</v>
       </c>
       <c r="B259" s="27" t="s">
-        <v>747</v>
+        <v>437</v>
       </c>
       <c r="C259" s="27"/>
       <c r="D259" s="27" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="E259" s="27"/>
       <c r="F259" s="27"/>
@@ -26107,16 +26142,16 @@
       <c r="T259" s="29"/>
       <c r="U259" s="29"/>
       <c r="V259" s="32">
-        <v>5635</v>
-      </c>
-      <c r="W259" s="32" t="s">
-        <v>767</v>
+        <v>4850</v>
+      </c>
+      <c r="W259" s="32">
+        <v>4284</v>
       </c>
       <c r="X259" s="32">
         <v>0</v>
       </c>
       <c r="Y259" s="32">
-        <v>4415</v>
+        <v>5876</v>
       </c>
       <c r="Z259" s="32">
         <v>0</v>
@@ -26172,14 +26207,14 @@
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A260" s="27" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B260" s="27" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C260" s="27"/>
       <c r="D260" s="27" t="s">
-        <v>448</v>
+        <v>610</v>
       </c>
       <c r="E260" s="27"/>
       <c r="F260" s="27"/>
@@ -26199,16 +26234,16 @@
       <c r="T260" s="29"/>
       <c r="U260" s="29"/>
       <c r="V260" s="32">
-        <v>5347</v>
+        <v>6844</v>
       </c>
       <c r="W260" s="32">
-        <v>6911</v>
+        <v>6939</v>
       </c>
       <c r="X260" s="32">
         <v>0</v>
       </c>
       <c r="Y260" s="32">
-        <v>5679</v>
+        <v>4415</v>
       </c>
       <c r="Z260" s="32">
         <v>0</v>
@@ -26264,14 +26299,14 @@
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A261" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B261" s="27" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C261" s="27"/>
       <c r="D261" s="27" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="E261" s="27"/>
       <c r="F261" s="27"/>
@@ -26291,16 +26326,16 @@
       <c r="T261" s="29"/>
       <c r="U261" s="29"/>
       <c r="V261" s="32">
-        <v>3919</v>
+        <v>5350</v>
       </c>
       <c r="W261" s="32">
-        <v>6201</v>
+        <v>6911</v>
       </c>
       <c r="X261" s="32">
         <v>0</v>
       </c>
       <c r="Y261" s="32">
-        <v>6957</v>
+        <v>5679</v>
       </c>
       <c r="Z261" s="32">
         <v>0</v>
@@ -26356,14 +26391,14 @@
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A262" s="27" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B262" s="27" t="s">
-        <v>608</v>
+        <v>454</v>
       </c>
       <c r="C262" s="27"/>
       <c r="D262" s="27" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E262" s="27"/>
       <c r="F262" s="27"/>
@@ -26383,16 +26418,16 @@
       <c r="T262" s="29"/>
       <c r="U262" s="29"/>
       <c r="V262" s="32">
-        <v>118</v>
+        <v>5635</v>
       </c>
       <c r="W262" s="32">
-        <v>977</v>
+        <v>6201</v>
       </c>
       <c r="X262" s="32">
         <v>0</v>
       </c>
       <c r="Y262" s="32">
-        <v>3992</v>
+        <v>6957</v>
       </c>
       <c r="Z262" s="32">
         <v>0</v>
@@ -26448,13 +26483,15 @@
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A263" s="27" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B263" s="27" t="s">
-        <v>764</v>
+        <v>596</v>
       </c>
       <c r="C263" s="27"/>
-      <c r="D263" s="27"/>
+      <c r="D263" s="27" t="s">
+        <v>446</v>
+      </c>
       <c r="E263" s="27"/>
       <c r="F263" s="27"/>
       <c r="G263" s="27"/>
@@ -26473,16 +26510,16 @@
       <c r="T263" s="29"/>
       <c r="U263" s="29"/>
       <c r="V263" s="32">
-        <v>3986</v>
+        <v>5347</v>
       </c>
       <c r="W263" s="32">
-        <v>7172</v>
+        <v>977</v>
       </c>
       <c r="X263" s="32">
         <v>0</v>
       </c>
       <c r="Y263" s="32">
-        <v>0</v>
+        <v>3992</v>
       </c>
       <c r="Z263" s="32">
         <v>0</v>
@@ -26538,10 +26575,10 @@
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A264" s="27" t="s">
-        <v>465</v>
+        <v>594</v>
       </c>
       <c r="B264" s="27" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="C264" s="27"/>
       <c r="D264" s="27"/>
@@ -26563,10 +26600,10 @@
       <c r="T264" s="29"/>
       <c r="U264" s="29"/>
       <c r="V264" s="32">
-        <v>688</v>
+        <v>3919</v>
       </c>
       <c r="W264" s="32">
-        <v>5234</v>
+        <v>11361</v>
       </c>
       <c r="X264" s="32">
         <v>0</v>
@@ -26627,8 +26664,12 @@
       </c>
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A265" s="27"/>
-      <c r="B265" s="27"/>
+      <c r="A265" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>748</v>
+      </c>
       <c r="C265" s="27"/>
       <c r="D265" s="27"/>
       <c r="E265" s="27"/>
@@ -26649,10 +26690,10 @@
       <c r="T265" s="29"/>
       <c r="U265" s="29"/>
       <c r="V265" s="32">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="W265" s="32">
-        <v>0</v>
+        <v>7172</v>
       </c>
       <c r="X265" s="32">
         <v>0</v>
@@ -26713,8 +26754,12 @@
       </c>
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A266" s="27"/>
-      <c r="B266" s="27"/>
+      <c r="A266" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B266" s="27" t="s">
+        <v>791</v>
+      </c>
       <c r="C266" s="27"/>
       <c r="D266" s="27"/>
       <c r="E266" s="27"/>
@@ -26735,10 +26780,10 @@
       <c r="T266" s="29"/>
       <c r="U266" s="29"/>
       <c r="V266" s="32">
-        <v>0</v>
+        <v>3986</v>
       </c>
       <c r="W266" s="32">
-        <v>0</v>
+        <v>7192</v>
       </c>
       <c r="X266" s="32">
         <v>0</v>
@@ -26799,7 +26844,9 @@
       </c>
     </row>
     <row r="267" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A267" s="27"/>
+      <c r="A267" s="27" t="s">
+        <v>455</v>
+      </c>
       <c r="B267" s="27"/>
       <c r="C267" s="27"/>
       <c r="D267" s="27"/>
@@ -26821,7 +26868,7 @@
       <c r="T267" s="29"/>
       <c r="U267" s="29"/>
       <c r="V267" s="32">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="W267" s="32">
         <v>0</v>
@@ -27460,10 +27507,10 @@
         <v>44</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E282" s="9">
         <v>0</v>
@@ -27727,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="J288" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K288" s="8">
         <v>0</v>
@@ -28008,7 +28055,7 @@
         <v>227</v>
       </c>
       <c r="H295" s="8">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I295" s="8">
         <v>0</v>
@@ -28239,7 +28286,7 @@
         <v>64</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D301" s="9">
         <v>0</v>
@@ -28280,7 +28327,7 @@
         <v>64</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D302" s="9">
         <v>0</v>
@@ -28403,10 +28450,10 @@
         <v>67</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E305" s="9">
         <v>0</v>
@@ -28444,7 +28491,7 @@
         <v>68</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D306" s="9">
         <v>0</v>
@@ -28825,10 +28872,10 @@
         <v>1538</v>
       </c>
       <c r="G315" s="8">
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="H315" s="8">
-        <v>0</v>
+        <v>1541</v>
       </c>
       <c r="I315" s="8">
         <v>0</v>
@@ -28863,10 +28910,10 @@
         <v>1513</v>
       </c>
       <c r="F316" s="8">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="G316" s="8">
-        <v>0</v>
+        <v>1511</v>
       </c>
       <c r="H316" s="8">
         <v>0</v>
@@ -28895,10 +28942,10 @@
         <v>79</v>
       </c>
       <c r="C317" s="9">
-        <v>1503</v>
+        <v>0</v>
       </c>
       <c r="D317" s="9">
-        <v>1511</v>
+        <v>0</v>
       </c>
       <c r="E317" s="9">
         <v>0</v>
@@ -29015,13 +29062,13 @@
         <v>36</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>82</v>
+        <v>784</v>
       </c>
       <c r="C320" s="9">
         <v>1540</v>
       </c>
       <c r="D320" s="9">
-        <v>0</v>
+        <v>1539</v>
       </c>
       <c r="E320" s="9">
         <v>0</v>
@@ -29056,10 +29103,10 @@
         <v>36</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C321" s="9">
-        <v>1539</v>
+        <v>0</v>
       </c>
       <c r="D321" s="9">
         <v>0</v>
@@ -29097,13 +29144,13 @@
         <v>36</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C322" s="9">
         <v>1524</v>
       </c>
       <c r="D322" s="9">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="E322" s="9">
         <v>0</v>
@@ -29138,10 +29185,10 @@
         <v>36</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C323" s="9">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="D323" s="9">
         <v>0</v>
@@ -29179,10 +29226,10 @@
         <v>36</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C324" s="9">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="D324" s="9">
         <v>0</v>
@@ -29220,10 +29267,10 @@
         <v>36</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C325" s="9">
-        <v>1531</v>
+        <v>0</v>
       </c>
       <c r="D325" s="9">
         <v>0</v>
@@ -29261,16 +29308,16 @@
         <v>36</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C326" s="9">
         <v>1527</v>
       </c>
       <c r="D326" s="9">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="E326" s="9">
-        <v>0</v>
+        <v>1528</v>
       </c>
       <c r="F326" s="8">
         <v>0</v>
@@ -29302,10 +29349,10 @@
         <v>36</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C327" s="9">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="D327" s="9">
         <v>0</v>
@@ -29343,10 +29390,10 @@
         <v>36</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C328" s="9">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="D328" s="9">
         <v>0</v>
@@ -29384,7 +29431,7 @@
         <v>36</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C329" s="9">
         <v>900</v>
@@ -29408,7 +29455,7 @@
         <v>1</v>
       </c>
       <c r="J329" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K329" s="8">
         <v>0</v>
@@ -29425,7 +29472,7 @@
         <v>36</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C330" s="9">
         <v>900</v>
@@ -29449,7 +29496,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K330" s="8">
         <v>0</v>
@@ -29466,7 +29513,7 @@
         <v>36</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C331" s="9">
         <v>901</v>
@@ -29490,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="J331" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K331" s="8">
         <v>0</v>
@@ -29507,7 +29554,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C332" s="9">
         <v>1800</v>
@@ -29548,7 +29595,7 @@
         <v>36</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>95</v>
+        <v>785</v>
       </c>
       <c r="C333" s="9">
         <v>1543</v>
@@ -29557,7 +29604,7 @@
         <v>776</v>
       </c>
       <c r="E333" s="9">
-        <v>0</v>
+        <v>1529</v>
       </c>
       <c r="F333" s="8">
         <v>0</v>
@@ -29589,10 +29636,10 @@
         <v>36</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C334" s="9">
-        <v>1529</v>
+        <v>0</v>
       </c>
       <c r="D334" s="9">
         <v>0</v>
@@ -29630,13 +29677,13 @@
         <v>36</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>97</v>
+        <v>786</v>
       </c>
       <c r="C335" s="9">
         <v>1804</v>
       </c>
       <c r="D335" s="9">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="E335" s="9">
         <v>0</v>
@@ -29671,7 +29718,7 @@
         <v>36</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C336" s="9">
         <v>1805</v>
@@ -29712,25 +29759,25 @@
         <v>36</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>99</v>
+        <v>782</v>
       </c>
       <c r="C337" s="9">
         <v>1806</v>
       </c>
       <c r="D337" s="9">
-        <v>0</v>
+        <v>1808</v>
       </c>
       <c r="E337" s="9">
-        <v>0</v>
+        <v>1810</v>
       </c>
       <c r="F337" s="8">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="G337" s="8">
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="H337" s="8">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="I337" s="8">
         <v>0</v>
@@ -29753,10 +29800,10 @@
         <v>36</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C338" s="9">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="D338" s="9">
         <v>0</v>
@@ -29794,10 +29841,10 @@
         <v>36</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C339" s="9">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="D339" s="9">
         <v>0</v>
@@ -29835,10 +29882,10 @@
         <v>36</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C340" s="9">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="D340" s="9">
         <v>0</v>
@@ -29876,10 +29923,10 @@
         <v>36</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C341" s="9">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="D341" s="9">
         <v>0</v>
@@ -29917,10 +29964,10 @@
         <v>36</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C342" s="9">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="D342" s="9">
         <v>0</v>
@@ -29958,10 +30005,10 @@
         <v>36</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C343" s="9">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="D343" s="9">
         <v>0</v>
@@ -29999,7 +30046,7 @@
         <v>36</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C344" s="9">
         <v>900</v>
@@ -30023,7 +30070,7 @@
         <v>1</v>
       </c>
       <c r="J344" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K344" s="8">
         <v>0</v>
@@ -30040,7 +30087,7 @@
         <v>36</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C345" s="9">
         <v>900</v>
@@ -30064,7 +30111,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K345" s="8">
         <v>0</v>
@@ -30081,7 +30128,7 @@
         <v>36</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C346" s="9">
         <v>950</v>
@@ -30108,10 +30155,10 @@
         <v>38</v>
       </c>
       <c r="K346" s="8" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="L346" s="8" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
       <c r="M346" s="8">
         <v>0</v>
@@ -30122,7 +30169,7 @@
         <v>36</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C347" s="9">
         <v>950</v>
@@ -30146,7 +30193,7 @@
         <v>1</v>
       </c>
       <c r="J347" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K347" s="8">
         <v>0</v>
@@ -30160,10 +30207,10 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C348" s="9">
         <v>341</v>
@@ -30201,10 +30248,10 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C349" s="9">
         <v>342</v>
@@ -30242,10 +30289,10 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C350" s="9">
         <v>343</v>
@@ -30283,10 +30330,10 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B351" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="C351" s="9">
         <v>343</v>
@@ -30324,10 +30371,10 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B352" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="C352" s="9">
         <v>343</v>
@@ -30365,10 +30412,10 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C353" s="9">
         <v>346</v>
@@ -30406,10 +30453,10 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C354" s="9">
         <v>346</v>
@@ -30447,13 +30494,13 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D355" s="9">
         <v>0</v>
@@ -30488,13 +30535,13 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D356" s="9">
         <v>0</v>
@@ -30529,13 +30576,13 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D357" s="9">
         <v>0</v>
@@ -30570,13 +30617,13 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D358" s="9">
         <v>0</v>
@@ -30611,16 +30658,16 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E359" s="9">
         <v>0</v>
@@ -30652,16 +30699,16 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E360" s="9">
         <v>0</v>
@@ -30693,10 +30740,10 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C361" s="9">
         <v>271</v>
@@ -30734,10 +30781,10 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C362" s="9">
         <v>272</v>
@@ -30775,10 +30822,10 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C363" s="9">
         <v>273</v>
@@ -30816,10 +30863,10 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C364" s="9">
         <v>277</v>
@@ -30857,10 +30904,10 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C365" s="9">
         <v>278</v>
@@ -30898,10 +30945,10 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C366" s="9">
         <v>200</v>
@@ -30939,10 +30986,10 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C367" s="9">
         <v>696</v>
@@ -30980,10 +31027,10 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C368" s="9">
         <v>609</v>
@@ -31021,10 +31068,10 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C369" s="9">
         <v>609</v>
@@ -31062,13 +31109,13 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C370" s="9">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D370" s="9">
         <v>0</v>
@@ -31103,13 +31150,13 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C371" s="9">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D371" s="9">
         <v>0</v>
@@ -31144,10 +31191,10 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C372" s="9">
         <v>441</v>
@@ -31185,10 +31232,10 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C373" s="9">
         <v>900</v>
@@ -31212,7 +31259,7 @@
         <v>1</v>
       </c>
       <c r="J373" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K373" s="8">
         <v>0</v>
@@ -31226,10 +31273,10 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C374" s="9">
         <v>900</v>
@@ -31253,13 +31300,13 @@
         <v>1</v>
       </c>
       <c r="J374" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K374" s="8" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="L374" s="8" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="M374" s="8">
         <v>0</v>
@@ -31267,10 +31314,10 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C375" s="9">
         <v>900</v>
@@ -31294,13 +31341,13 @@
         <v>1</v>
       </c>
       <c r="J375" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K375" s="8" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="L375" s="8" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="M375" s="8">
         <v>0</v>
@@ -31308,10 +31355,10 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C376" s="9">
         <v>900</v>
@@ -31335,13 +31382,13 @@
         <v>1</v>
       </c>
       <c r="J376" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K376" s="8" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="L376" s="8" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="M376" s="8">
         <v>0</v>
@@ -31349,10 +31396,10 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C377" s="9">
         <v>900</v>
@@ -31376,10 +31423,10 @@
         <v>1</v>
       </c>
       <c r="J377" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K377" s="8" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="L377" s="8">
         <v>0</v>
@@ -31390,10 +31437,10 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C378" s="9">
         <v>900</v>
@@ -31417,10 +31464,10 @@
         <v>1</v>
       </c>
       <c r="J378" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K378" s="8" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="L378" s="8">
         <v>0</v>
@@ -31431,10 +31478,10 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C379" s="9">
         <v>680</v>
@@ -31472,10 +31519,10 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C380" s="9">
         <v>683</v>
@@ -31499,10 +31546,10 @@
         <v>1</v>
       </c>
       <c r="J380" s="8" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="K380" s="8" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="L380" s="8">
         <v>0</v>
@@ -31513,10 +31560,10 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C381" s="9">
         <v>652</v>
@@ -31554,10 +31601,10 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C382" s="9">
         <v>604</v>
@@ -31595,10 +31642,10 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C383" s="9">
         <v>605</v>
@@ -31636,10 +31683,10 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C384" s="9">
         <v>786</v>
@@ -31677,10 +31724,10 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C385" s="9">
         <v>790</v>
@@ -31692,7 +31739,7 @@
         <v>794</v>
       </c>
       <c r="F385" s="8">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="G385" s="8">
         <v>0</v>
@@ -31718,10 +31765,10 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C386" s="9">
         <v>580</v>
@@ -31759,10 +31806,10 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C387" s="9">
         <v>635</v>
@@ -31800,10 +31847,10 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C388" s="9">
         <v>682</v>
@@ -31841,10 +31888,10 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C389" s="9">
         <v>673</v>
@@ -31868,7 +31915,7 @@
         <v>0</v>
       </c>
       <c r="J389" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K389" s="8">
         <v>0</v>
@@ -31882,10 +31929,10 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C390" s="9">
         <v>745</v>
@@ -31909,7 +31956,7 @@
         <v>0</v>
       </c>
       <c r="J390" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K390" s="8">
         <v>0</v>
@@ -31923,10 +31970,10 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C391" s="9">
         <v>900</v>
@@ -31950,13 +31997,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K391" s="8" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="L391" s="8" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="M391" s="8">
         <v>0</v>
@@ -31964,10 +32011,10 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C392" s="9">
         <v>900</v>
@@ -31991,13 +32038,13 @@
         <v>1</v>
       </c>
       <c r="J392" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K392" s="8" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="L392" s="8" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="M392" s="8">
         <v>0</v>
@@ -32005,10 +32052,10 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C393" s="9">
         <v>670</v>
@@ -32046,10 +32093,10 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C394" s="9">
         <v>565</v>
@@ -32087,10 +32134,10 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C395" s="9">
         <v>775</v>
@@ -32128,10 +32175,10 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C396" s="9">
         <v>635</v>
@@ -32169,10 +32216,10 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C397" s="9">
         <v>751</v>
@@ -32210,10 +32257,10 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C398" s="9">
         <v>781</v>
@@ -32251,10 +32298,10 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C399" s="9">
         <v>900</v>
@@ -32281,7 +32328,7 @@
         <v>34</v>
       </c>
       <c r="K399" s="8" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="L399" s="8">
         <v>0</v>
@@ -32292,10 +32339,10 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C400" s="9">
         <v>900</v>
@@ -32322,7 +32369,7 @@
         <v>34</v>
       </c>
       <c r="K400" s="8" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="L400" s="8">
         <v>0</v>
@@ -32333,10 +32380,10 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B401" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="C401" s="9">
         <v>611</v>
@@ -32374,10 +32421,10 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C402" s="9">
         <v>1723</v>
@@ -32415,10 +32462,10 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C403" s="9">
         <v>1713</v>
@@ -32456,10 +32503,10 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C404" s="9">
         <v>1719</v>
@@ -32497,10 +32544,10 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C405" s="9">
         <v>1714</v>
@@ -32538,10 +32585,10 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C406" s="9">
         <v>1706</v>
@@ -32579,10 +32626,10 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C407" s="9">
         <v>900</v>
@@ -32606,7 +32653,7 @@
         <v>1</v>
       </c>
       <c r="J407" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K407" s="8">
         <v>0</v>
@@ -32620,10 +32667,10 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C408" s="9">
         <v>900</v>
@@ -32647,7 +32694,7 @@
         <v>1</v>
       </c>
       <c r="J408" s="8" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K408" s="8">
         <v>0</v>
@@ -32661,10 +32708,10 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C409" s="9">
         <v>900</v>
@@ -32688,7 +32735,7 @@
         <v>1</v>
       </c>
       <c r="J409" s="8" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K409" s="8">
         <v>0</v>
@@ -32702,10 +32749,10 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C410" s="9">
         <v>900</v>
@@ -32729,7 +32776,7 @@
         <v>1</v>
       </c>
       <c r="J410" s="8" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="K410" s="8">
         <v>0</v>
@@ -32743,10 +32790,10 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C411" s="9">
         <v>900</v>
@@ -32770,7 +32817,7 @@
         <v>1</v>
       </c>
       <c r="J411" s="8" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="K411" s="8">
         <v>0</v>
@@ -32784,10 +32831,10 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C412" s="9">
         <v>900</v>
@@ -32811,7 +32858,7 @@
         <v>1</v>
       </c>
       <c r="J412" s="8" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="K412" s="8">
         <v>0</v>
@@ -32825,10 +32872,10 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C413" s="9">
         <v>900</v>
@@ -32852,7 +32899,7 @@
         <v>1</v>
       </c>
       <c r="J413" s="8" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="K413" s="8">
         <v>0</v>
@@ -32866,10 +32913,10 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C414" s="9">
         <v>950</v>
@@ -32893,7 +32940,7 @@
         <v>1</v>
       </c>
       <c r="J414" s="8" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="K414" s="8">
         <v>0</v>
@@ -32907,10 +32954,10 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C415" s="9">
         <v>1601</v>
@@ -32948,10 +32995,10 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C416" s="9">
         <v>1602</v>
@@ -32989,10 +33036,10 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C417" s="9">
         <v>771</v>
@@ -33030,10 +33077,10 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C418" s="9">
         <v>773</v>
@@ -33071,10 +33118,10 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C419" s="9">
         <v>1605</v>
@@ -33112,10 +33159,10 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C420" s="9">
         <v>1607</v>
@@ -33153,10 +33200,10 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C421" s="9">
         <v>0</v>
@@ -33194,10 +33241,10 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C422" s="9">
         <v>0</v>
@@ -33235,10 +33282,10 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C423" s="9">
         <v>686</v>
@@ -33262,7 +33309,7 @@
         <v>0</v>
       </c>
       <c r="J423" s="8" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K423" s="8">
         <v>0</v>
@@ -33276,10 +33323,10 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C424" s="9">
         <v>749</v>
@@ -33303,7 +33350,7 @@
         <v>0</v>
       </c>
       <c r="J424" s="8" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K424" s="8">
         <v>0</v>
@@ -33317,10 +33364,10 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C425" s="9">
         <v>620</v>
@@ -33344,7 +33391,7 @@
         <v>0</v>
       </c>
       <c r="J425" s="8" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K425" s="8">
         <v>0</v>
@@ -33358,10 +33405,10 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C426" s="9">
         <v>581</v>
@@ -33399,10 +33446,10 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C427" s="9">
         <v>564</v>
@@ -33440,10 +33487,10 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C428" s="9">
         <v>615</v>
@@ -33481,10 +33528,10 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C429" s="9">
         <v>1703</v>
@@ -33522,10 +33569,10 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C430" s="9">
         <v>1703</v>
@@ -33563,10 +33610,10 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C431" s="9">
         <v>659</v>
@@ -33604,10 +33651,10 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C432" s="9">
         <v>1705</v>
@@ -33645,10 +33692,10 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C433" s="9">
         <v>629</v>
@@ -33686,10 +33733,10 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C434" s="9">
         <v>1718</v>
@@ -33727,10 +33774,10 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C435" s="9">
         <v>1726</v>
@@ -33768,10 +33815,10 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C436" s="9">
         <v>733</v>
@@ -33809,10 +33856,10 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C437" s="9">
         <v>1701</v>
@@ -33850,10 +33897,10 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C438" s="9">
         <v>1702</v>
@@ -33891,10 +33938,10 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C439" s="9">
         <v>788</v>
@@ -33932,10 +33979,10 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C440" s="9">
         <v>1709</v>
@@ -33973,10 +34020,10 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C441" s="9">
         <v>1710</v>
@@ -34014,10 +34061,10 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C442" s="9">
         <v>1711</v>
@@ -34055,10 +34102,10 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C443" s="9">
         <v>677</v>
@@ -34096,10 +34143,10 @@
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C444" s="9">
         <v>1715</v>
